--- a/files/info_6.19.xlsx
+++ b/files/info_6.19.xlsx
@@ -143,10 +143,10 @@
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ï¼­ï¼³ ï¼°ã´ã·ãã¯"/>
-        <a:font script="Hang" typeface="ë§ì ê³ ë"/>
-        <a:font script="Hans" typeface="å®ä½"/>
-        <a:font script="Hant" typeface="æ°ç´°æé«"/>
+        <a:font script="Jpan" typeface="ÃÂÃÂ¯ÃÂÃÂ¼ÃÂÃÂ­ÃÂÃÂ¯ÃÂÃÂ¼ÃÂÃÂ³ ÃÂÃÂ¯ÃÂÃÂ¼ÃÂÃÂ°ÃÂÃÂ£ÃÂÃÂÃÂÃÂ´ÃÂÃÂ£ÃÂÃÂÃÂÃÂ·ÃÂÃÂ£ÃÂÃÂÃÂÃÂÃÂÃÂ£ÃÂÃÂÃÂÃÂ¯"/>
+        <a:font script="Hang" typeface="ÃÂÃÂ«ÃÂÃÂ§ÃÂÃÂÃÂÃÂ¬ÃÂÃÂÃÂÃÂ ÃÂÃÂªÃÂÃÂ³ÃÂÃÂ ÃÂÃÂ«ÃÂÃÂÃÂÃÂ"/>
+        <a:font script="Hans" typeface="ÃÂÃÂ¥ÃÂÃÂ®ÃÂÃÂÃÂÃÂ¤ÃÂÃÂ½ÃÂÃÂ"/>
+        <a:font script="Hant" typeface="ÃÂÃÂ¦ÃÂÃÂÃÂÃÂ°ÃÂÃÂ§ÃÂÃÂ´ÃÂÃÂ°ÃÂÃÂ¦ÃÂÃÂÃÂÃÂÃÂÃÂ©ÃÂÃÂ«ÃÂÃÂ"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -178,10 +178,10 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ï¼­ï¼³ ï¼°ã´ã·ãã¯"/>
-        <a:font script="Hang" typeface="ë§ì ê³ ë"/>
-        <a:font script="Hans" typeface="å®ä½"/>
-        <a:font script="Hant" typeface="æ°ç´°æé«"/>
+        <a:font script="Jpan" typeface="ÃÂÃÂ¯ÃÂÃÂ¼ÃÂÃÂ­ÃÂÃÂ¯ÃÂÃÂ¼ÃÂÃÂ³ ÃÂÃÂ¯ÃÂÃÂ¼ÃÂÃÂ°ÃÂÃÂ£ÃÂÃÂÃÂÃÂ´ÃÂÃÂ£ÃÂÃÂÃÂÃÂ·ÃÂÃÂ£ÃÂÃÂÃÂÃÂÃÂÃÂ£ÃÂÃÂÃÂÃÂ¯"/>
+        <a:font script="Hang" typeface="ÃÂÃÂ«ÃÂÃÂ§ÃÂÃÂÃÂÃÂ¬ÃÂÃÂÃÂÃÂ ÃÂÃÂªÃÂÃÂ³ÃÂÃÂ ÃÂÃÂ«ÃÂÃÂÃÂÃÂ"/>
+        <a:font script="Hans" typeface="ÃÂÃÂ¥ÃÂÃÂ®ÃÂÃÂÃÂÃÂ¤ÃÂÃÂ½ÃÂÃÂ"/>
+        <a:font script="Hant" typeface="ÃÂÃÂ¦ÃÂÃÂÃÂÃÂ°ÃÂÃÂ§ÃÂÃÂ´ÃÂÃÂ°ÃÂÃÂ¦ÃÂÃÂÃÂÃÂÃÂÃÂ©ÃÂÃÂ«ÃÂÃÂ"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -373,10 +373,10 @@
         <v>init19nsds733n933myf8cxtudgvwufrx4ewdsrxgqc</v>
       </c>
       <c r="D2" t="str">
-        <v>5.349524</v>
-      </c>
-      <c r="E2" t="str">
-        <v>22.627958</v>
+        <v>6</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
       </c>
       <c r="F2" t="str">
         <v>init19nsds733n933myf8cxtudgvwufrx4ewdsrxgqc</v>
@@ -396,10 +396,10 @@
         <v>init1ykdjrecan4c6cj59l6k2a0w9y02umh4u7fcpc2</v>
       </c>
       <c r="D3" t="str">
-        <v>3.620002</v>
-      </c>
-      <c r="E3" t="str">
-        <v>33.464843</v>
+        <v>8</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
       </c>
       <c r="F3" t="str">
         <v>init1ykdjrecan4c6cj59l6k2a0w9y02umh4u7fcpc2</v>
@@ -419,10 +419,10 @@
         <v>init1xcaj7gh5vtheamxk8aarrrygjkaehy2gfwxwur</v>
       </c>
       <c r="D4" t="str">
-        <v>3.488371</v>
-      </c>
-      <c r="E4" t="str">
-        <v>18.826925</v>
+        <v>8</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
       </c>
       <c r="F4" t="str">
         <v>init1xcaj7gh5vtheamxk8aarrrygjkaehy2gfwxwur</v>
@@ -442,10 +442,10 @@
         <v>init1z7uvfwasmqjd9lpq2z9trehetq5g86qcr6g4q2</v>
       </c>
       <c r="D5" t="str">
-        <v>3.424031</v>
-      </c>
-      <c r="E5" t="str">
-        <v>33.391435</v>
+        <v>10</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
       </c>
       <c r="F5" t="str">
         <v>init1z7uvfwasmqjd9lpq2z9trehetq5g86qcr6g4q2</v>
@@ -465,10 +465,10 @@
         <v>init1zsv6t8zjlwj8jyqctak3qrg8myxcl2ak07pzp4</v>
       </c>
       <c r="D6" t="str">
-        <v>6.516881</v>
-      </c>
-      <c r="E6" t="str">
-        <v>37.217348</v>
+        <v>9</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
       </c>
       <c r="F6" t="str">
         <v>init1zsv6t8zjlwj8jyqctak3qrg8myxcl2ak07pzp4</v>
@@ -488,10 +488,10 @@
         <v>init1uk4pfzv0sevlstvjw62nlqvfm3p9vwr4qywvce</v>
       </c>
       <c r="D7" t="str">
-        <v>3.387346</v>
-      </c>
-      <c r="E7" t="str">
-        <v>32.411766</v>
+        <v>7</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
       </c>
       <c r="F7" t="str">
         <v>init1uk4pfzv0sevlstvjw62nlqvfm3p9vwr4qywvce</v>
@@ -511,10 +511,10 @@
         <v>init18akl4gpdnv82fkk6rxyz5j598p0h37t2vgesvs</v>
       </c>
       <c r="D8" t="str">
-        <v>3.248298</v>
-      </c>
-      <c r="E8" t="str">
-        <v>29.428419</v>
+        <v>7</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
       </c>
       <c r="F8" t="str">
         <v>init18akl4gpdnv82fkk6rxyz5j598p0h37t2vgesvs</v>
@@ -534,10 +534,10 @@
         <v>init126zfmzej5uh0dth00653xhww8ghmd4ngh7kkye</v>
       </c>
       <c r="D9" t="str">
-        <v>3.195435</v>
-      </c>
-      <c r="E9" t="str">
-        <v>30.077210</v>
+        <v>9</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
       </c>
       <c r="F9" t="str">
         <v>init126zfmzej5uh0dth00653xhww8ghmd4ngh7kkye</v>
@@ -557,10 +557,10 @@
         <v>init1u8p3jvm5f9l2lvh92t2qlwyp2pkfmknx20mszl</v>
       </c>
       <c r="D10" t="str">
-        <v>3.161409</v>
-      </c>
-      <c r="E10" t="str">
-        <v>26.414084</v>
+        <v>7</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
       </c>
       <c r="F10" t="str">
         <v>init1u8p3jvm5f9l2lvh92t2qlwyp2pkfmknx20mszl</v>
@@ -580,10 +580,10 @@
         <v>init1g2p66yc2ykd3vwwkk8m08xda5qmtfhsxzp0qlk</v>
       </c>
       <c r="D11" t="str">
-        <v>2.626654</v>
-      </c>
-      <c r="E11" t="str">
-        <v>29.329421</v>
+        <v>9</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
       </c>
       <c r="F11" t="str">
         <v>init1g2p66yc2ykd3vwwkk8m08xda5qmtfhsxzp0qlk</v>
@@ -603,10 +603,10 @@
         <v>init1pce9jvz327slpufv6sqk5gjz9knd0ne6uxpp80</v>
       </c>
       <c r="D12" t="str">
-        <v>2.809726</v>
-      </c>
-      <c r="E12" t="str">
-        <v>33.656537</v>
+        <v>7</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
       </c>
       <c r="F12" t="str">
         <v>init1pce9jvz327slpufv6sqk5gjz9knd0ne6uxpp80</v>
@@ -626,10 +626,10 @@
         <v>init1yffkt53sg5rm5gsm426tzsf3uxghw8sfd3nk32</v>
       </c>
       <c r="D13" t="str">
-        <v>3.525506</v>
-      </c>
-      <c r="E13" t="str">
-        <v>26.802121</v>
+        <v>8</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
       </c>
       <c r="F13" t="str">
         <v>init1yffkt53sg5rm5gsm426tzsf3uxghw8sfd3nk32</v>
@@ -649,10 +649,10 @@
         <v>init1e36egkjyq794fq9je5kp9ykty8ttq3kexm2mwd</v>
       </c>
       <c r="D14" t="str">
-        <v>3.004960</v>
-      </c>
-      <c r="E14" t="str">
-        <v>28.106193</v>
+        <v>9</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
       </c>
       <c r="F14" t="str">
         <v>init1e36egkjyq794fq9je5kp9ykty8ttq3kexm2mwd</v>
@@ -672,10 +672,10 @@
         <v>init14ka296mf5px8wtarq47hdj2885ekq6tksgy407</v>
       </c>
       <c r="D15" t="str">
-        <v>2.381845</v>
-      </c>
-      <c r="E15" t="str">
-        <v>27.487334</v>
+        <v>7</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
       </c>
       <c r="F15" t="str">
         <v>init14ka296mf5px8wtarq47hdj2885ekq6tksgy407</v>
@@ -695,10 +695,10 @@
         <v>init1a5dhtyxp99h8q9mk6y4hkhty33s3lnmxs4uq83</v>
       </c>
       <c r="D16" t="str">
-        <v>2.288427</v>
-      </c>
-      <c r="E16" t="str">
-        <v>35.688902</v>
+        <v>9</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
       </c>
       <c r="F16" t="str">
         <v>init1a5dhtyxp99h8q9mk6y4hkhty33s3lnmxs4uq83</v>
@@ -718,10 +718,10 @@
         <v>init1hnzlur56nhk7nh0z7cecskqhzvl5pcrpk252ru</v>
       </c>
       <c r="D17" t="str">
-        <v>3.533253</v>
-      </c>
-      <c r="E17" t="str">
-        <v>54.623634</v>
+        <v>9</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
       </c>
       <c r="F17" t="str">
         <v>init1hnzlur56nhk7nh0z7cecskqhzvl5pcrpk252ru</v>
@@ -741,10 +741,10 @@
         <v>init18t2pnt22hpcga9ltm53kzc87urcu6na304nqr7</v>
       </c>
       <c r="D18" t="str">
-        <v>2.362733</v>
-      </c>
-      <c r="E18" t="str">
-        <v>43.900011</v>
+        <v>11</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
       </c>
       <c r="F18" t="str">
         <v>init18t2pnt22hpcga9ltm53kzc87urcu6na304nqr7</v>
@@ -764,10 +764,10 @@
         <v>init10ckpt0xrwdxm2z6e5rg2zxtmnl9kxyhcazycxn</v>
       </c>
       <c r="D19" t="str">
-        <v>2.748434</v>
-      </c>
-      <c r="E19" t="str">
-        <v>35.274755</v>
+        <v>7</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
       </c>
       <c r="F19" t="str">
         <v>init10ckpt0xrwdxm2z6e5rg2zxtmnl9kxyhcazycxn</v>
@@ -787,10 +787,10 @@
         <v>init1wfvz6qqvz2jfvpuyyqa6vasa6nj2s5f0tfc5wz</v>
       </c>
       <c r="D20" t="str">
-        <v>2.374891</v>
-      </c>
-      <c r="E20" t="str">
-        <v>35.749799</v>
+        <v>9</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
       </c>
       <c r="F20" t="str">
         <v>init1wfvz6qqvz2jfvpuyyqa6vasa6nj2s5f0tfc5wz</v>
@@ -810,10 +810,10 @@
         <v>init1t5hhg3lg6pd6k58muxdzyrw0gz2hrczmglnj80</v>
       </c>
       <c r="D21" t="str">
-        <v>2.423738</v>
-      </c>
-      <c r="E21" t="str">
-        <v>30.683759</v>
+        <v>7</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
       </c>
       <c r="F21" t="str">
         <v>init1t5hhg3lg6pd6k58muxdzyrw0gz2hrczmglnj80</v>
@@ -833,10 +833,10 @@
         <v>init1m9z48wy5xcy7kgx7w98a0clxfe920k7hdd5h2n</v>
       </c>
       <c r="D22" t="str">
-        <v>2.426001</v>
-      </c>
-      <c r="E22" t="str">
-        <v>30.781413</v>
+        <v>7</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
       </c>
       <c r="F22" t="str">
         <v>init1m9z48wy5xcy7kgx7w98a0clxfe920k7hdd5h2n</v>
@@ -856,10 +856,10 @@
         <v>init1ymplykslzz73nlzfcaau3xsz4pv0r0l3hhzflh</v>
       </c>
       <c r="D23" t="str">
-        <v>2.148709</v>
-      </c>
-      <c r="E23" t="str">
-        <v>27.679442</v>
+        <v>7</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
       </c>
       <c r="F23" t="str">
         <v>init1ymplykslzz73nlzfcaau3xsz4pv0r0l3hhzflh</v>
@@ -879,10 +879,10 @@
         <v>init18taeuhcea5cqt8d365eac5jrvngnm57wwk9q2m</v>
       </c>
       <c r="D24" t="str">
-        <v>4.353397</v>
-      </c>
-      <c r="E24" t="str">
-        <v>19.779467</v>
+        <v>5</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
       </c>
       <c r="F24" t="str">
         <v>init18taeuhcea5cqt8d365eac5jrvngnm57wwk9q2m</v>
@@ -902,10 +902,10 @@
         <v>init1zfmfas8ck5wletlx4444lkj497urf8evkcmef5</v>
       </c>
       <c r="D25" t="str">
-        <v>4.986182</v>
-      </c>
-      <c r="E25" t="str">
-        <v>26.252671</v>
+        <v>5</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
       </c>
       <c r="F25" t="str">
         <v>init1zfmfas8ck5wletlx4444lkj497urf8evkcmef5</v>
@@ -925,10 +925,10 @@
         <v>init1rmh6jmt690054cw0t9eg6sqze5vug4hdeg7fas</v>
       </c>
       <c r="D26" t="str">
-        <v>4.654065</v>
-      </c>
-      <c r="E26" t="str">
-        <v>24.373823</v>
+        <v>7</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
       </c>
       <c r="F26" t="str">
         <v>init1rmh6jmt690054cw0t9eg6sqze5vug4hdeg7fas</v>
@@ -948,10 +948,10 @@
         <v>init10wcj69nlnt9qh38rwhxfch690m8zv328ygza7h</v>
       </c>
       <c r="D27" t="str">
-        <v>13.705251</v>
-      </c>
-      <c r="E27" t="str">
-        <v>87.043566</v>
+        <v>11</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
       </c>
       <c r="F27" t="str">
         <v>init10wcj69nlnt9qh38rwhxfch690m8zv328ygza7h</v>
@@ -971,10 +971,10 @@
         <v>init1gutkjuevwx4kdyd6m94ryjlxv4gekacga4t0ej</v>
       </c>
       <c r="D28" t="str">
-        <v>4.817772</v>
-      </c>
-      <c r="E28" t="str">
-        <v>17.975539</v>
+        <v>7</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
       </c>
       <c r="F28" t="str">
         <v>init1gutkjuevwx4kdyd6m94ryjlxv4gekacga4t0ej</v>
@@ -994,10 +994,10 @@
         <v>init14f8jvd5frcw3f9mvf52ds8dyttzw99yq2h82rq</v>
       </c>
       <c r="D29" t="str">
-        <v>4.443798</v>
-      </c>
-      <c r="E29" t="str">
-        <v>17.214302</v>
+        <v>7</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
       </c>
       <c r="F29" t="str">
         <v>init14f8jvd5frcw3f9mvf52ds8dyttzw99yq2h82rq</v>
@@ -1017,10 +1017,10 @@
         <v>init12azxs59et57x4v0sund5mu25yth3uuhzqeukdx</v>
       </c>
       <c r="D30" t="str">
-        <v>17.010173</v>
-      </c>
-      <c r="E30" t="str">
-        <v>28.449279</v>
+        <v>7</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
       </c>
       <c r="F30" t="str">
         <v>init12azxs59et57x4v0sund5mu25yth3uuhzqeukdx</v>
@@ -1040,10 +1040,10 @@
         <v>init1x8aet045c7d3e4vpzz3ke4aytrnl8spd52hnqt</v>
       </c>
       <c r="D31" t="str">
-        <v>2.355916</v>
-      </c>
-      <c r="E31" t="str">
-        <v>26.598606</v>
+        <v>9</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
       </c>
       <c r="F31" t="str">
         <v>init1x8aet045c7d3e4vpzz3ke4aytrnl8spd52hnqt</v>
@@ -1063,10 +1063,10 @@
         <v>init1a8vkg4axdnmg7x9ac3ayg4wgpq2x5s0hhwsz7s</v>
       </c>
       <c r="D32" t="str">
-        <v>2.368130</v>
-      </c>
-      <c r="E32" t="str">
-        <v>35.314373</v>
+        <v>9</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
       </c>
       <c r="F32" t="str">
         <v>init1a8vkg4axdnmg7x9ac3ayg4wgpq2x5s0hhwsz7s</v>
@@ -1086,10 +1086,10 @@
         <v>init1l2nhav7nxtv9w3v0w4xpj9hgjsrwnv6xdzrr75</v>
       </c>
       <c r="D33" t="str">
-        <v>2.530453</v>
-      </c>
-      <c r="E33" t="str">
-        <v>35.207735</v>
+        <v>7</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
       </c>
       <c r="F33" t="str">
         <v>init1l2nhav7nxtv9w3v0w4xpj9hgjsrwnv6xdzrr75</v>
@@ -1109,10 +1109,10 @@
         <v>init16stcvpdk7kmq39dpz3e0yq5ymec3ge8lxpnrve</v>
       </c>
       <c r="D34" t="str">
-        <v>2.385494</v>
-      </c>
-      <c r="E34" t="str">
-        <v>32.523813</v>
+        <v>7</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
       </c>
       <c r="F34" t="str">
         <v>init16stcvpdk7kmq39dpz3e0yq5ymec3ge8lxpnrve</v>
@@ -1132,10 +1132,10 @@
         <v>init1x98n9s5dwgs9ptupg0csmdx9kg93zlc05znwvv</v>
       </c>
       <c r="D35" t="str">
-        <v>2.314261</v>
-      </c>
-      <c r="E35" t="str">
-        <v>33.427751</v>
+        <v>9</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
       </c>
       <c r="F35" t="str">
         <v>init1x98n9s5dwgs9ptupg0csmdx9kg93zlc05znwvv</v>
@@ -1155,10 +1155,10 @@
         <v>init1dd0e89grfnrv25rux7dxn4kawn6ztgk6qw4fnd</v>
       </c>
       <c r="D36" t="str">
-        <v>2.222380</v>
-      </c>
-      <c r="E36" t="str">
-        <v>63.314035</v>
+        <v>9</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
       </c>
       <c r="F36" t="str">
         <v>init1dd0e89grfnrv25rux7dxn4kawn6ztgk6qw4fnd</v>
@@ -1178,10 +1178,10 @@
         <v>init1jwunrldpzk54dcd9tvw2zth98n3nyv977ht5x5</v>
       </c>
       <c r="D37" t="str">
-        <v>2.371670</v>
-      </c>
-      <c r="E37" t="str">
-        <v>40.400028</v>
+        <v>7</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
       </c>
       <c r="F37" t="str">
         <v>init1jwunrldpzk54dcd9tvw2zth98n3nyv977ht5x5</v>
@@ -1201,10 +1201,10 @@
         <v>init1lwsmqywh49sctvr3n8xytu8fk8daqq8x3e5q66</v>
       </c>
       <c r="D38" t="str">
-        <v>2.373376</v>
-      </c>
-      <c r="E38" t="str">
-        <v>34.311774</v>
+        <v>5</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
       </c>
       <c r="F38" t="str">
         <v>init1lwsmqywh49sctvr3n8xytu8fk8daqq8x3e5q66</v>
@@ -1224,10 +1224,10 @@
         <v>init10k0puus7m3cv0vyskfwm56nlv9pju0ajafpklw</v>
       </c>
       <c r="D39" t="str">
-        <v>2.314586</v>
-      </c>
-      <c r="E39" t="str">
-        <v>32.311225</v>
+        <v>9</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
       </c>
       <c r="F39" t="str">
         <v>init10k0puus7m3cv0vyskfwm56nlv9pju0ajafpklw</v>
@@ -1247,10 +1247,10 @@
         <v>init1lfuunutvavxl8kghr6dsw7fsmk3z7zeqrwhtcv</v>
       </c>
       <c r="D40" t="str">
-        <v>2.410671</v>
-      </c>
-      <c r="E40" t="str">
-        <v>32.419768</v>
+        <v>9</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
       </c>
       <c r="F40" t="str">
         <v>init1lfuunutvavxl8kghr6dsw7fsmk3z7zeqrwhtcv</v>
@@ -1270,10 +1270,10 @@
         <v>init1kwcp5aklsmt22v38mvkp3rhp8l6mvhpvffhlxy</v>
       </c>
       <c r="D41" t="str">
-        <v>2.306266</v>
-      </c>
-      <c r="E41" t="str">
-        <v>40.400065</v>
+        <v>7</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
       </c>
       <c r="F41" t="str">
         <v>init1kwcp5aklsmt22v38mvkp3rhp8l6mvhpvffhlxy</v>
@@ -1293,10 +1293,10 @@
         <v>init1h3wn55v6rqyz93p57247f2kk5gnqfehjl6jqmf</v>
       </c>
       <c r="D42" t="str">
-        <v>2.510641</v>
-      </c>
-      <c r="E42" t="str">
-        <v>34.110841</v>
+        <v>7</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
       </c>
       <c r="F42" t="str">
         <v>init1h3wn55v6rqyz93p57247f2kk5gnqfehjl6jqmf</v>
@@ -1316,10 +1316,10 @@
         <v>init10n9j20k4s9ryfcxdvt6dlgr25y9ypsdparue3z</v>
       </c>
       <c r="D43" t="str">
-        <v>2.411673</v>
-      </c>
-      <c r="E43" t="str">
-        <v>35.110835</v>
+        <v>9</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
       </c>
       <c r="F43" t="str">
         <v>init10n9j20k4s9ryfcxdvt6dlgr25y9ypsdparue3z</v>
@@ -1339,10 +1339,10 @@
         <v>init19uehet6euewuxghktdvhjzdxzs5j46fg9gfd5z</v>
       </c>
       <c r="D44" t="str">
-        <v>2.447619</v>
-      </c>
-      <c r="E44" t="str">
-        <v>37.170465</v>
+        <v>7</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
       </c>
       <c r="F44" t="str">
         <v>init19uehet6euewuxghktdvhjzdxzs5j46fg9gfd5z</v>
@@ -1362,10 +1362,10 @@
         <v>init1970wj2hc2v9wzew4q707zvups3lqh2z5644ry5</v>
       </c>
       <c r="D45" t="str">
-        <v>2.390632</v>
-      </c>
-      <c r="E45" t="str">
-        <v>31.206667</v>
+        <v>7</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
       </c>
       <c r="F45" t="str">
         <v>init1970wj2hc2v9wzew4q707zvups3lqh2z5644ry5</v>
@@ -1385,10 +1385,10 @@
         <v>init13n6frertd8u2cgkncp69yl6yuew9a68r2cy4qf</v>
       </c>
       <c r="D46" t="str">
-        <v>2.332566</v>
-      </c>
-      <c r="E46" t="str">
-        <v>30.676870</v>
+        <v>15</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
       </c>
       <c r="F46" t="str">
         <v>init13n6frertd8u2cgkncp69yl6yuew9a68r2cy4qf</v>
@@ -1408,10 +1408,10 @@
         <v>init14tfq6suzkle6c9hwr35huxlwfwlvtqvyzy92hw</v>
       </c>
       <c r="D47" t="str">
-        <v>2.524604</v>
-      </c>
-      <c r="E47" t="str">
-        <v>37.206172</v>
+        <v>9</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
       </c>
       <c r="F47" t="str">
         <v>init14tfq6suzkle6c9hwr35huxlwfwlvtqvyzy92hw</v>
@@ -1428,10 +1428,10 @@
         <v>inject fluid immense vintage favorite unfold learn dutch across object silver diamond</v>
       </c>
       <c r="D48" t="str">
-        <v>2.349194</v>
-      </c>
-      <c r="E48" t="str">
-        <v>36.179061</v>
+        <v>9</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
       </c>
       <c r="F48" t="str">
         <v>init1ugu773g837wt29m96dm4m4gfsaeq85rycphmqh</v>
@@ -1451,10 +1451,10 @@
         <v>init1a54tkn0xhh58e63mnd4mngkl8fr2ke5am6fg5q</v>
       </c>
       <c r="D49" t="str">
-        <v>2.510386</v>
-      </c>
-      <c r="E49" t="str">
-        <v>37.079888</v>
+        <v>7</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
       </c>
       <c r="F49" t="str">
         <v>init1a54tkn0xhh58e63mnd4mngkl8fr2ke5am6fg5q</v>
@@ -1474,10 +1474,10 @@
         <v>init1e97qerstrw7a2u3nqvlq6kkmntjeccjcvdl4yt</v>
       </c>
       <c r="D50" t="str">
-        <v>2.541814</v>
-      </c>
-      <c r="E50" t="str">
-        <v>60.179077</v>
+        <v>7</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
       </c>
       <c r="F50" t="str">
         <v>init1e97qerstrw7a2u3nqvlq6kkmntjeccjcvdl4yt</v>
@@ -1497,10 +1497,10 @@
         <v>init1t3fcrqgedsvhnqu342dmnkx3p0u427awa7pgm2</v>
       </c>
       <c r="D51" t="str">
-        <v>2.393376</v>
-      </c>
-      <c r="E51" t="str">
-        <v>37.098709</v>
+        <v>11</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
       </c>
       <c r="F51" t="str">
         <v>init1t3fcrqgedsvhnqu342dmnkx3p0u427awa7pgm2</v>
@@ -1520,10 +1520,10 @@
         <v>init1mq46fyt4ggt08qdxwwlpfa4s5s8e6aceu3wz92</v>
       </c>
       <c r="D52" t="str">
-        <v>9.208259</v>
-      </c>
-      <c r="E52" t="str">
-        <v>34.180030</v>
+        <v>9</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
       </c>
       <c r="F52" t="str">
         <v>init1mq46fyt4ggt08qdxwwlpfa4s5s8e6aceu3wz92</v>
@@ -1543,10 +1543,10 @@
         <v>init1a33qxyhykrm6fyj3de22kfqrkwrsr9xppwvg9p</v>
       </c>
       <c r="D53" t="str">
-        <v>2.559644</v>
-      </c>
-      <c r="E53" t="str">
-        <v>50.300071</v>
+        <v>9</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
       </c>
       <c r="F53" t="str">
         <v>init1a33qxyhykrm6fyj3de22kfqrkwrsr9xppwvg9p</v>
@@ -1566,10 +1566,10 @@
         <v>init1yddwevva8wraxqefcrc4ah57dy40h28dc398z3</v>
       </c>
       <c r="D54" t="str">
-        <v>9.259592</v>
-      </c>
-      <c r="E54" t="str">
-        <v>60.000015</v>
+        <v>5</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
       </c>
       <c r="F54" t="str">
         <v>init1yddwevva8wraxqefcrc4ah57dy40h28dc398z3</v>
@@ -1589,10 +1589,10 @@
         <v>init1allunvn976j4t3rh0yr3x0h027vn8qccnwd0dz</v>
       </c>
       <c r="D55" t="str">
-        <v>2.556037</v>
-      </c>
-      <c r="E55" t="str">
-        <v>1.200012</v>
+        <v>9</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
       </c>
       <c r="F55" t="str">
         <v>init1allunvn976j4t3rh0yr3x0h027vn8qccnwd0dz</v>
@@ -1612,10 +1612,10 @@
         <v>init1zqc8kd3x3axdgdpchl7kz3uzcfn3c757ygdft9</v>
       </c>
       <c r="D56" t="str">
-        <v>2.303715</v>
-      </c>
-      <c r="E56" t="str">
-        <v>37.183212</v>
+        <v>7</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
       </c>
       <c r="F56" t="str">
         <v>init1zqc8kd3x3axdgdpchl7kz3uzcfn3c757ygdft9</v>
@@ -1635,10 +1635,10 @@
         <v>init1pr3za6py70chzjg3j3r8jfnwstyunumdq3vv7d</v>
       </c>
       <c r="D57" t="str">
-        <v>2.287169</v>
-      </c>
-      <c r="E57" t="str">
-        <v>21.683056</v>
+        <v>7</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
       </c>
       <c r="F57" t="str">
         <v>init1pr3za6py70chzjg3j3r8jfnwstyunumdq3vv7d</v>
@@ -1658,10 +1658,10 @@
         <v>init1u3005gkrwgprpyhmcvr4x7qdf8v5y4trpyp8d8</v>
       </c>
       <c r="D58" t="str">
-        <v>2.243462</v>
-      </c>
-      <c r="E58" t="str">
-        <v>23.682974</v>
+        <v>9</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
       </c>
       <c r="F58" t="str">
         <v>init1u3005gkrwgprpyhmcvr4x7qdf8v5y4trpyp8d8</v>
@@ -1681,10 +1681,10 @@
         <v>init1d8d92vp5zlmn0t9s6ec9wrk42h9xaausrc7u7q</v>
       </c>
       <c r="D59" t="str">
-        <v>2.215714</v>
-      </c>
-      <c r="E59" t="str">
-        <v>33.779725</v>
+        <v>15</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
       </c>
       <c r="F59" t="str">
         <v>init1d8d92vp5zlmn0t9s6ec9wrk42h9xaausrc7u7q</v>
@@ -1704,10 +1704,10 @@
         <v>init1rq0n9m62jxxgza4dqrua5q908dmjp65lz8z78x</v>
       </c>
       <c r="D60" t="str">
-        <v>2.247148</v>
-      </c>
-      <c r="E60" t="str">
-        <v>32.178631</v>
+        <v>9</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
       </c>
       <c r="F60" t="str">
         <v>init1rq0n9m62jxxgza4dqrua5q908dmjp65lz8z78x</v>
@@ -1727,10 +1727,10 @@
         <v>init1f2d4vnsuep2veqlz7fztmgz9vvqe0zyvzyjlsl</v>
       </c>
       <c r="D61" t="str">
-        <v>2.393167</v>
-      </c>
-      <c r="E61" t="str">
-        <v>24.674337</v>
+        <v>5</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
       </c>
       <c r="F61" t="str">
         <v>init1f2d4vnsuep2veqlz7fztmgz9vvqe0zyvzyjlsl</v>
@@ -1750,10 +1750,10 @@
         <v>init1cp0dn3wl40hxdpdfjuwewvsmeyv2at97e32dg3</v>
       </c>
       <c r="D62" t="str">
-        <v>2.297702</v>
-      </c>
-      <c r="E62" t="str">
-        <v>37.175723</v>
+        <v>9</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
       </c>
       <c r="F62" t="str">
         <v>init1cp0dn3wl40hxdpdfjuwewvsmeyv2at97e32dg3</v>
@@ -1773,10 +1773,10 @@
         <v>init1kv5z8vtnsntxjqjerx5mgl2nvj2frpvp5gefn3</v>
       </c>
       <c r="D63" t="str">
-        <v>2.407451</v>
-      </c>
-      <c r="E63" t="str">
-        <v>38.067240</v>
+        <v>11</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
       </c>
       <c r="F63" t="str">
         <v>init1kv5z8vtnsntxjqjerx5mgl2nvj2frpvp5gefn3</v>
@@ -1796,10 +1796,10 @@
         <v>init1fk7ymy59la4quhsnh7x2j2cy5lvlutt8y43ffy</v>
       </c>
       <c r="D64" t="str">
-        <v>2.560383</v>
-      </c>
-      <c r="E64" t="str">
-        <v>30.966852</v>
+        <v>7</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
       </c>
       <c r="F64" t="str">
         <v>init1fk7ymy59la4quhsnh7x2j2cy5lvlutt8y43ffy</v>
@@ -1819,10 +1819,10 @@
         <v>init1hweufp7cgrm0gskhjjy7ems99tqmy9h88l06sv</v>
       </c>
       <c r="D65" t="str">
-        <v>2.300160</v>
-      </c>
-      <c r="E65" t="str">
-        <v>36.066608</v>
+        <v>7</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
       </c>
       <c r="F65" t="str">
         <v>init1hweufp7cgrm0gskhjjy7ems99tqmy9h88l06sv</v>
@@ -1842,10 +1842,10 @@
         <v>init1m6t9d5gxnr87kqj5z79ldwuh2fr7dpu5uandnz</v>
       </c>
       <c r="D66" t="str">
-        <v>2.443696</v>
-      </c>
-      <c r="E66" t="str">
-        <v>37.166672</v>
+        <v>7</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
       </c>
       <c r="F66" t="str">
         <v>init1m6t9d5gxnr87kqj5z79ldwuh2fr7dpu5uandnz</v>
@@ -1865,10 +1865,10 @@
         <v>init1sl6ljq9ct5t5mxyxj9lurdyxyrdus0rx6gmdst</v>
       </c>
       <c r="D67" t="str">
-        <v>2.395002</v>
-      </c>
-      <c r="E67" t="str">
-        <v>36.166437</v>
+        <v>7</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
       </c>
       <c r="F67" t="str">
         <v>init1sl6ljq9ct5t5mxyxj9lurdyxyrdus0rx6gmdst</v>
@@ -1888,10 +1888,10 @@
         <v>init1ashuakzj2rtf2v4au0lc2pnfsq8hw73z0074qw</v>
       </c>
       <c r="D68" t="str">
-        <v>2.382897</v>
-      </c>
-      <c r="E68" t="str">
-        <v>33.058303</v>
+        <v>9</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
       </c>
       <c r="F68" t="str">
         <v>init1ashuakzj2rtf2v4au0lc2pnfsq8hw73z0074qw</v>
@@ -1911,10 +1911,10 @@
         <v>init1cl3xp59faxjhaw6mpjsz9ezv2r7ng377mqrf7s</v>
       </c>
       <c r="D69" t="str">
-        <v>2.535917</v>
-      </c>
-      <c r="E69" t="str">
-        <v>37.158594</v>
+        <v>11</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
       </c>
       <c r="F69" t="str">
         <v>init1cl3xp59faxjhaw6mpjsz9ezv2r7ng377mqrf7s</v>
@@ -1934,10 +1934,10 @@
         <v>init1x33n289l3e5xtc62p7fkkkjk4gn2ln4dsvq0rq</v>
       </c>
       <c r="D70" t="str">
-        <v>2.511156</v>
-      </c>
-      <c r="E70" t="str">
-        <v>24.657520</v>
+        <v>5</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
       </c>
       <c r="F70" t="str">
         <v>init1x33n289l3e5xtc62p7fkkkjk4gn2ln4dsvq0rq</v>
@@ -1957,10 +1957,10 @@
         <v>init1vq6yk4u5w32v2z97mp0nrr7ck5v88fchyph73j</v>
       </c>
       <c r="D71" t="str">
-        <v>2.561027</v>
-      </c>
-      <c r="E71" t="str">
-        <v>38.096672</v>
+        <v>9</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
       </c>
       <c r="F71" t="str">
         <v>init1vq6yk4u5w32v2z97mp0nrr7ck5v88fchyph73j</v>
@@ -1980,10 +1980,10 @@
         <v>init1hetze8rylq5pr4qhn6lnrccqs0zn6fykxrt37q</v>
       </c>
       <c r="D72" t="str">
-        <v>2.565233</v>
-      </c>
-      <c r="E72" t="str">
-        <v>37.096422</v>
+        <v>9</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
       </c>
       <c r="F72" t="str">
         <v>init1hetze8rylq5pr4qhn6lnrccqs0zn6fykxrt37q</v>
@@ -2003,10 +2003,10 @@
         <v>init1ycdnv3rvp8zp9jqsm4fqhrt0yz9nh6tar6vapm</v>
       </c>
       <c r="D73" t="str">
-        <v>2.631733</v>
-      </c>
-      <c r="E73" t="str">
-        <v>32.096037</v>
+        <v>11</v>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
       </c>
       <c r="F73" t="str">
         <v>init1ycdnv3rvp8zp9jqsm4fqhrt0yz9nh6tar6vapm</v>
@@ -2026,10 +2026,10 @@
         <v>init17peha5gdjvd3nn0n97jdnr4h455f3cnvsfgnrw</v>
       </c>
       <c r="D74" t="str">
-        <v>2.563945</v>
-      </c>
-      <c r="E74" t="str">
-        <v>37.097474</v>
+        <v>13</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
       </c>
       <c r="F74" t="str">
         <v>init17peha5gdjvd3nn0n97jdnr4h455f3cnvsfgnrw</v>
@@ -2049,10 +2049,10 @@
         <v>init1z9qlh5l36ew94f75wm8585sd9ua63s9hg9ewhe</v>
       </c>
       <c r="D75" t="str">
-        <v>2.625159</v>
-      </c>
-      <c r="E75" t="str">
-        <v>36.993382</v>
+        <v>9</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
       </c>
       <c r="F75" t="str">
         <v>init1z9qlh5l36ew94f75wm8585sd9ua63s9hg9ewhe</v>
@@ -2072,10 +2072,10 @@
         <v>init1g56zekl95fgknze00m38p4ywdl2h3kzcz6afkj</v>
       </c>
       <c r="D76" t="str">
-        <v>2.464381</v>
-      </c>
-      <c r="E76" t="str">
-        <v>37.093871</v>
+        <v>7</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
       </c>
       <c r="F76" t="str">
         <v>init1g56zekl95fgknze00m38p4ywdl2h3kzcz6afkj</v>
@@ -2095,10 +2095,10 @@
         <v>init1n0d8l6wqktysec7dj9nyvtelm8vvg5xjl20fup</v>
       </c>
       <c r="D77" t="str">
-        <v>2.447377</v>
-      </c>
-      <c r="E77" t="str">
-        <v>37.093301</v>
+        <v>7</v>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
       </c>
       <c r="F77" t="str">
         <v>init1n0d8l6wqktysec7dj9nyvtelm8vvg5xjl20fup</v>
@@ -2118,10 +2118,10 @@
         <v>init1456vz0kjg47un4pnh2tz7gk9wfgj49k0fdehnl</v>
       </c>
       <c r="D78" t="str">
-        <v>2.514393</v>
-      </c>
-      <c r="E78" t="str">
-        <v>36.992509</v>
+        <v>9</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
       </c>
       <c r="F78" t="str">
         <v>init1456vz0kjg47un4pnh2tz7gk9wfgj49k0fdehnl</v>
@@ -2141,10 +2141,10 @@
         <v>init1m7n00pdkf4w2m24l3vul2pz96m768glv3tj7fg</v>
       </c>
       <c r="D79" t="str">
-        <v>2.532401</v>
-      </c>
-      <c r="E79" t="str">
-        <v>35.892924</v>
+        <v>11</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
       </c>
       <c r="F79" t="str">
         <v>init1m7n00pdkf4w2m24l3vul2pz96m768glv3tj7fg</v>
@@ -2164,10 +2164,10 @@
         <v>init18s7gugnhv6fpzpuxy3gq5fwmhzlghefjk37wvw</v>
       </c>
       <c r="D80" t="str">
-        <v>2.631627</v>
-      </c>
-      <c r="E80" t="str">
-        <v>35.093440</v>
+        <v>9</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
       </c>
       <c r="F80" t="str">
         <v>init18s7gugnhv6fpzpuxy3gq5fwmhzlghefjk37wvw</v>
@@ -2187,10 +2187,10 @@
         <v>init14ngst2a45jt2l6n5ljypdp9zt9wfj46hhlspdr</v>
       </c>
       <c r="D81" t="str">
-        <v>2.395524</v>
-      </c>
-      <c r="E81" t="str">
-        <v>35.073388</v>
+        <v>9</v>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
       </c>
       <c r="F81" t="str">
         <v>init14ngst2a45jt2l6n5ljypdp9zt9wfj46hhlspdr</v>
@@ -2210,10 +2210,10 @@
         <v>init1zk2al6zmsdvrv0nden8pphgdnep326k6r3plhp</v>
       </c>
       <c r="D82" t="str">
-        <v>2.512523</v>
-      </c>
-      <c r="E82" t="str">
-        <v>37.072554</v>
+        <v>11</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
       </c>
       <c r="F82" t="str">
         <v>init1zk2al6zmsdvrv0nden8pphgdnep326k6r3plhp</v>
@@ -2233,10 +2233,10 @@
         <v>init1j3scas8a6xnpnwxfg0rqn4h6jrqs9e9jzr0lul</v>
       </c>
       <c r="D83" t="str">
-        <v>2.453700</v>
-      </c>
-      <c r="E83" t="str">
-        <v>37.067139</v>
+        <v>5</v>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
       </c>
       <c r="F83" t="str">
         <v>init1j3scas8a6xnpnwxfg0rqn4h6jrqs9e9jzr0lul</v>
@@ -2256,10 +2256,10 @@
         <v>init10lyhwk8hc2hgpylqsgzxp32a5sa0f88m9lehuq</v>
       </c>
       <c r="D84" t="str">
-        <v>2.560408</v>
-      </c>
-      <c r="E84" t="str">
-        <v>37.073146</v>
+        <v>7</v>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
       </c>
       <c r="F84" t="str">
         <v>init10lyhwk8hc2hgpylqsgzxp32a5sa0f88m9lehuq</v>
@@ -2279,10 +2279,10 @@
         <v>init1ffq4w5qgwulfydu8p7cgdvwe262sgqyv30dd55</v>
       </c>
       <c r="D85" t="str">
-        <v>2.516303</v>
-      </c>
-      <c r="E85" t="str">
-        <v>37.056037</v>
+        <v>9</v>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
       </c>
       <c r="F85" t="str">
         <v>init1ffq4w5qgwulfydu8p7cgdvwe262sgqyv30dd55</v>
@@ -2302,10 +2302,10 @@
         <v>init159vxaacp7x75sjj0yd0aesthznr8ymnxllhqv9</v>
       </c>
       <c r="D86" t="str">
-        <v>2.576917</v>
-      </c>
-      <c r="E86" t="str">
-        <v>37.055653</v>
+        <v>5</v>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
       </c>
       <c r="F86" t="str">
         <v>init159vxaacp7x75sjj0yd0aesthznr8ymnxllhqv9</v>
@@ -2325,10 +2325,10 @@
         <v>init10up2h5t4xl90fpvzgyxljyqj3mtvhyv8g4zrms</v>
       </c>
       <c r="D87" t="str">
-        <v>2.374409</v>
-      </c>
-      <c r="E87" t="str">
-        <v>23.955191</v>
+        <v>11</v>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
       </c>
       <c r="F87" t="str">
         <v>init10up2h5t4xl90fpvzgyxljyqj3mtvhyv8g4zrms</v>
@@ -2348,10 +2348,10 @@
         <v>init1fwm48jgs905a8pnjue68eep6dd5x89fwdzgtmr</v>
       </c>
       <c r="D88" t="str">
-        <v>2.459915</v>
-      </c>
-      <c r="E88" t="str">
-        <v>36.954729</v>
+        <v>13</v>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
       </c>
       <c r="F88" t="str">
         <v>init1fwm48jgs905a8pnjue68eep6dd5x89fwdzgtmr</v>
@@ -2371,10 +2371,10 @@
         <v>init128u25jltau4kc6lfphuwtd9u5e3pzwxqjc8dt0</v>
       </c>
       <c r="D89" t="str">
-        <v>2.456020</v>
-      </c>
-      <c r="E89" t="str">
-        <v>39.054129</v>
+        <v>5</v>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
       </c>
       <c r="F89" t="str">
         <v>init128u25jltau4kc6lfphuwtd9u5e3pzwxqjc8dt0</v>
@@ -2394,10 +2394,10 @@
         <v>init1qak5vggll3zacf7795vz8649ln3such009r9ql</v>
       </c>
       <c r="D90" t="str">
-        <v>2.590322</v>
-      </c>
-      <c r="E90" t="str">
-        <v>26.654261</v>
+        <v>5</v>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
       </c>
       <c r="F90" t="str">
         <v>init1qak5vggll3zacf7795vz8649ln3such009r9ql</v>
@@ -2417,10 +2417,10 @@
         <v>init19az3kgdgrfum38q4sjmwey7735et0sjx9pqx2d</v>
       </c>
       <c r="D91" t="str">
-        <v>9.610652</v>
-      </c>
-      <c r="E91" t="str">
-        <v>38.047287</v>
+        <v>9</v>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
       </c>
       <c r="F91" t="str">
         <v>init19az3kgdgrfum38q4sjmwey7735et0sjx9pqx2d</v>
@@ -2440,10 +2440,10 @@
         <v>init1clv34ec6gwlu7etehe20j6thyq3axgq3hnc546</v>
       </c>
       <c r="D92" t="str">
-        <v>9.672004</v>
-      </c>
-      <c r="E92" t="str">
-        <v>37.045127</v>
+        <v>5</v>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
       </c>
       <c r="F92" t="str">
         <v>init1clv34ec6gwlu7etehe20j6thyq3axgq3hnc546</v>
@@ -2463,10 +2463,10 @@
         <v>init1p8rlyrmzse3nmwjq2m490v6paslsluahhzl2lw</v>
       </c>
       <c r="D93" t="str">
-        <v>9.604761</v>
-      </c>
-      <c r="E93" t="str">
-        <v>38.844292</v>
+        <v>7</v>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
       </c>
       <c r="F93" t="str">
         <v>init1p8rlyrmzse3nmwjq2m490v6paslsluahhzl2lw</v>
@@ -2486,10 +2486,10 @@
         <v>init1jn4ncj2w7uz20hr43w6vu8s642zugqd7uvrk9t</v>
       </c>
       <c r="D94" t="str">
-        <v>9.562431</v>
-      </c>
-      <c r="E94" t="str">
-        <v>37.944602</v>
+        <v>7</v>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
       </c>
       <c r="F94" t="str">
         <v>init1jn4ncj2w7uz20hr43w6vu8s642zugqd7uvrk9t</v>
@@ -2509,10 +2509,10 @@
         <v>init1uexxvxcs6vx73kkw8jjjv4m0pvsmpz6wde0krq</v>
       </c>
       <c r="D95" t="str">
-        <v>9.509459</v>
-      </c>
-      <c r="E95" t="str">
-        <v>36.843859</v>
+        <v>9</v>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
       </c>
       <c r="F95" t="str">
         <v>init1uexxvxcs6vx73kkw8jjjv4m0pvsmpz6wde0krq</v>
@@ -2532,10 +2532,10 @@
         <v>init1n4tfl0hswkkwg4pgfehgp0wng4huc3t0nc0n4e</v>
       </c>
       <c r="D96" t="str">
-        <v>2.467784</v>
-      </c>
-      <c r="E96" t="str">
-        <v>59.300078</v>
+        <v>9</v>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
       </c>
       <c r="F96" t="str">
         <v>init1n4tfl0hswkkwg4pgfehgp0wng4huc3t0nc0n4e</v>
@@ -2555,10 +2555,10 @@
         <v>init1qnlvj8g30xqs3rvgwzjpmzuc7h45unj69x2khn</v>
       </c>
       <c r="D97" t="str">
-        <v>2.465942</v>
-      </c>
-      <c r="E97" t="str">
-        <v>61.300072</v>
+        <v>11</v>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
       </c>
       <c r="F97" t="str">
         <v>init1qnlvj8g30xqs3rvgwzjpmzuc7h45unj69x2khn</v>
@@ -2578,10 +2578,10 @@
         <v>init1dzllg72dkaptlqlexd3slhq2yzeetg0np5w6gf</v>
       </c>
       <c r="D98" t="str">
-        <v>2.362471</v>
-      </c>
-      <c r="E98" t="str">
-        <v>52.300091</v>
+        <v>11</v>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
       </c>
       <c r="F98" t="str">
         <v>init1dzllg72dkaptlqlexd3slhq2yzeetg0np5w6gf</v>
@@ -2601,10 +2601,10 @@
         <v>init1a8dljetk6h5xk3vyxldy0tjc5ngtlcunh7g5r8</v>
       </c>
       <c r="D99" t="str">
-        <v>2.414833</v>
-      </c>
-      <c r="E99" t="str">
-        <v>52.300290</v>
+        <v>7</v>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
       </c>
       <c r="F99" t="str">
         <v>init1a8dljetk6h5xk3vyxldy0tjc5ngtlcunh7g5r8</v>
@@ -2624,10 +2624,10 @@
         <v>init16qs0xq6ws7jgcp9w6rwr6twkmdsvdl94zzeqpu</v>
       </c>
       <c r="D100" t="str">
-        <v>2.561116</v>
-      </c>
-      <c r="E100" t="str">
-        <v>37.446521</v>
+        <v>5</v>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
       </c>
       <c r="F100" t="str">
         <v>init16qs0xq6ws7jgcp9w6rwr6twkmdsvdl94zzeqpu</v>
@@ -2647,10 +2647,10 @@
         <v>init1s3tdh3vakw86w2mmsueu8mmhxmjxp46gux4fau</v>
       </c>
       <c r="D101" t="str">
-        <v>1.153393</v>
-      </c>
-      <c r="E101" t="str">
-        <v>11.007168</v>
+        <v>7</v>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
       </c>
       <c r="F101" t="str">
         <v>init1s3tdh3vakw86w2mmsueu8mmhxmjxp46gux4fau</v>
@@ -2670,10 +2670,10 @@
         <v>init1y2rr6507gl4rxvvc0qlpk4jm4r5tp093uqqmdz</v>
       </c>
       <c r="D102" t="str">
-        <v>10.306492</v>
-      </c>
-      <c r="E102" t="str">
-        <v>41.000286</v>
+        <v>5</v>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
       </c>
       <c r="F102" t="str">
         <v>init1y2rr6507gl4rxvvc0qlpk4jm4r5tp093uqqmdz</v>
@@ -2693,10 +2693,10 @@
         <v>init16kerjtzky0tnwvmrr5y5uavzcsc7uxkhz3a3k4</v>
       </c>
       <c r="D103" t="str">
-        <v>0.884455</v>
-      </c>
-      <c r="E103" t="str">
-        <v>14.109815</v>
+        <v>7</v>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
       </c>
       <c r="F103" t="str">
         <v>init16kerjtzky0tnwvmrr5y5uavzcsc7uxkhz3a3k4</v>
@@ -2716,10 +2716,10 @@
         <v>init1kpguwajv85sqvqcs34txzvlp9julxcgkv52hzc</v>
       </c>
       <c r="D104" t="str">
-        <v>0.745157</v>
-      </c>
-      <c r="E104" t="str">
-        <v>15.147430</v>
+        <v>11</v>
+      </c>
+      <c r="E104" t="b">
+        <v>1</v>
       </c>
       <c r="F104" t="str">
         <v>init1kpguwajv85sqvqcs34txzvlp9julxcgkv52hzc</v>
@@ -2739,10 +2739,10 @@
         <v>init1ruuwyp6s946gxsn24nv6ac6vuk6ax736cdqq87</v>
       </c>
       <c r="D105" t="str">
-        <v>10.662609</v>
-      </c>
-      <c r="E105" t="str">
-        <v>39.270877</v>
+        <v>11</v>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
       </c>
       <c r="F105" t="str">
         <v>init1ruuwyp6s946gxsn24nv6ac6vuk6ax736cdqq87</v>
@@ -2762,10 +2762,10 @@
         <v>init1tlcz9pcg8yzt3w896kspql4wm83jjj8avwy7uh</v>
       </c>
       <c r="D106" t="str">
-        <v>0.740203</v>
-      </c>
-      <c r="E106" t="str">
-        <v>18.052929</v>
+        <v>9</v>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
       </c>
       <c r="F106" t="str">
         <v>init1tlcz9pcg8yzt3w896kspql4wm83jjj8avwy7uh</v>
@@ -2785,10 +2785,10 @@
         <v>init1lncfyehuv6y9eetn55qnx0q7678452kzr6599f</v>
       </c>
       <c r="D107" t="str">
-        <v>0.848698</v>
-      </c>
-      <c r="E107" t="str">
-        <v>13.779091</v>
+        <v>11</v>
+      </c>
+      <c r="E107" t="b">
+        <v>1</v>
       </c>
       <c r="F107" t="str">
         <v>init1lncfyehuv6y9eetn55qnx0q7678452kzr6599f</v>
@@ -2808,10 +2808,10 @@
         <v>init1zcmdqy97v5n7mf2l0dtdpc8fyjj5guunehvfes</v>
       </c>
       <c r="D108" t="str">
-        <v>0.811125</v>
-      </c>
-      <c r="E108" t="str">
-        <v>10.138471</v>
+        <v>7</v>
+      </c>
+      <c r="E108" t="b">
+        <v>1</v>
       </c>
       <c r="F108" t="str">
         <v>init1zcmdqy97v5n7mf2l0dtdpc8fyjj5guunehvfes</v>
@@ -2831,10 +2831,10 @@
         <v>init1aaa2yf7s6vc9ycv5l3y8u34l7z3hm5ssny0s4m</v>
       </c>
       <c r="D109" t="str">
-        <v>0.793711</v>
-      </c>
-      <c r="E109" t="str">
-        <v>9.266666</v>
+        <v>9</v>
+      </c>
+      <c r="E109" t="b">
+        <v>1</v>
       </c>
       <c r="F109" t="str">
         <v>init1aaa2yf7s6vc9ycv5l3y8u34l7z3hm5ssny0s4m</v>
@@ -2854,10 +2854,10 @@
         <v>init13gwu9s9z4jphyxx9hysqulqutp65egjguttd9e</v>
       </c>
       <c r="D110" t="str">
-        <v>10.733448</v>
-      </c>
-      <c r="E110" t="str">
-        <v>39.266322</v>
+        <v>7</v>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
       </c>
       <c r="F110" t="str">
         <v>init13gwu9s9z4jphyxx9hysqulqutp65egjguttd9e</v>
@@ -2877,10 +2877,10 @@
         <v>init1zdj0g8yelr79jddjqqpxcfr5k3yt8v25qcgp46</v>
       </c>
       <c r="D111" t="str">
-        <v>0.880834</v>
-      </c>
-      <c r="E111" t="str">
-        <v>14.180315</v>
+        <v>11</v>
+      </c>
+      <c r="E111" t="b">
+        <v>1</v>
       </c>
       <c r="F111" t="str">
         <v>init1zdj0g8yelr79jddjqqpxcfr5k3yt8v25qcgp46</v>
@@ -2900,10 +2900,10 @@
         <v>init1nmuuzx9l0ad60pdl0jkjyphj5zcffq3ajvt45m</v>
       </c>
       <c r="D112" t="str">
-        <v>10.368810</v>
-      </c>
-      <c r="E112" t="str">
-        <v>27.840790</v>
+        <v>7</v>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
       </c>
       <c r="F112" t="str">
         <v>init1nmuuzx9l0ad60pdl0jkjyphj5zcffq3ajvt45m</v>
@@ -2923,10 +2923,10 @@
         <v>init14vv82ygjrl2j9hjncgyty5zhmpp3qxdr59za0g</v>
       </c>
       <c r="D113" t="str">
-        <v>0.758415</v>
-      </c>
-      <c r="E113" t="str">
-        <v>14.109909</v>
+        <v>11</v>
+      </c>
+      <c r="E113" t="b">
+        <v>1</v>
       </c>
       <c r="F113" t="str">
         <v>init14vv82ygjrl2j9hjncgyty5zhmpp3qxdr59za0g</v>
@@ -2946,10 +2946,10 @@
         <v>init1deqzc4sqm4rw0jjd4k2g8spducnje6xt9dtjy8</v>
       </c>
       <c r="D114" t="str">
-        <v>0.799135</v>
-      </c>
-      <c r="E114" t="str">
-        <v>8.360793</v>
+        <v>9</v>
+      </c>
+      <c r="E114" t="b">
+        <v>1</v>
       </c>
       <c r="F114" t="str">
         <v>init1deqzc4sqm4rw0jjd4k2g8spducnje6xt9dtjy8</v>
@@ -2969,10 +2969,10 @@
         <v>init1wsa537svgyeaz9zqa3dxqtlrk05tuwhjxjtx4d</v>
       </c>
       <c r="D115" t="str">
-        <v>10.558377</v>
-      </c>
-      <c r="E115" t="str">
-        <v>41.144102</v>
+        <v>7</v>
+      </c>
+      <c r="E115" t="b">
+        <v>1</v>
       </c>
       <c r="F115" t="str">
         <v>init1wsa537svgyeaz9zqa3dxqtlrk05tuwhjxjtx4d</v>
@@ -2992,10 +2992,10 @@
         <v>init16av248mtr5ymh6shu7wlk7e2hlf2x7egh8hzzc</v>
       </c>
       <c r="D116" t="str">
-        <v>0.827741</v>
-      </c>
-      <c r="E116" t="str">
-        <v>17.144050</v>
+        <v>9</v>
+      </c>
+      <c r="E116" t="b">
+        <v>1</v>
       </c>
       <c r="F116" t="str">
         <v>init16av248mtr5ymh6shu7wlk7e2hlf2x7egh8hzzc</v>
@@ -3015,10 +3015,10 @@
         <v>init1zjzq5h6gttf6lujvrur9xl7awfgx2cz5l7f89z</v>
       </c>
       <c r="D117" t="str">
-        <v>0.883243</v>
-      </c>
-      <c r="E117" t="str">
-        <v>14.280726</v>
+        <v>11</v>
+      </c>
+      <c r="E117" t="b">
+        <v>1</v>
       </c>
       <c r="F117" t="str">
         <v>init1zjzq5h6gttf6lujvrur9xl7awfgx2cz5l7f89z</v>
@@ -3038,10 +3038,10 @@
         <v>init1hl23geuk5fxff93u2a4evze368u7jkg657anvr</v>
       </c>
       <c r="D118" t="str">
-        <v>10.526267</v>
-      </c>
-      <c r="E118" t="str">
-        <v>36.170750</v>
+        <v>9</v>
+      </c>
+      <c r="E118" t="b">
+        <v>1</v>
       </c>
       <c r="F118" t="str">
         <v>init1hl23geuk5fxff93u2a4evze368u7jkg657anvr</v>
@@ -3061,10 +3061,10 @@
         <v>init1thpagf3r3nn8jyj935tq3zmxcy053jlprlz6cd</v>
       </c>
       <c r="D119" t="str">
-        <v>0.633663</v>
-      </c>
-      <c r="E119" t="str">
-        <v>13.004720</v>
+        <v>7</v>
+      </c>
+      <c r="E119" t="b">
+        <v>1</v>
       </c>
       <c r="F119" t="str">
         <v>init1thpagf3r3nn8jyj935tq3zmxcy053jlprlz6cd</v>
@@ -3084,10 +3084,10 @@
         <v>init1tn0p2m35lrh6efrs252s6l4aettkqekududfpy</v>
       </c>
       <c r="D120" t="str">
-        <v>0.721511</v>
-      </c>
-      <c r="E120" t="str">
-        <v>16.117107</v>
+        <v>9</v>
+      </c>
+      <c r="E120" t="b">
+        <v>1</v>
       </c>
       <c r="F120" t="str">
         <v>init1tn0p2m35lrh6efrs252s6l4aettkqekududfpy</v>
@@ -3107,10 +3107,10 @@
         <v>init19gc794ewyccl4tsdxxl2yndaf8uv2x0s7v624r</v>
       </c>
       <c r="D121" t="str">
-        <v>0.554986</v>
-      </c>
-      <c r="E121" t="str">
-        <v>9.323520</v>
+        <v>9</v>
+      </c>
+      <c r="E121" t="b">
+        <v>1</v>
       </c>
       <c r="F121" t="str">
         <v>init19gc794ewyccl4tsdxxl2yndaf8uv2x0s7v624r</v>
@@ -3130,10 +3130,10 @@
         <v>init18tvju9tapxy3hdrekqhpqaslvsv0ctgrmgkhaj</v>
       </c>
       <c r="D122" t="str">
-        <v>10.608806</v>
-      </c>
-      <c r="E122" t="str">
-        <v>27.122237</v>
+        <v>9</v>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
       </c>
       <c r="F122" t="str">
         <v>init18tvju9tapxy3hdrekqhpqaslvsv0ctgrmgkhaj</v>
@@ -3153,10 +3153,10 @@
         <v>init1r4w23ljj5k8ta9nn5jheledansxtxk5h3qfxf0</v>
       </c>
       <c r="D123" t="str">
-        <v>0.839854</v>
-      </c>
-      <c r="E123" t="str">
-        <v>10.148417</v>
+        <v>5</v>
+      </c>
+      <c r="E123" t="b">
+        <v>1</v>
       </c>
       <c r="F123" t="str">
         <v>init1r4w23ljj5k8ta9nn5jheledansxtxk5h3qfxf0</v>
@@ -3176,10 +3176,10 @@
         <v>init1nm592s0me8yuze4shl9ap66cyup8d0ec0ddy9u</v>
       </c>
       <c r="D124" t="str">
-        <v>0.671796</v>
-      </c>
-      <c r="E124" t="str">
-        <v>13.725943</v>
+        <v>11</v>
+      </c>
+      <c r="E124" t="b">
+        <v>1</v>
       </c>
       <c r="F124" t="str">
         <v>init1nm592s0me8yuze4shl9ap66cyup8d0ec0ddy9u</v>
@@ -3199,10 +3199,10 @@
         <v>init1hxmfl2nqdte5eve9c8ww3hnh7g6nkdyvpmpcc6</v>
       </c>
       <c r="D125" t="str">
-        <v>0.718147</v>
-      </c>
-      <c r="E125" t="str">
-        <v>15.805901</v>
+        <v>9</v>
+      </c>
+      <c r="E125" t="b">
+        <v>1</v>
       </c>
       <c r="F125" t="str">
         <v>init1hxmfl2nqdte5eve9c8ww3hnh7g6nkdyvpmpcc6</v>
@@ -3222,10 +3222,10 @@
         <v>init157k6ujm95kylqayhzrnvrvpdl6gnrmhrmskjc5</v>
       </c>
       <c r="D126" t="str">
-        <v>0.682443</v>
-      </c>
-      <c r="E126" t="str">
-        <v>14.280800</v>
+        <v>5</v>
+      </c>
+      <c r="E126" t="b">
+        <v>1</v>
       </c>
       <c r="F126" t="str">
         <v>init157k6ujm95kylqayhzrnvrvpdl6gnrmhrmskjc5</v>
@@ -3245,10 +3245,10 @@
         <v>init1q6tg0lxtfcau7azs85stmr69gl3hnq7hah2yt7</v>
       </c>
       <c r="D127" t="str">
-        <v>9.450656</v>
-      </c>
-      <c r="E127" t="str">
-        <v>27.109880</v>
+        <v>11</v>
+      </c>
+      <c r="E127" t="b">
+        <v>1</v>
       </c>
       <c r="F127" t="str">
         <v>init1q6tg0lxtfcau7azs85stmr69gl3hnq7hah2yt7</v>
@@ -3268,10 +3268,10 @@
         <v>init1n0r88dtk5mrgah5t7fg5nh4ecm4c9v7d28t24a</v>
       </c>
       <c r="D128" t="str">
-        <v>0.779047</v>
-      </c>
-      <c r="E128" t="str">
-        <v>17.118613</v>
+        <v>5</v>
+      </c>
+      <c r="E128" t="b">
+        <v>1</v>
       </c>
       <c r="F128" t="str">
         <v>init1n0r88dtk5mrgah5t7fg5nh4ecm4c9v7d28t24a</v>
@@ -3291,10 +3291,10 @@
         <v>init1fqktjmszcyg56l5h48x79mxy5uz0cjlg58yyu4</v>
       </c>
       <c r="D129" t="str">
-        <v>0.728731</v>
-      </c>
-      <c r="E129" t="str">
-        <v>18.019991</v>
+        <v>9</v>
+      </c>
+      <c r="E129" t="b">
+        <v>1</v>
       </c>
       <c r="F129" t="str">
         <v>init1fqktjmszcyg56l5h48x79mxy5uz0cjlg58yyu4</v>
@@ -3314,10 +3314,10 @@
         <v>init1ftg6kttr8kdkf92ec5yf4v6me72kmjhcm7gu03</v>
       </c>
       <c r="D130" t="str">
-        <v>0.957610</v>
-      </c>
-      <c r="E130" t="str">
-        <v>19.316625</v>
+        <v>7</v>
+      </c>
+      <c r="E130" t="b">
+        <v>1</v>
       </c>
       <c r="F130" t="str">
         <v>init1ftg6kttr8kdkf92ec5yf4v6me72kmjhcm7gu03</v>
@@ -3337,10 +3337,10 @@
         <v>init1ce25x94uvxwh82q0mnjn8hz2s2lg36hh2tdtq9</v>
       </c>
       <c r="D131" t="str">
-        <v>0.554231</v>
-      </c>
-      <c r="E131" t="str">
-        <v>9.306856</v>
+        <v>13</v>
+      </c>
+      <c r="E131" t="b">
+        <v>1</v>
       </c>
       <c r="F131" t="str">
         <v>init1ce25x94uvxwh82q0mnjn8hz2s2lg36hh2tdtq9</v>
@@ -3360,10 +3360,10 @@
         <v>init14dhgsve3746fev6tsyzaf8uf2utvxd4pf8jdqh</v>
       </c>
       <c r="D132" t="str">
-        <v>0.941427</v>
-      </c>
-      <c r="E132" t="str">
-        <v>15.181608</v>
+        <v>11</v>
+      </c>
+      <c r="E132" t="b">
+        <v>1</v>
       </c>
       <c r="F132" t="str">
         <v>init14dhgsve3746fev6tsyzaf8uf2utvxd4pf8jdqh</v>
@@ -3383,10 +3383,10 @@
         <v>init17lzwk4m87fd7m7ptn47tjyc9ptwm0tesfeutvd</v>
       </c>
       <c r="D133" t="str">
-        <v>0.923193</v>
-      </c>
-      <c r="E133" t="str">
-        <v>17.987417</v>
+        <v>11</v>
+      </c>
+      <c r="E133" t="b">
+        <v>1</v>
       </c>
       <c r="F133" t="str">
         <v>init17lzwk4m87fd7m7ptn47tjyc9ptwm0tesfeutvd</v>
@@ -3406,10 +3406,10 @@
         <v>init1mcdrlv2pwkqgg4tnwat7366kw00wnv66vkm0k6</v>
       </c>
       <c r="D134" t="str">
-        <v>0.609759</v>
-      </c>
-      <c r="E134" t="str">
-        <v>10.151145</v>
+        <v>9</v>
+      </c>
+      <c r="E134" t="b">
+        <v>1</v>
       </c>
       <c r="F134" t="str">
         <v>init1mcdrlv2pwkqgg4tnwat7366kw00wnv66vkm0k6</v>
@@ -3429,10 +3429,10 @@
         <v>init1rrwktuhek05q56a62h5gyvwz38fl3p629lfadv</v>
       </c>
       <c r="D135" t="str">
-        <v>0.849324</v>
-      </c>
-      <c r="E135" t="str">
-        <v>14.174934</v>
+        <v>11</v>
+      </c>
+      <c r="E135" t="b">
+        <v>1</v>
       </c>
       <c r="F135" t="str">
         <v>init1rrwktuhek05q56a62h5gyvwz38fl3p629lfadv</v>
@@ -3452,10 +3452,10 @@
         <v>init1yye8d6vuaw3tg5w4gjnyzlgm4g87m6vu22vs9y</v>
       </c>
       <c r="D136" t="str">
-        <v>0.847927</v>
-      </c>
-      <c r="E136" t="str">
-        <v>14.274567</v>
+        <v>13</v>
+      </c>
+      <c r="E136" t="b">
+        <v>1</v>
       </c>
       <c r="F136" t="str">
         <v>init1yye8d6vuaw3tg5w4gjnyzlgm4g87m6vu22vs9y</v>
@@ -3475,10 +3475,10 @@
         <v>init1d7h48jm5ja2n5k2g4ajahsuunxu5l0x2rjexhk</v>
       </c>
       <c r="D137" t="str">
-        <v>0.558861</v>
-      </c>
-      <c r="E137" t="str">
-        <v>9.309585</v>
+        <v>7</v>
+      </c>
+      <c r="E137" t="b">
+        <v>1</v>
       </c>
       <c r="F137" t="str">
         <v>init1d7h48jm5ja2n5k2g4ajahsuunxu5l0x2rjexhk</v>
@@ -3514,10 +3514,10 @@
         <v>init1wdg7e7rkl2e59gcdswf05hxfrmmspj55vm7j5w</v>
       </c>
       <c r="D140" t="str">
-        <v>9.347208</v>
-      </c>
-      <c r="E140" t="str">
-        <v>69.653701</v>
+        <v>5</v>
+      </c>
+      <c r="E140" t="b">
+        <v>1</v>
       </c>
       <c r="F140" t="str">
         <v>init1wdg7e7rkl2e59gcdswf05hxfrmmspj55vm7j5w</v>
@@ -3537,10 +3537,10 @@
         <v>init17xwwu7rl8hc2unyq0qr42h7ag8cnvx397rzsx3</v>
       </c>
       <c r="D141" t="str">
-        <v>22.171759</v>
-      </c>
-      <c r="E141" t="str">
-        <v>72.200019</v>
+        <v>5</v>
+      </c>
+      <c r="E141" t="b">
+        <v>1</v>
       </c>
       <c r="F141" t="str">
         <v>init17xwwu7rl8hc2unyq0qr42h7ag8cnvx397rzsx3</v>
@@ -3576,10 +3576,10 @@
         <v>init1jckhyk38u6jcrdt3pcg4mns7wj4cafe67sjllm</v>
       </c>
       <c r="D144" t="str">
-        <v>9.214203</v>
-      </c>
-      <c r="E144" t="str">
-        <v>63.231413</v>
+        <v>7</v>
+      </c>
+      <c r="E144" t="b">
+        <v>1</v>
       </c>
       <c r="F144" t="str">
         <v>init1jckhyk38u6jcrdt3pcg4mns7wj4cafe67sjllm</v>
@@ -3599,10 +3599,10 @@
         <v>init12jwr02kgzsa5dymplh66e7nsvc9wdh7ujy8nty</v>
       </c>
       <c r="D145" t="str">
-        <v>9.842605</v>
-      </c>
-      <c r="E145" t="str">
-        <v>62.357442</v>
+        <v>9</v>
+      </c>
+      <c r="E145" t="b">
+        <v>1</v>
       </c>
       <c r="F145" t="str">
         <v>init12jwr02kgzsa5dymplh66e7nsvc9wdh7ujy8nty</v>
@@ -3622,10 +3622,10 @@
         <v>init154754h8xg4wpnlvtf5kcu3aderme3ljvssznet</v>
       </c>
       <c r="D146" t="str">
-        <v>19.754185</v>
-      </c>
-      <c r="E146" t="str">
-        <v>95.890429</v>
+        <v>11</v>
+      </c>
+      <c r="E146" t="b">
+        <v>1</v>
       </c>
       <c r="F146" t="str">
         <v>init154754h8xg4wpnlvtf5kcu3aderme3ljvssznet</v>
@@ -3645,10 +3645,10 @@
         <v>init18hv7u5cj7gyh7c8yte3sclxgwxduwnj9z5ruck</v>
       </c>
       <c r="D147" t="str">
-        <v>19.557928</v>
-      </c>
-      <c r="E147" t="str">
-        <v>99.442200</v>
+        <v>13</v>
+      </c>
+      <c r="E147" t="b">
+        <v>1</v>
       </c>
       <c r="F147" t="str">
         <v>init18hv7u5cj7gyh7c8yte3sclxgwxduwnj9z5ruck</v>
@@ -3668,10 +3668,10 @@
         <v>init1nn0c0eak94x4e7a8y8rwslkm0gv0utyy4a2yac</v>
       </c>
       <c r="D148" t="str">
-        <v>19.535154</v>
-      </c>
-      <c r="E148" t="str">
-        <v>129.993034</v>
+        <v>13</v>
+      </c>
+      <c r="E148" t="b">
+        <v>1</v>
       </c>
       <c r="F148" t="str">
         <v>init1nn0c0eak94x4e7a8y8rwslkm0gv0utyy4a2yac</v>
@@ -3691,10 +3691,10 @@
         <v>init1kxfkv9v0vt3l7t03d593zwz7qe35r80kjxlz3r</v>
       </c>
       <c r="D149" t="str">
-        <v>19.753923</v>
-      </c>
-      <c r="E149" t="str">
-        <v>94.165256</v>
+        <v>13</v>
+      </c>
+      <c r="E149" t="b">
+        <v>1</v>
       </c>
       <c r="F149" t="str">
         <v>init1kxfkv9v0vt3l7t03d593zwz7qe35r80kjxlz3r</v>
@@ -3714,10 +3714,10 @@
         <v>init16n8gvpaaqtk7fw9qz38zy974vch98pwczl5kl3</v>
       </c>
       <c r="D150" t="str">
-        <v>19.574289</v>
-      </c>
-      <c r="E150" t="str">
-        <v>75.241444</v>
+        <v>9</v>
+      </c>
+      <c r="E150" t="b">
+        <v>1</v>
       </c>
       <c r="F150" t="str">
         <v>init16n8gvpaaqtk7fw9qz38zy974vch98pwczl5kl3</v>
@@ -3737,10 +3737,10 @@
         <v>init1hm23lwquqzuvv4scpwcxzdquffhd6fmrluz8kt</v>
       </c>
       <c r="D151" t="str">
-        <v>9.971296</v>
-      </c>
-      <c r="E151" t="str">
-        <v>63.879425</v>
+        <v>9</v>
+      </c>
+      <c r="E151" t="b">
+        <v>1</v>
       </c>
       <c r="F151" t="str">
         <v>init1hm23lwquqzuvv4scpwcxzdquffhd6fmrluz8kt</v>
@@ -3760,10 +3760,10 @@
         <v>init1892d6cs52zadjw8saae6l7nxgytdm2f7lsm3vc</v>
       </c>
       <c r="D152" t="str">
-        <v>9.884074</v>
-      </c>
-      <c r="E152" t="str">
-        <v>86.286913</v>
+        <v>7</v>
+      </c>
+      <c r="E152" t="b">
+        <v>1</v>
       </c>
       <c r="F152" t="str">
         <v>init1892d6cs52zadjw8saae6l7nxgytdm2f7lsm3vc</v>
@@ -3783,10 +3783,10 @@
         <v>init15d66f5852qxz6jdp70s8rvqdnpy7z385nge388</v>
       </c>
       <c r="D153" t="str">
-        <v>9.668201</v>
-      </c>
-      <c r="E153" t="str">
-        <v>59.981871</v>
+        <v>7</v>
+      </c>
+      <c r="E153" t="b">
+        <v>1</v>
       </c>
       <c r="F153" t="str">
         <v>init15d66f5852qxz6jdp70s8rvqdnpy7z385nge388</v>
@@ -3806,10 +3806,10 @@
         <v>init1w33aje9fx7y5vf9wrwdd0wjr6xxdq462p9nm63</v>
       </c>
       <c r="D154" t="str">
-        <v>10.012837</v>
-      </c>
-      <c r="E154" t="str">
-        <v>95.446497</v>
+        <v>7</v>
+      </c>
+      <c r="E154" t="b">
+        <v>1</v>
       </c>
       <c r="F154" t="str">
         <v>init1w33aje9fx7y5vf9wrwdd0wjr6xxdq462p9nm63</v>
@@ -3829,10 +3829,10 @@
         <v>init1gd3jyu3qwcnkyhty4hvy5mhu0s36nqn73ke3c3</v>
       </c>
       <c r="D155" t="str">
-        <v>9.962037</v>
-      </c>
-      <c r="E155" t="str">
-        <v>60.930529</v>
+        <v>11</v>
+      </c>
+      <c r="E155" t="b">
+        <v>1</v>
       </c>
       <c r="F155" t="str">
         <v>init1gd3jyu3qwcnkyhty4hvy5mhu0s36nqn73ke3c3</v>
@@ -3852,10 +3852,10 @@
         <v>init18l4206uvj8gus4nxh63hjjnnlaj52t9wdck8zx</v>
       </c>
       <c r="D156" t="str">
-        <v>19.855233</v>
-      </c>
-      <c r="E156" t="str">
-        <v>92.863817</v>
+        <v>9</v>
+      </c>
+      <c r="E156" t="b">
+        <v>1</v>
       </c>
       <c r="F156" t="str">
         <v>init18l4206uvj8gus4nxh63hjjnnlaj52t9wdck8zx</v>
@@ -3875,10 +3875,10 @@
         <v>init17farhu0jtwgrc6wxttrf37pm0y377d802aujpe</v>
       </c>
       <c r="D157" t="str">
-        <v>9.581064</v>
-      </c>
-      <c r="E157" t="str">
-        <v>69.500404</v>
+        <v>7</v>
+      </c>
+      <c r="E157" t="b">
+        <v>1</v>
       </c>
       <c r="F157" t="str">
         <v>init17farhu0jtwgrc6wxttrf37pm0y377d802aujpe</v>
@@ -3898,10 +3898,10 @@
         <v>init1wfux96fuyxdwehl2nf8suz7dhmne95xavzugpp</v>
       </c>
       <c r="D158" t="str">
-        <v>9.961237</v>
-      </c>
-      <c r="E158" t="str">
-        <v>69.059989</v>
+        <v>9</v>
+      </c>
+      <c r="E158" t="b">
+        <v>1</v>
       </c>
       <c r="F158" t="str">
         <v>init1wfux96fuyxdwehl2nf8suz7dhmne95xavzugpp</v>
@@ -3921,10 +3921,10 @@
         <v>init1p4kf6jrsz8z4uhz5wty86943sls6kqtel94fq5</v>
       </c>
       <c r="D159" t="str">
-        <v>7.921799</v>
-      </c>
-      <c r="E159" t="str">
-        <v>82.998642</v>
+        <v>11</v>
+      </c>
+      <c r="E159" t="b">
+        <v>1</v>
       </c>
       <c r="F159" t="str">
         <v>init1p4kf6jrsz8z4uhz5wty86943sls6kqtel94fq5</v>
@@ -3944,10 +3944,10 @@
         <v>init1mmqhw3yk4he4pfm8qwytjv7wvrs35zjxmkq0gu</v>
       </c>
       <c r="D160" t="str">
-        <v>0.012328</v>
-      </c>
-      <c r="E160" t="str">
-        <v>39.183665</v>
+        <v>9</v>
+      </c>
+      <c r="E160" t="b">
+        <v>1</v>
       </c>
       <c r="F160" t="str">
         <v>init1mmqhw3yk4he4pfm8qwytjv7wvrs35zjxmkq0gu</v>
@@ -3967,10 +3967,10 @@
         <v>init1xqaws64u54slkunl4ej0hfhhvh29dpdwefdjjr</v>
       </c>
       <c r="D161" t="str">
-        <v>0.113053</v>
-      </c>
-      <c r="E161" t="str">
-        <v>37.015105</v>
+        <v>7</v>
+      </c>
+      <c r="E161" t="b">
+        <v>1</v>
       </c>
       <c r="F161" t="str">
         <v>init1xqaws64u54slkunl4ej0hfhhvh29dpdwefdjjr</v>
@@ -3990,10 +3990,10 @@
         <v>init1u9guhcwu9h9waej5rkr2ajgmwazcuxy9x60mcl</v>
       </c>
       <c r="D162" t="str">
-        <v>19.669914</v>
-      </c>
-      <c r="E162" t="str">
-        <v>96.169318</v>
+        <v>9</v>
+      </c>
+      <c r="E162" t="b">
+        <v>1</v>
       </c>
       <c r="F162" t="str">
         <v>init1u9guhcwu9h9waej5rkr2ajgmwazcuxy9x60mcl</v>
@@ -4013,10 +4013,10 @@
         <v>init1mp58fsj29mj73jzxk4we776nw8m0dpf98w5hp3</v>
       </c>
       <c r="D163" t="str">
-        <v>9.947080</v>
-      </c>
-      <c r="E163" t="str">
-        <v>67.175899</v>
+        <v>9</v>
+      </c>
+      <c r="E163" t="b">
+        <v>1</v>
       </c>
       <c r="F163" t="str">
         <v>init1mp58fsj29mj73jzxk4we776nw8m0dpf98w5hp3</v>
@@ -4036,10 +4036,10 @@
         <v>init1unwhlfr7r3628g4hy6h0xn6ukukjyzw0lfvzcm</v>
       </c>
       <c r="D164" t="str">
-        <v>0.036349</v>
-      </c>
-      <c r="E164" t="str">
-        <v>31.304414</v>
+        <v>7</v>
+      </c>
+      <c r="E164" t="b">
+        <v>1</v>
       </c>
       <c r="F164" t="str">
         <v>init1unwhlfr7r3628g4hy6h0xn6ukukjyzw0lfvzcm</v>
@@ -4059,10 +4059,10 @@
         <v>init12jy24ap4t868d9s6dlxdrnx4zgpet9cx3xjyc7</v>
       </c>
       <c r="D165" t="str">
-        <v>0.073549</v>
-      </c>
-      <c r="E165" t="str">
-        <v>33.293171</v>
+        <v>9</v>
+      </c>
+      <c r="E165" t="b">
+        <v>1</v>
       </c>
       <c r="F165" t="str">
         <v>init12jy24ap4t868d9s6dlxdrnx4zgpet9cx3xjyc7</v>
@@ -4082,10 +4082,10 @@
         <v>init1qckgj5yvjcnvj7yannqg5gz0qlxjjuttf02j6a</v>
       </c>
       <c r="D166" t="str">
-        <v>8.521183</v>
-      </c>
-      <c r="E166" t="str">
-        <v>84.458680</v>
+        <v>11</v>
+      </c>
+      <c r="E166" t="b">
+        <v>1</v>
       </c>
       <c r="F166" t="str">
         <v>init1qckgj5yvjcnvj7yannqg5gz0qlxjjuttf02j6a</v>
@@ -4105,10 +4105,10 @@
         <v>init1skeudssdxrs26cnhcm3c6mk4jnh9e0xsygn796</v>
       </c>
       <c r="D167" t="str">
-        <v>0.090790</v>
-      </c>
-      <c r="E167" t="str">
-        <v>32.588602</v>
+        <v>9</v>
+      </c>
+      <c r="E167" t="b">
+        <v>1</v>
       </c>
       <c r="F167" t="str">
         <v>init1skeudssdxrs26cnhcm3c6mk4jnh9e0xsygn796</v>
@@ -4128,10 +4128,10 @@
         <v>init1v774v33s7jmjfjxmdvzqkmcl0k5crylmpf3xq4</v>
       </c>
       <c r="D168" t="str">
-        <v>0.075004</v>
-      </c>
-      <c r="E168" t="str">
-        <v>31.263499</v>
+        <v>7</v>
+      </c>
+      <c r="E168" t="b">
+        <v>1</v>
       </c>
       <c r="F168" t="str">
         <v>init1v774v33s7jmjfjxmdvzqkmcl0k5crylmpf3xq4</v>
@@ -4151,10 +4151,10 @@
         <v>init1y07qaqxtgq9suucvfwgnv2t5w6f3fw3sh7htre</v>
       </c>
       <c r="D169" t="str">
-        <v>9.954518</v>
-      </c>
-      <c r="E169" t="str">
-        <v>78.235017</v>
+        <v>7</v>
+      </c>
+      <c r="E169" t="b">
+        <v>1</v>
       </c>
       <c r="F169" t="str">
         <v>init1y07qaqxtgq9suucvfwgnv2t5w6f3fw3sh7htre</v>
@@ -4174,10 +4174,10 @@
         <v>init13w8k3hykugzdnrvelseqlfucvcprcjac4zklsk</v>
       </c>
       <c r="D170" t="str">
-        <v>9.777063</v>
-      </c>
-      <c r="E170" t="str">
-        <v>62.318145</v>
+        <v>7</v>
+      </c>
+      <c r="E170" t="b">
+        <v>1</v>
       </c>
       <c r="F170" t="str">
         <v>init13w8k3hykugzdnrvelseqlfucvcprcjac4zklsk</v>
@@ -4197,10 +4197,10 @@
         <v>init1zcp7eld7l53e0wm0dcr30506c89pl5rdq6d2s3</v>
       </c>
       <c r="D171" t="str">
-        <v>9.894595</v>
-      </c>
-      <c r="E171" t="str">
-        <v>70.069181</v>
+        <v>9</v>
+      </c>
+      <c r="E171" t="b">
+        <v>1</v>
       </c>
       <c r="F171" t="str">
         <v>init1zcp7eld7l53e0wm0dcr30506c89pl5rdq6d2s3</v>
@@ -4220,10 +4220,10 @@
         <v>init10clg8e0p48urmuzazjrteudxqtdsgpsez9t7zc</v>
       </c>
       <c r="D172" t="str">
-        <v>19.666864</v>
-      </c>
-      <c r="E172" t="str">
-        <v>99.044167</v>
+        <v>9</v>
+      </c>
+      <c r="E172" t="b">
+        <v>1</v>
       </c>
       <c r="F172" t="str">
         <v>init10clg8e0p48urmuzazjrteudxqtdsgpsez9t7zc</v>
@@ -4243,10 +4243,10 @@
         <v>init1z27vp06d2nnu5t8jc2hxefupcxwmrsx42294t2</v>
       </c>
       <c r="D173" t="str">
-        <v>9.709588</v>
-      </c>
-      <c r="E173" t="str">
-        <v>68.044357</v>
+        <v>9</v>
+      </c>
+      <c r="E173" t="b">
+        <v>1</v>
       </c>
       <c r="F173" t="str">
         <v>init1z27vp06d2nnu5t8jc2hxefupcxwmrsx42294t2</v>
@@ -4266,10 +4266,10 @@
         <v>init1sch37h3v94e0fh05ae5yza4pdplnjt4elmxur6</v>
       </c>
       <c r="D174" t="str">
-        <v>8.973934</v>
-      </c>
-      <c r="E174" t="str">
-        <v>67.877072</v>
+        <v>7</v>
+      </c>
+      <c r="E174" t="b">
+        <v>1</v>
       </c>
       <c r="F174" t="str">
         <v>init1sch37h3v94e0fh05ae5yza4pdplnjt4elmxur6</v>
@@ -4289,10 +4289,10 @@
         <v>init1w7p3fp826nturm88whvmhtla4hxmu6jzppfnce</v>
       </c>
       <c r="D175" t="str">
-        <v>0.068308</v>
-      </c>
-      <c r="E175" t="str">
-        <v>38.560406</v>
+        <v>7</v>
+      </c>
+      <c r="E175" t="b">
+        <v>1</v>
       </c>
       <c r="F175" t="str">
         <v>init1w7p3fp826nturm88whvmhtla4hxmu6jzppfnce</v>
@@ -4312,10 +4312,10 @@
         <v>init17tehekll8dm89htv47fys4t4cxz9cym7afj80w</v>
       </c>
       <c r="D176" t="str">
-        <v>0.029345</v>
-      </c>
-      <c r="E176" t="str">
-        <v>38.914897</v>
+        <v>9</v>
+      </c>
+      <c r="E176" t="b">
+        <v>1</v>
       </c>
       <c r="F176" t="str">
         <v>init17tehekll8dm89htv47fys4t4cxz9cym7afj80w</v>
@@ -4335,10 +4335,10 @@
         <v>init1ktgn89f6ht5v9y9jyqgtad7y3fqvg5xd8a4s2k</v>
       </c>
       <c r="D177" t="str">
-        <v>9.745322</v>
-      </c>
-      <c r="E177" t="str">
-        <v>64.872598</v>
+        <v>7</v>
+      </c>
+      <c r="E177" t="b">
+        <v>1</v>
       </c>
       <c r="F177" t="str">
         <v>init1ktgn89f6ht5v9y9jyqgtad7y3fqvg5xd8a4s2k</v>
@@ -4358,10 +4358,10 @@
         <v>init177ldar9kqae0sw5xhkq2zzpvhtz08530m8mt6m</v>
       </c>
       <c r="D178" t="str">
-        <v>0.031778</v>
-      </c>
-      <c r="E178" t="str">
-        <v>38.139736</v>
+        <v>11</v>
+      </c>
+      <c r="E178" t="b">
+        <v>1</v>
       </c>
       <c r="F178" t="str">
         <v>init177ldar9kqae0sw5xhkq2zzpvhtz08530m8mt6m</v>
@@ -4381,10 +4381,10 @@
         <v>init19qz3x5y5p6fhtfsgmmsnkrpld93gvvg78zfhjg</v>
       </c>
       <c r="D179" t="str">
-        <v>9.754327</v>
-      </c>
-      <c r="E179" t="str">
-        <v>66.463103</v>
+        <v>5</v>
+      </c>
+      <c r="E179" t="b">
+        <v>1</v>
       </c>
       <c r="F179" t="str">
         <v>init19qz3x5y5p6fhtfsgmmsnkrpld93gvvg78zfhjg</v>
@@ -4404,10 +4404,10 @@
         <v>init1lsg9zthjcpj9qn80kv9mxmqtzzgsmqdca99jv3</v>
       </c>
       <c r="D180" t="str">
-        <v>0.049302</v>
-      </c>
-      <c r="E180" t="str">
-        <v>39.994365</v>
+        <v>5</v>
+      </c>
+      <c r="E180" t="b">
+        <v>1</v>
       </c>
       <c r="F180" t="str">
         <v>init1lsg9zthjcpj9qn80kv9mxmqtzzgsmqdca99jv3</v>
@@ -4427,10 +4427,10 @@
         <v>init1px4fvpnywrnqmp94tl02d5az407ckyaju00q58</v>
       </c>
       <c r="D181" t="str">
-        <v>9.934270</v>
-      </c>
-      <c r="E181" t="str">
-        <v>64.883618</v>
+        <v>5</v>
+      </c>
+      <c r="E181" t="b">
+        <v>1</v>
       </c>
       <c r="F181" t="str">
         <v>init1px4fvpnywrnqmp94tl02d5az407ckyaju00q58</v>
@@ -4450,10 +4450,10 @@
         <v>init1dwm9qw93upsyvngya97v2lkyg2q4nxx763lav3</v>
       </c>
       <c r="D182" t="str">
-        <v>9.714184</v>
-      </c>
-      <c r="E182" t="str">
-        <v>60.044095</v>
+        <v>7</v>
+      </c>
+      <c r="E182" t="b">
+        <v>1</v>
       </c>
       <c r="F182" t="str">
         <v>init1dwm9qw93upsyvngya97v2lkyg2q4nxx763lav3</v>
@@ -4473,10 +4473,10 @@
         <v>init1qcx3r6gkvndk8d0x7z2xl8q3xnqhdgqap94re0</v>
       </c>
       <c r="D183" t="str">
-        <v>9.836092</v>
-      </c>
-      <c r="E183" t="str">
-        <v>58.201274</v>
+        <v>5</v>
+      </c>
+      <c r="E183" t="b">
+        <v>1</v>
       </c>
       <c r="F183" t="str">
         <v>init1qcx3r6gkvndk8d0x7z2xl8q3xnqhdgqap94re0</v>
@@ -4496,10 +4496,10 @@
         <v>init15t0hkg6x83c75vvs8mymnreagl8qjftgjtk75f</v>
       </c>
       <c r="D184" t="str">
-        <v>8.940102</v>
-      </c>
-      <c r="E184" t="str">
-        <v>83.149499</v>
+        <v>11</v>
+      </c>
+      <c r="E184" t="b">
+        <v>1</v>
       </c>
       <c r="F184" t="str">
         <v>init15t0hkg6x83c75vvs8mymnreagl8qjftgjtk75f</v>
@@ -4519,10 +4519,10 @@
         <v>init1s4v4acudkda0wqhljndhq939r7qpat2fzzdtu5</v>
       </c>
       <c r="D185" t="str">
-        <v>8.885674</v>
-      </c>
-      <c r="E185" t="str">
-        <v>82.271911</v>
+        <v>5</v>
+      </c>
+      <c r="E185" t="b">
+        <v>1</v>
       </c>
       <c r="F185" t="str">
         <v>init1s4v4acudkda0wqhljndhq939r7qpat2fzzdtu5</v>
@@ -4542,10 +4542,10 @@
         <v>init1sx9u0zek68c94tqrjyn95x70avqtdere9vuu3r</v>
       </c>
       <c r="D186" t="str">
-        <v>0.017049</v>
-      </c>
-      <c r="E186" t="str">
-        <v>30.021369</v>
+        <v>9</v>
+      </c>
+      <c r="E186" t="b">
+        <v>1</v>
       </c>
       <c r="F186" t="str">
         <v>init1sx9u0zek68c94tqrjyn95x70avqtdere9vuu3r</v>
@@ -4565,10 +4565,10 @@
         <v>init1h0mcyjzzkx673vwqyt9v5rlhe2n70jkv2y03f7</v>
       </c>
       <c r="D187" t="str">
-        <v>1.023149</v>
-      </c>
-      <c r="E187" t="str">
-        <v>56.447575</v>
+        <v>5</v>
+      </c>
+      <c r="E187" t="b">
+        <v>1</v>
       </c>
       <c r="F187" t="str">
         <v>init1h0mcyjzzkx673vwqyt9v5rlhe2n70jkv2y03f7</v>
@@ -4588,10 +4588,10 @@
         <v>init1s35x6fzem646fsk244zdeznruw60vfezte8epw</v>
       </c>
       <c r="D188" t="str">
-        <v>9.020188</v>
-      </c>
-      <c r="E188" t="str">
-        <v>75.691389</v>
+        <v>5</v>
+      </c>
+      <c r="E188" t="b">
+        <v>1</v>
       </c>
       <c r="F188" t="str">
         <v>init1s35x6fzem646fsk244zdeznruw60vfezte8epw</v>
@@ -4611,10 +4611,10 @@
         <v>init1x0mdrlparr7yhvs7d7u9md0gr3e6smr2w7fdd4</v>
       </c>
       <c r="D189" t="str">
-        <v>8.818670</v>
-      </c>
-      <c r="E189" t="str">
-        <v>85.274701</v>
+        <v>11</v>
+      </c>
+      <c r="E189" t="b">
+        <v>1</v>
       </c>
       <c r="F189" t="str">
         <v>init1x0mdrlparr7yhvs7d7u9md0gr3e6smr2w7fdd4</v>
@@ -4634,10 +4634,10 @@
         <v>init1awvzgmkywumg2q236xld7nnd5hkhaavdyr2key</v>
       </c>
       <c r="D190" t="str">
-        <v>4.479702</v>
-      </c>
-      <c r="E190" t="str">
-        <v>33.205410</v>
+        <v>15</v>
+      </c>
+      <c r="E190" t="b">
+        <v>1</v>
       </c>
       <c r="F190" t="str">
         <v>init1awvzgmkywumg2q236xld7nnd5hkhaavdyr2key</v>
@@ -4657,10 +4657,10 @@
         <v>init1a6c872jjwckj3287yx4k8hrvcv56e95vrc8xcx</v>
       </c>
       <c r="D191" t="str">
-        <v>0.077140</v>
-      </c>
-      <c r="E191" t="str">
-        <v>30.806587</v>
+        <v>5</v>
+      </c>
+      <c r="E191" t="b">
+        <v>1</v>
       </c>
       <c r="F191" t="str">
         <v>init1a6c872jjwckj3287yx4k8hrvcv56e95vrc8xcx</v>
@@ -4680,10 +4680,10 @@
         <v>init14kr6drr30svszg30x2csf8erllkpzxfexdgjdk</v>
       </c>
       <c r="D192" t="str">
-        <v>9.019968</v>
-      </c>
-      <c r="E192" t="str">
-        <v>86.314036</v>
+        <v>5</v>
+      </c>
+      <c r="E192" t="b">
+        <v>1</v>
       </c>
       <c r="F192" t="str">
         <v>init14kr6drr30svszg30x2csf8erllkpzxfexdgjdk</v>
@@ -4703,10 +4703,10 @@
         <v>init10z56qvcfwuxmam30tdrstu9lkagv0vvfna4rv4</v>
       </c>
       <c r="D193" t="str">
-        <v>9.170544</v>
-      </c>
-      <c r="E193" t="str">
-        <v>74.356570</v>
+        <v>9</v>
+      </c>
+      <c r="E193" t="b">
+        <v>1</v>
       </c>
       <c r="F193" t="str">
         <v>init10z56qvcfwuxmam30tdrstu9lkagv0vvfna4rv4</v>
@@ -4726,10 +4726,10 @@
         <v>init1ktrtp082g0ke3z40mkeejmqek4x3hg2zyjdsj8</v>
       </c>
       <c r="D194" t="str">
-        <v>22.516217</v>
-      </c>
-      <c r="E194" t="str">
-        <v>88.637794</v>
+        <v>11</v>
+      </c>
+      <c r="E194" t="b">
+        <v>1</v>
       </c>
       <c r="F194" t="str">
         <v>init1ktrtp082g0ke3z40mkeejmqek4x3hg2zyjdsj8</v>
@@ -4749,10 +4749,10 @@
         <v>init1qs659yk54ht8funlynry2xdp9zefs7tex39ra5</v>
       </c>
       <c r="D195" t="str">
-        <v>9.178872</v>
-      </c>
-      <c r="E195" t="str">
-        <v>84.035489</v>
+        <v>7</v>
+      </c>
+      <c r="E195" t="b">
+        <v>1</v>
       </c>
       <c r="F195" t="str">
         <v>init1qs659yk54ht8funlynry2xdp9zefs7tex39ra5</v>
@@ -4772,10 +4772,10 @@
         <v>init1s7zv8xp5semkx6lrxuqvymhqdavh5da05sf2cc</v>
       </c>
       <c r="D196" t="str">
-        <v>9.800569</v>
-      </c>
-      <c r="E196" t="str">
-        <v>64.676953</v>
+        <v>7</v>
+      </c>
+      <c r="E196" t="b">
+        <v>1</v>
       </c>
       <c r="F196" t="str">
         <v>init1s7zv8xp5semkx6lrxuqvymhqdavh5da05sf2cc</v>
@@ -4795,10 +4795,10 @@
         <v>init1txz3383j7558nuspll3zk7ljccrc8xr5k4j7rd</v>
       </c>
       <c r="D197" t="str">
-        <v>9.670962</v>
-      </c>
-      <c r="E197" t="str">
-        <v>64.713467</v>
+        <v>11</v>
+      </c>
+      <c r="E197" t="b">
+        <v>1</v>
       </c>
       <c r="F197" t="str">
         <v>init1txz3383j7558nuspll3zk7ljccrc8xr5k4j7rd</v>
@@ -4818,10 +4818,10 @@
         <v>init1pl9xvput7ldg399ltpzjyk8e27alvvg0nqra9m</v>
       </c>
       <c r="D198" t="str">
-        <v>0.639525</v>
-      </c>
-      <c r="E198" t="str">
-        <v>9.501978</v>
+        <v>7</v>
+      </c>
+      <c r="E198" t="b">
+        <v>1</v>
       </c>
       <c r="F198" t="str">
         <v>init1pl9xvput7ldg399ltpzjyk8e27alvvg0nqra9m</v>
@@ -4841,10 +4841,10 @@
         <v>init1fpq5kpt77rqpkldtfhn07x4e8nxc39l0ncuq25</v>
       </c>
       <c r="D199" t="str">
-        <v>9.264043</v>
-      </c>
-      <c r="E199" t="str">
-        <v>60.897260</v>
+        <v>7</v>
+      </c>
+      <c r="E199" t="b">
+        <v>1</v>
       </c>
       <c r="F199" t="str">
         <v>init1fpq5kpt77rqpkldtfhn07x4e8nxc39l0ncuq25</v>
@@ -4864,10 +4864,10 @@
         <v>init1fgx2xddzpz5gasekryhfw09cvtxvxtnkdkn6tv</v>
       </c>
       <c r="D200" t="str">
-        <v>0.835482</v>
-      </c>
-      <c r="E200" t="str">
-        <v>9.411693</v>
+        <v>11</v>
+      </c>
+      <c r="E200" t="b">
+        <v>1</v>
       </c>
       <c r="F200" t="str">
         <v>init1fgx2xddzpz5gasekryhfw09cvtxvxtnkdkn6tv</v>
@@ -4887,10 +4887,10 @@
         <v>init1q7vu7sa64l6g4cpv5j6rtclxu26a2lr937f6w3</v>
       </c>
       <c r="D201" t="str">
-        <v>0.793330</v>
-      </c>
-      <c r="E201" t="str">
-        <v>9.716798</v>
+        <v>7</v>
+      </c>
+      <c r="E201" t="b">
+        <v>1</v>
       </c>
       <c r="F201" t="str">
         <v>init1q7vu7sa64l6g4cpv5j6rtclxu26a2lr937f6w3</v>
@@ -4910,10 +4910,10 @@
         <v>init1l562x30xex8aadmlw65tgwgmu998nrvtz4t57u</v>
       </c>
       <c r="D202" t="str">
-        <v>0.777963</v>
-      </c>
-      <c r="E202" t="str">
-        <v>9.761368</v>
+        <v>7</v>
+      </c>
+      <c r="E202" t="b">
+        <v>1</v>
       </c>
       <c r="F202" t="str">
         <v>init1l562x30xex8aadmlw65tgwgmu998nrvtz4t57u</v>
@@ -4933,10 +4933,10 @@
         <v>init1u2d0psg8t7ra0r8754cfydqxzvjudma08862dz</v>
       </c>
       <c r="D203" t="str">
-        <v>8.783736</v>
-      </c>
-      <c r="E203" t="str">
-        <v>81.021041</v>
+        <v>9</v>
+      </c>
+      <c r="E203" t="b">
+        <v>1</v>
       </c>
       <c r="F203" t="str">
         <v>init1u2d0psg8t7ra0r8754cfydqxzvjudma08862dz</v>
@@ -4956,10 +4956,10 @@
         <v>init18q9rmhnu0za9a2h2hkqtntqpju4m9u6pj3lt82</v>
       </c>
       <c r="D204" t="str">
-        <v>9.962775</v>
-      </c>
-      <c r="E204" t="str">
-        <v>64.686769</v>
+        <v>7</v>
+      </c>
+      <c r="E204" t="b">
+        <v>1</v>
       </c>
       <c r="F204" t="str">
         <v>init18q9rmhnu0za9a2h2hkqtntqpju4m9u6pj3lt82</v>
@@ -4979,10 +4979,10 @@
         <v>init1uefq4tkh4tyhfhl8xtezfw3g6spa0k30nkgs8a</v>
       </c>
       <c r="D205" t="str">
-        <v>6.648981</v>
-      </c>
-      <c r="E205" t="str">
-        <v>65.234535</v>
+        <v>9</v>
+      </c>
+      <c r="E205" t="b">
+        <v>1</v>
       </c>
       <c r="F205" t="str">
         <v>init1uefq4tkh4tyhfhl8xtezfw3g6spa0k30nkgs8a</v>
@@ -5002,10 +5002,10 @@
         <v>init175eqevjuxvce7ldnhuw5mwrpw9jlwr30dztsf6</v>
       </c>
       <c r="D206" t="str">
-        <v>0.595072</v>
-      </c>
-      <c r="E206" t="str">
-        <v>10.033480</v>
+        <v>7</v>
+      </c>
+      <c r="E206" t="b">
+        <v>1</v>
       </c>
       <c r="F206" t="str">
         <v>init175eqevjuxvce7ldnhuw5mwrpw9jlwr30dztsf6</v>
@@ -5025,10 +5025,10 @@
         <v>init1kcrrqk66qak24jj7xdlqmfatnzfhyz764gv7zz</v>
       </c>
       <c r="D207" t="str">
-        <v>3.957592</v>
-      </c>
-      <c r="E207" t="str">
-        <v>35.744939</v>
+        <v>5</v>
+      </c>
+      <c r="E207" t="b">
+        <v>1</v>
       </c>
       <c r="F207" t="str">
         <v>init1kcrrqk66qak24jj7xdlqmfatnzfhyz764gv7zz</v>
@@ -5048,10 +5048,10 @@
         <v>init1cjrcreagex30j0pjfxkwmhh88m9j6yy35eap8z</v>
       </c>
       <c r="D208" t="str">
-        <v>0.893048</v>
-      </c>
-      <c r="E208" t="str">
-        <v>13.573886</v>
+        <v>5</v>
+      </c>
+      <c r="E208" t="b">
+        <v>1</v>
       </c>
       <c r="F208" t="str">
         <v>init1cjrcreagex30j0pjfxkwmhh88m9j6yy35eap8z</v>
@@ -5071,10 +5071,10 @@
         <v>init1zlh4j90xj9n9x6kye74vyt6zdzcgfcg7mwctlp</v>
       </c>
       <c r="D209" t="str">
-        <v>19.701966</v>
-      </c>
-      <c r="E209" t="str">
-        <v>91.565062</v>
+        <v>11</v>
+      </c>
+      <c r="E209" t="b">
+        <v>1</v>
       </c>
       <c r="F209" t="str">
         <v>init1zlh4j90xj9n9x6kye74vyt6zdzcgfcg7mwctlp</v>
@@ -5094,10 +5094,10 @@
         <v>init1actkct67kw7tux734hx9zu374sm3z66cuuah7m</v>
       </c>
       <c r="D210" t="str">
-        <v>0.970006</v>
-      </c>
-      <c r="E210" t="str">
-        <v>19.659368</v>
+        <v>9</v>
+      </c>
+      <c r="E210" t="b">
+        <v>1</v>
       </c>
       <c r="F210" t="str">
         <v>init1actkct67kw7tux734hx9zu374sm3z66cuuah7m</v>
@@ -5117,10 +5117,10 @@
         <v>init1kl5uja60ths76q4dvmkahcfx43kd5htxhetnku</v>
       </c>
       <c r="D211" t="str">
-        <v>5.861914</v>
-      </c>
-      <c r="E211" t="str">
-        <v>65.630354</v>
+        <v>11</v>
+      </c>
+      <c r="E211" t="b">
+        <v>1</v>
       </c>
       <c r="F211" t="str">
         <v>init1kl5uja60ths76q4dvmkahcfx43kd5htxhetnku</v>
@@ -5140,10 +5140,10 @@
         <v>init1u0u80mw9vk2q4uk86g97wa80kuk3y9s2ec6c4n</v>
       </c>
       <c r="D212" t="str">
-        <v>9.711423</v>
-      </c>
-      <c r="E212" t="str">
-        <v>62.685043</v>
+        <v>9</v>
+      </c>
+      <c r="E212" t="b">
+        <v>1</v>
       </c>
       <c r="F212" t="str">
         <v>init1u0u80mw9vk2q4uk86g97wa80kuk3y9s2ec6c4n</v>
@@ -5163,10 +5163,10 @@
         <v>init1kcneq9gesgm2sfuuya80stay5wm0zlfzqurajl</v>
       </c>
       <c r="D213" t="str">
-        <v>9.863311</v>
-      </c>
-      <c r="E213" t="str">
-        <v>62.564896</v>
+        <v>9</v>
+      </c>
+      <c r="E213" t="b">
+        <v>1</v>
       </c>
       <c r="F213" t="str">
         <v>init1kcneq9gesgm2sfuuya80stay5wm0zlfzqurajl</v>
@@ -5186,10 +5186,10 @@
         <v>init1kwryse5ys36gxyftgzwq6f3pt87g649gasy42z</v>
       </c>
       <c r="D214" t="str">
-        <v>9.831147</v>
-      </c>
-      <c r="E214" t="str">
-        <v>63.874892</v>
+        <v>5</v>
+      </c>
+      <c r="E214" t="b">
+        <v>1</v>
       </c>
       <c r="F214" t="str">
         <v>init1kwryse5ys36gxyftgzwq6f3pt87g649gasy42z</v>
@@ -5209,10 +5209,10 @@
         <v>init16y5262l02p0u5l9scm6els5hzzgg408mx0n4f5</v>
       </c>
       <c r="D215" t="str">
-        <v>9.591368</v>
-      </c>
-      <c r="E215" t="str">
-        <v>63.080878</v>
+        <v>9</v>
+      </c>
+      <c r="E215" t="b">
+        <v>1</v>
       </c>
       <c r="F215" t="str">
         <v>init16y5262l02p0u5l9scm6els5hzzgg408mx0n4f5</v>
@@ -5232,10 +5232,10 @@
         <v>init1duwpf73m3rnlgh53wk665u5e5n387gx956r2zv</v>
       </c>
       <c r="D216" t="str">
-        <v>9.679271</v>
-      </c>
-      <c r="E216" t="str">
-        <v>60.711865</v>
+        <v>9</v>
+      </c>
+      <c r="E216" t="b">
+        <v>1</v>
       </c>
       <c r="F216" t="str">
         <v>init1duwpf73m3rnlgh53wk665u5e5n387gx956r2zv</v>
@@ -5255,10 +5255,10 @@
         <v>init10legmdxnvhdxhw6937ddntkv4walv6xjjuzg6c</v>
       </c>
       <c r="D217" t="str">
-        <v>9.655744</v>
-      </c>
-      <c r="E217" t="str">
-        <v>60.048649</v>
+        <v>9</v>
+      </c>
+      <c r="E217" t="b">
+        <v>1</v>
       </c>
       <c r="F217" t="str">
         <v>init10legmdxnvhdxhw6937ddntkv4walv6xjjuzg6c</v>
@@ -5278,10 +5278,10 @@
         <v>init19v9efj0uljzs45jukcyu30dzm8kza645d6y47j</v>
       </c>
       <c r="D218" t="str">
-        <v>9.785347</v>
-      </c>
-      <c r="E218" t="str">
-        <v>61.943214</v>
+        <v>11</v>
+      </c>
+      <c r="E218" t="b">
+        <v>1</v>
       </c>
       <c r="F218" t="str">
         <v>init19v9efj0uljzs45jukcyu30dzm8kza645d6y47j</v>
@@ -5301,10 +5301,10 @@
         <v>init1dxypttqmj2cnsw2mxzm5scvnw7fz876u8ztjv7</v>
       </c>
       <c r="D219" t="str">
-        <v>9.664919</v>
-      </c>
-      <c r="E219" t="str">
-        <v>60.505214</v>
+        <v>9</v>
+      </c>
+      <c r="E219" t="b">
+        <v>1</v>
       </c>
       <c r="F219" t="str">
         <v>init1dxypttqmj2cnsw2mxzm5scvnw7fz876u8ztjv7</v>
@@ -5324,10 +5324,10 @@
         <v>init1gsewztq9ftvykn870p5fecyzwvfq0uc0sqvx4n</v>
       </c>
       <c r="D220" t="str">
-        <v>9.797372</v>
-      </c>
-      <c r="E220" t="str">
-        <v>59.345067</v>
+        <v>8</v>
+      </c>
+      <c r="E220" t="b">
+        <v>1</v>
       </c>
       <c r="F220" t="str">
         <v>init1gsewztq9ftvykn870p5fecyzwvfq0uc0sqvx4n</v>
@@ -5347,10 +5347,10 @@
         <v>init1r5qyg72y2jmqlmchrk8vn7sesx84xlpweqyq87</v>
       </c>
       <c r="D221" t="str">
-        <v>0.050211</v>
-      </c>
-      <c r="E221" t="str">
-        <v>36.190184</v>
+        <v>5</v>
+      </c>
+      <c r="E221" t="b">
+        <v>1</v>
       </c>
       <c r="F221" t="str">
         <v>init1r5qyg72y2jmqlmchrk8vn7sesx84xlpweqyq87</v>
@@ -5370,10 +5370,10 @@
         <v>init1xr0xxts653e30dssm20zy9j4vd5n2apn4jkq3v</v>
       </c>
       <c r="D222" t="str">
-        <v>9.980335</v>
-      </c>
-      <c r="E222" t="str">
-        <v>61.634241</v>
+        <v>9</v>
+      </c>
+      <c r="E222" t="b">
+        <v>1</v>
       </c>
       <c r="F222" t="str">
         <v>init1xr0xxts653e30dssm20zy9j4vd5n2apn4jkq3v</v>
@@ -5393,10 +5393,10 @@
         <v>init1w8k80c3fc8j9xc4hr6ar5tdm8kluhfp5a25fh2</v>
       </c>
       <c r="D223" t="str">
-        <v>9.899292</v>
-      </c>
-      <c r="E223" t="str">
-        <v>64.042570</v>
+        <v>7</v>
+      </c>
+      <c r="E223" t="b">
+        <v>1</v>
       </c>
       <c r="F223" t="str">
         <v>init1w8k80c3fc8j9xc4hr6ar5tdm8kluhfp5a25fh2</v>
@@ -5416,10 +5416,10 @@
         <v>init13cseqqpsvga6hua4356xyulfm3000jc8fr6rqv</v>
       </c>
       <c r="D224" t="str">
-        <v>9.954556</v>
-      </c>
-      <c r="E224" t="str">
-        <v>40.361518</v>
+        <v>5</v>
+      </c>
+      <c r="E224" t="b">
+        <v>1</v>
       </c>
       <c r="F224" t="str">
         <v>init13cseqqpsvga6hua4356xyulfm3000jc8fr6rqv</v>
@@ -5439,10 +5439,10 @@
         <v>init1w3lxwsj9q4yw5pkygdadhmj09f7rktemqcqss5</v>
       </c>
       <c r="D225" t="str">
-        <v>10.036125</v>
-      </c>
-      <c r="E225" t="str">
-        <v>47.232834</v>
+        <v>7</v>
+      </c>
+      <c r="E225" t="b">
+        <v>1</v>
       </c>
       <c r="F225" t="str">
         <v>init1w3lxwsj9q4yw5pkygdadhmj09f7rktemqcqss5</v>
@@ -5462,10 +5462,10 @@
         <v>init1fzz809ddf4nrdv23anyahlx8qfq9eq45mf0lqn</v>
       </c>
       <c r="D226" t="str">
-        <v>8.764798</v>
-      </c>
-      <c r="E226" t="str">
-        <v>31.515336</v>
+        <v>4</v>
+      </c>
+      <c r="E226" t="b">
+        <v>1</v>
       </c>
       <c r="F226" t="str">
         <v>init1fzz809ddf4nrdv23anyahlx8qfq9eq45mf0lqn</v>
@@ -5485,10 +5485,10 @@
         <v>init1tse55qkzhcwh25a9ex4h59u9ckvlvdlu6cp45m</v>
       </c>
       <c r="D227" t="str">
-        <v>9.682667</v>
-      </c>
-      <c r="E227" t="str">
-        <v>41.317665</v>
+        <v>9</v>
+      </c>
+      <c r="E227" t="b">
+        <v>1</v>
       </c>
       <c r="F227" t="str">
         <v>init1tse55qkzhcwh25a9ex4h59u9ckvlvdlu6cp45m</v>
@@ -5508,10 +5508,10 @@
         <v>init1gng7sgkmvntnjcl4lggkdzt2tkylg27ugg9ltm</v>
       </c>
       <c r="D228" t="str">
-        <v>9.648287</v>
-      </c>
-      <c r="E228" t="str">
-        <v>41.609562</v>
+        <v>9</v>
+      </c>
+      <c r="E228" t="b">
+        <v>1</v>
       </c>
       <c r="F228" t="str">
         <v>init1gng7sgkmvntnjcl4lggkdzt2tkylg27ugg9ltm</v>
@@ -5531,10 +5531,10 @@
         <v>init10cf7mewmhm3qmsv7fgajt8z0ppsmxhedmx3q3t</v>
       </c>
       <c r="D229" t="str">
-        <v>9.628983</v>
-      </c>
-      <c r="E229" t="str">
-        <v>44.144057</v>
+        <v>9</v>
+      </c>
+      <c r="E229" t="b">
+        <v>1</v>
       </c>
       <c r="F229" t="str">
         <v>init10cf7mewmhm3qmsv7fgajt8z0ppsmxhedmx3q3t</v>
@@ -5554,10 +5554,10 @@
         <v>init17yg6qklj5h6z6cmja02hl75pfv2c7agctdy7v7</v>
       </c>
       <c r="D230" t="str">
-        <v>9.993413</v>
-      </c>
-      <c r="E230" t="str">
-        <v>44.936734</v>
+        <v>5</v>
+      </c>
+      <c r="E230" t="b">
+        <v>1</v>
       </c>
       <c r="F230" t="str">
         <v>init17yg6qklj5h6z6cmja02hl75pfv2c7agctdy7v7</v>
@@ -5577,10 +5577,10 @@
         <v>init1mhm07zhkl6y08a0ykt3yv8ussdtsaqvz3ndx79</v>
       </c>
       <c r="D231" t="str">
-        <v>9.715357</v>
-      </c>
-      <c r="E231" t="str">
-        <v>50.377442</v>
+        <v>11</v>
+      </c>
+      <c r="E231" t="b">
+        <v>1</v>
       </c>
       <c r="F231" t="str">
         <v>init1mhm07zhkl6y08a0ykt3yv8ussdtsaqvz3ndx79</v>
@@ -5600,10 +5600,10 @@
         <v>init1h3aklwe22e3a5470j2dwrsh24cfy9tpfkn59ac</v>
       </c>
       <c r="D232" t="str">
-        <v>9.444352</v>
-      </c>
-      <c r="E232" t="str">
-        <v>49.209877</v>
+        <v>9</v>
+      </c>
+      <c r="E232" t="b">
+        <v>1</v>
       </c>
       <c r="F232" t="str">
         <v>init1h3aklwe22e3a5470j2dwrsh24cfy9tpfkn59ac</v>
@@ -5623,10 +5623,10 @@
         <v>init1ad78dwzkcud6t2832v7pgsw39jn22vjwxadp85</v>
       </c>
       <c r="D233" t="str">
-        <v>9.747913</v>
-      </c>
-      <c r="E233" t="str">
-        <v>53.503453</v>
+        <v>5</v>
+      </c>
+      <c r="E233" t="b">
+        <v>1</v>
       </c>
       <c r="F233" t="str">
         <v>init1ad78dwzkcud6t2832v7pgsw39jn22vjwxadp85</v>
@@ -5646,10 +5646,10 @@
         <v>init1xhdezafqwdcw0fhr3c9mwv04f8vawhvpc7txv8</v>
       </c>
       <c r="D234" t="str">
-        <v>9.571619</v>
-      </c>
-      <c r="E234" t="str">
-        <v>49.425772</v>
+        <v>7</v>
+      </c>
+      <c r="E234" t="b">
+        <v>1</v>
       </c>
       <c r="F234" t="str">
         <v>init1xhdezafqwdcw0fhr3c9mwv04f8vawhvpc7txv8</v>
@@ -5685,10 +5685,10 @@
         <v>init1k40d0tjy9cchp3gash8cwu8hhfl0645hmh9r7r</v>
       </c>
       <c r="D237" t="str">
-        <v>9.652288</v>
-      </c>
-      <c r="E237" t="str">
-        <v>42.043661</v>
+        <v>11</v>
+      </c>
+      <c r="E237" t="b">
+        <v>1</v>
       </c>
       <c r="F237" t="str">
         <v>init1k40d0tjy9cchp3gash8cwu8hhfl0645hmh9r7r</v>
@@ -5708,10 +5708,10 @@
         <v>init1etnm5svzdw02szx72thfz96nkp9aj9mrguh3t8</v>
       </c>
       <c r="D238" t="str">
-        <v>9.912736</v>
-      </c>
-      <c r="E238" t="str">
-        <v>37.211038</v>
+        <v>5</v>
+      </c>
+      <c r="E238" t="b">
+        <v>1</v>
       </c>
       <c r="F238" t="str">
         <v>init1etnm5svzdw02szx72thfz96nkp9aj9mrguh3t8</v>
@@ -5731,10 +5731,10 @@
         <v>init18ayyjlsshcqtc92ukmpkca5cvx6fdwlxep7azm</v>
       </c>
       <c r="D239" t="str">
-        <v>9.935458</v>
-      </c>
-      <c r="E239" t="str">
-        <v>4.133367</v>
+        <v>5</v>
+      </c>
+      <c r="E239" t="b">
+        <v>1</v>
       </c>
       <c r="F239" t="str">
         <v>init18ayyjlsshcqtc92ukmpkca5cvx6fdwlxep7azm</v>
@@ -5754,10 +5754,10 @@
         <v>init19qck4u6k7q30xfc254tuwsgk9xr9cekx9ca25a</v>
       </c>
       <c r="D240" t="str">
-        <v>9.861759</v>
-      </c>
-      <c r="E240" t="str">
-        <v>69.038061</v>
+        <v>5</v>
+      </c>
+      <c r="E240" t="b">
+        <v>1</v>
       </c>
       <c r="F240" t="str">
         <v>init19qck4u6k7q30xfc254tuwsgk9xr9cekx9ca25a</v>
@@ -5777,10 +5777,10 @@
         <v>init1z4yzecxj7xwm48j6ek0ctts5tq6qwrfh9xtqql</v>
       </c>
       <c r="D241" t="str">
-        <v>9.881081</v>
-      </c>
-      <c r="E241" t="str">
-        <v>38.128213</v>
+        <v>11</v>
+      </c>
+      <c r="E241" t="b">
+        <v>1</v>
       </c>
       <c r="F241" t="str">
         <v>init1z4yzecxj7xwm48j6ek0ctts5tq6qwrfh9xtqql</v>
@@ -5800,10 +5800,10 @@
         <v>init180zrgnjhnhle0mqxt77yvxm9hm3xwke6yx2au5</v>
       </c>
       <c r="D242" t="str">
-        <v>9.735898</v>
-      </c>
-      <c r="E242" t="str">
-        <v>33.633570</v>
+        <v>9</v>
+      </c>
+      <c r="E242" t="b">
+        <v>1</v>
       </c>
       <c r="F242" t="str">
         <v>init180zrgnjhnhle0mqxt77yvxm9hm3xwke6yx2au5</v>
@@ -5823,10 +5823,10 @@
         <v>init1rrvl6tclqvljcszdkdrpandatmp2v0chg95mzu</v>
       </c>
       <c r="D243" t="str">
-        <v>10.203439</v>
-      </c>
-      <c r="E243" t="str">
-        <v>34.105341</v>
+        <v>5</v>
+      </c>
+      <c r="E243" t="b">
+        <v>1</v>
       </c>
       <c r="F243" t="str">
         <v>init1rrvl6tclqvljcszdkdrpandatmp2v0chg95mzu</v>
@@ -5846,10 +5846,10 @@
         <v>init1z478zwyjdnp5gfsacqqnhpekuhy07c7ayz2vd2</v>
       </c>
       <c r="D244" t="str">
-        <v>9.882732</v>
-      </c>
-      <c r="E244" t="str">
-        <v>37.131306</v>
+        <v>5</v>
+      </c>
+      <c r="E244" t="b">
+        <v>1</v>
       </c>
       <c r="F244" t="str">
         <v>init1z478zwyjdnp5gfsacqqnhpekuhy07c7ayz2vd2</v>
@@ -5869,10 +5869,10 @@
         <v>init1909fcgnrhy0e80w8770r5l97ztzkp0jaftq5y6</v>
       </c>
       <c r="D245" t="str">
-        <v>9.659602</v>
-      </c>
-      <c r="E245" t="str">
-        <v>55.031399</v>
+        <v>11</v>
+      </c>
+      <c r="E245" t="b">
+        <v>1</v>
       </c>
       <c r="F245" t="str">
         <v>init1909fcgnrhy0e80w8770r5l97ztzkp0jaftq5y6</v>
@@ -5892,10 +5892,10 @@
         <v>init164h2zke0slxg3m40nqs739gsar544g0jwhx6qq</v>
       </c>
       <c r="D246" t="str">
-        <v>9.776795</v>
-      </c>
-      <c r="E246" t="str">
-        <v>54.051434</v>
+        <v>7</v>
+      </c>
+      <c r="E246" t="b">
+        <v>1</v>
       </c>
       <c r="F246" t="str">
         <v>init164h2zke0slxg3m40nqs739gsar544g0jwhx6qq</v>
@@ -5915,10 +5915,10 @@
         <v>init1hdllck4gq0s7d2p4v2m9dp3zesyrle7ju4hezs</v>
       </c>
       <c r="D247" t="str">
-        <v>9.937710</v>
-      </c>
-      <c r="E247" t="str">
-        <v>47.589606</v>
+        <v>5</v>
+      </c>
+      <c r="E247" t="b">
+        <v>1</v>
       </c>
       <c r="F247" t="str">
         <v>init1hdllck4gq0s7d2p4v2m9dp3zesyrle7ju4hezs</v>
@@ -5938,10 +5938,10 @@
         <v>init1rmcvplju8pggvc90x7p9msvtwxjc8fv6s35xlx</v>
       </c>
       <c r="D248" t="str">
-        <v>0.041709</v>
-      </c>
-      <c r="E248" t="str">
-        <v>15.939939</v>
+        <v>9</v>
+      </c>
+      <c r="E248" t="b">
+        <v>1</v>
       </c>
       <c r="F248" t="str">
         <v>init1rmcvplju8pggvc90x7p9msvtwxjc8fv6s35xlx</v>
@@ -5961,10 +5961,10 @@
         <v>init1at62z7r4zhrgm60nd5h4vaqw7ps4me4p7uzct4</v>
       </c>
       <c r="D249" t="str">
-        <v>9.911603</v>
-      </c>
-      <c r="E249" t="str">
-        <v>45.411636</v>
+        <v>5</v>
+      </c>
+      <c r="E249" t="b">
+        <v>1</v>
       </c>
       <c r="F249" t="str">
         <v>init1at62z7r4zhrgm60nd5h4vaqw7ps4me4p7uzct4</v>
@@ -5992,10 +5992,10 @@
         <v>init1qa79kqg6nvgrmq87982teus2kxcwkjrc6fk28g</v>
       </c>
       <c r="D251" t="str">
-        <v>9.886134</v>
-      </c>
-      <c r="E251" t="str">
-        <v>66.525046</v>
+        <v>11</v>
+      </c>
+      <c r="E251" t="b">
+        <v>1</v>
       </c>
       <c r="F251" t="str">
         <v>init1qa79kqg6nvgrmq87982teus2kxcwkjrc6fk28g</v>
@@ -6015,10 +6015,10 @@
         <v>init1ef0qyc9z9ytqns2zn3kllaw4zydvcaphukwxev</v>
       </c>
       <c r="D252" t="str">
-        <v>0.928048</v>
-      </c>
-      <c r="E252" t="str">
-        <v>7.187068</v>
+        <v>5</v>
+      </c>
+      <c r="E252" t="b">
+        <v>1</v>
       </c>
       <c r="F252" t="str">
         <v>init1ef0qyc9z9ytqns2zn3kllaw4zydvcaphukwxev</v>
@@ -6038,10 +6038,10 @@
         <v>init123x89ushjcueelfa5avzjr9syzp6dsgd9rsqx5</v>
       </c>
       <c r="D253" t="str">
-        <v>9.922004</v>
-      </c>
-      <c r="E253" t="str">
-        <v>67.236637</v>
+        <v>5</v>
+      </c>
+      <c r="E253" t="b">
+        <v>1</v>
       </c>
       <c r="F253" t="str">
         <v>init123x89ushjcueelfa5avzjr9syzp6dsgd9rsqx5</v>
@@ -6061,10 +6061,10 @@
         <v>init17cxe07sdj3zflqnznwgh73lps3qsuzm9leemgv</v>
       </c>
       <c r="D254" t="str">
-        <v>9.891366</v>
-      </c>
-      <c r="E254" t="str">
-        <v>64.467642</v>
+        <v>5</v>
+      </c>
+      <c r="E254" t="b">
+        <v>1</v>
       </c>
       <c r="F254" t="str">
         <v>init17cxe07sdj3zflqnznwgh73lps3qsuzm9leemgv</v>
@@ -6084,10 +6084,10 @@
         <v>init15n4tdsw6cvgyxczrkswddfcd4n9nemsf9rk3q8</v>
       </c>
       <c r="D255" t="str">
-        <v>9.917543</v>
-      </c>
-      <c r="E255" t="str">
-        <v>90.910423</v>
+        <v>5</v>
+      </c>
+      <c r="E255" t="b">
+        <v>1</v>
       </c>
       <c r="F255" t="str">
         <v>init15n4tdsw6cvgyxczrkswddfcd4n9nemsf9rk3q8</v>
@@ -6107,10 +6107,10 @@
         <v>init1ksp0vree8fy9fsn7ljsxp95tt3k2vanrdledsh</v>
       </c>
       <c r="D256" t="str">
-        <v>9.928293</v>
-      </c>
-      <c r="E256" t="str">
-        <v>66.313142</v>
+        <v>7</v>
+      </c>
+      <c r="E256" t="b">
+        <v>1</v>
       </c>
       <c r="F256" t="str">
         <v>init1ksp0vree8fy9fsn7ljsxp95tt3k2vanrdledsh</v>
@@ -6130,10 +6130,10 @@
         <v>init1swqgumkg92q32ls6f3xvxfury3f8anpw7ss9r3</v>
       </c>
       <c r="D257" t="str">
-        <v>9.931245</v>
-      </c>
-      <c r="E257" t="str">
-        <v>46.974037</v>
+        <v>5</v>
+      </c>
+      <c r="E257" t="b">
+        <v>1</v>
       </c>
       <c r="F257" t="str">
         <v>init1swqgumkg92q32ls6f3xvxfury3f8anpw7ss9r3</v>
@@ -6153,10 +6153,10 @@
         <v>init1mdf7l8rqvpt4a28mfdxpcg3fl3t6qg7vxz6q9t</v>
       </c>
       <c r="D258" t="str">
-        <v>9.779079</v>
-      </c>
-      <c r="E258" t="str">
-        <v>53.182242</v>
+        <v>9</v>
+      </c>
+      <c r="E258" t="b">
+        <v>1</v>
       </c>
       <c r="F258" t="str">
         <v>init1mdf7l8rqvpt4a28mfdxpcg3fl3t6qg7vxz6q9t</v>
@@ -6176,10 +6176,10 @@
         <v>init1jvp76s46cecwtg3uhec5sjkvxnp3jpmtk50mex</v>
       </c>
       <c r="D259" t="str">
-        <v>8.838070</v>
-      </c>
-      <c r="E259" t="str">
-        <v>56.220258</v>
+        <v>7</v>
+      </c>
+      <c r="E259" t="b">
+        <v>1</v>
       </c>
       <c r="F259" t="str">
         <v>init1jvp76s46cecwtg3uhec5sjkvxnp3jpmtk50mex</v>
@@ -6199,10 +6199,10 @@
         <v>init1le9djrkxgfpnwajtn6k0pglcmtmzlthdul3dv0</v>
       </c>
       <c r="D260" t="str">
-        <v>9.700070</v>
-      </c>
-      <c r="E260" t="str">
-        <v>52.595430</v>
+        <v>13</v>
+      </c>
+      <c r="E260" t="b">
+        <v>1</v>
       </c>
       <c r="F260" t="str">
         <v>init1le9djrkxgfpnwajtn6k0pglcmtmzlthdul3dv0</v>
@@ -6222,10 +6222,10 @@
         <v>init1uy4xmes46hntynv389fgsst3yz9njxeg8neelg</v>
       </c>
       <c r="D261" t="str">
-        <v>9.901126</v>
-      </c>
-      <c r="E261" t="str">
-        <v>51.048803</v>
+        <v>15</v>
+      </c>
+      <c r="E261" t="b">
+        <v>1</v>
       </c>
       <c r="F261" t="str">
         <v>init1uy4xmes46hntynv389fgsst3yz9njxeg8neelg</v>
@@ -6245,10 +6245,10 @@
         <v>init1v5e4ppxzx24srfr04qfe9eerrmzgayexkjz7r4</v>
       </c>
       <c r="D262" t="str">
-        <v>0.050747</v>
-      </c>
-      <c r="E262" t="str">
-        <v>23.289125</v>
+        <v>9</v>
+      </c>
+      <c r="E262" t="b">
+        <v>1</v>
       </c>
       <c r="F262" t="str">
         <v>init1v5e4ppxzx24srfr04qfe9eerrmzgayexkjz7r4</v>
@@ -6268,10 +6268,10 @@
         <v>init1c4qnakdwujv3ns9q8yarupe3a2xuhuz8zmgp8e</v>
       </c>
       <c r="D263" t="str">
-        <v>0.940491</v>
-      </c>
-      <c r="E263" t="str">
-        <v>8.571471</v>
+        <v>7</v>
+      </c>
+      <c r="E263" t="b">
+        <v>1</v>
       </c>
       <c r="F263" t="str">
         <v>init1c4qnakdwujv3ns9q8yarupe3a2xuhuz8zmgp8e</v>
@@ -6291,10 +6291,10 @@
         <v>init1yk7qjtd6jsquqs0h0lwgl0j2k6dkex8hhqrugx</v>
       </c>
       <c r="D264" t="str">
-        <v>9.750835</v>
-      </c>
-      <c r="E264" t="str">
-        <v>45.209706</v>
+        <v>11</v>
+      </c>
+      <c r="E264" t="b">
+        <v>1</v>
       </c>
       <c r="F264" t="str">
         <v>init1yk7qjtd6jsquqs0h0lwgl0j2k6dkex8hhqrugx</v>
@@ -6314,10 +6314,10 @@
         <v>init1uq87kedzn8k4634y93k3amem47f7n4ryhqwupx</v>
       </c>
       <c r="D265" t="str">
-        <v>9.797595</v>
-      </c>
-      <c r="E265" t="str">
-        <v>49.190984</v>
+        <v>7</v>
+      </c>
+      <c r="E265" t="b">
+        <v>1</v>
       </c>
       <c r="F265" t="str">
         <v>init1uq87kedzn8k4634y93k3amem47f7n4ryhqwupx</v>
@@ -6337,10 +6337,10 @@
         <v>init1mj3qt7zjjfn9k9rqu5yqgeex2djhfwvhyqpwel</v>
       </c>
       <c r="D266" t="str">
-        <v>9.910875</v>
-      </c>
-      <c r="E266" t="str">
-        <v>66.763450</v>
+        <v>11</v>
+      </c>
+      <c r="E266" t="b">
+        <v>1</v>
       </c>
       <c r="F266" t="str">
         <v>init1mj3qt7zjjfn9k9rqu5yqgeex2djhfwvhyqpwel</v>
@@ -6360,10 +6360,10 @@
         <v>init1yp32gugsu3syfn3zxj2w96z45t6w3ketdd7q7q</v>
       </c>
       <c r="D267" t="str">
-        <v>19.492784</v>
-      </c>
-      <c r="E267" t="str">
-        <v>83.131849</v>
+        <v>9</v>
+      </c>
+      <c r="E267" t="b">
+        <v>1</v>
       </c>
       <c r="F267" t="str">
         <v>init1yp32gugsu3syfn3zxj2w96z45t6w3ketdd7q7q</v>
@@ -6383,10 +6383,10 @@
         <v>init1eupvdt9j0ccaq98z5rv36ztvvcgky4lkplgqs7</v>
       </c>
       <c r="D268" t="str">
-        <v>9.640262</v>
-      </c>
-      <c r="E268" t="str">
-        <v>63.155891</v>
+        <v>9</v>
+      </c>
+      <c r="E268" t="b">
+        <v>1</v>
       </c>
       <c r="F268" t="str">
         <v>init1eupvdt9j0ccaq98z5rv36ztvvcgky4lkplgqs7</v>
@@ -6406,10 +6406,10 @@
         <v>init1hgesk2umcj9mdt20gdyprxjfdwfzgf5mdaqtsz</v>
       </c>
       <c r="D269" t="str">
-        <v>19.647461</v>
-      </c>
-      <c r="E269" t="str">
-        <v>79.284629</v>
+        <v>7</v>
+      </c>
+      <c r="E269" t="b">
+        <v>1</v>
       </c>
       <c r="F269" t="str">
         <v>init1hgesk2umcj9mdt20gdyprxjfdwfzgf5mdaqtsz</v>
@@ -6429,10 +6429,10 @@
         <v>init1a3nv8m5xp5xt45ru77nds54ssyvghfqf2mzmde</v>
       </c>
       <c r="D270" t="str">
-        <v>19.603401</v>
-      </c>
-      <c r="E270" t="str">
-        <v>99.081026</v>
+        <v>11</v>
+      </c>
+      <c r="E270" t="b">
+        <v>1</v>
       </c>
       <c r="F270" t="str">
         <v>init1a3nv8m5xp5xt45ru77nds54ssyvghfqf2mzmde</v>
@@ -6452,10 +6452,10 @@
         <v>init1aqyuqtywmreu8xruz8uystzp93jkzsay2fgww4</v>
       </c>
       <c r="D271" t="str">
-        <v>19.691779</v>
-      </c>
-      <c r="E271" t="str">
-        <v>94.210029</v>
+        <v>9</v>
+      </c>
+      <c r="E271" t="b">
+        <v>1</v>
       </c>
       <c r="F271" t="str">
         <v>init1aqyuqtywmreu8xruz8uystzp93jkzsay2fgww4</v>
@@ -6475,10 +6475,10 @@
         <v>init1ezl2cgmf9j8mcx7wqcdktwxhxss8cywpxjtxz2</v>
       </c>
       <c r="D272" t="str">
-        <v>24.639695</v>
-      </c>
-      <c r="E272" t="str">
-        <v>95.261920</v>
+        <v>5</v>
+      </c>
+      <c r="E272" t="b">
+        <v>1</v>
       </c>
       <c r="F272" t="str">
         <v>init1ezl2cgmf9j8mcx7wqcdktwxhxss8cywpxjtxz2</v>
@@ -6498,10 +6498,10 @@
         <v>init1fr78a7asvr7j0ft20a2yydv7l9q9wmvrnvq5f8</v>
       </c>
       <c r="D273" t="str">
-        <v>9.500242</v>
-      </c>
-      <c r="E273" t="str">
-        <v>69.109942</v>
+        <v>9</v>
+      </c>
+      <c r="E273" t="b">
+        <v>1</v>
       </c>
       <c r="F273" t="str">
         <v>init1fr78a7asvr7j0ft20a2yydv7l9q9wmvrnvq5f8</v>
@@ -6521,10 +6521,10 @@
         <v>init1dgzek76enf5j3lu88x0g242q7nwjfmezj4jkp4</v>
       </c>
       <c r="D274" t="str">
-        <v>9.659634</v>
-      </c>
-      <c r="E274" t="str">
-        <v>60.044188</v>
+        <v>9</v>
+      </c>
+      <c r="E274" t="b">
+        <v>1</v>
       </c>
       <c r="F274" t="str">
         <v>init1dgzek76enf5j3lu88x0g242q7nwjfmezj4jkp4</v>
@@ -6544,10 +6544,10 @@
         <v>init1w3wl5cmcgt347hmfw586xak24t6rl9z4hmar54</v>
       </c>
       <c r="D275" t="str">
-        <v>9.690725</v>
-      </c>
-      <c r="E275" t="str">
-        <v>63.287249</v>
+        <v>7</v>
+      </c>
+      <c r="E275" t="b">
+        <v>1</v>
       </c>
       <c r="F275" t="str">
         <v>init1w3wl5cmcgt347hmfw586xak24t6rl9z4hmar54</v>
@@ -6567,10 +6567,10 @@
         <v>init1c74fdtgxa50n28y49mfmltghmev3vdfhpa56a8</v>
       </c>
       <c r="D276" t="str">
-        <v>9.649471</v>
-      </c>
-      <c r="E276" t="str">
-        <v>64.109960</v>
+        <v>9</v>
+      </c>
+      <c r="E276" t="b">
+        <v>1</v>
       </c>
       <c r="F276" t="str">
         <v>init1c74fdtgxa50n28y49mfmltghmev3vdfhpa56a8</v>
@@ -6590,10 +6590,10 @@
         <v>init1uaaumyktzpch5egalvefs0rk2xjaavw03ynhkt</v>
       </c>
       <c r="D277" t="str">
-        <v>9.711993</v>
-      </c>
-      <c r="E277" t="str">
-        <v>51.044957</v>
+        <v>9</v>
+      </c>
+      <c r="E277" t="b">
+        <v>1</v>
       </c>
       <c r="F277" t="str">
         <v>init1uaaumyktzpch5egalvefs0rk2xjaavw03ynhkt</v>
@@ -6613,10 +6613,10 @@
         <v>init16ur29kh5exjcz8k923ejhtv5t5vwegcqtr3thv</v>
       </c>
       <c r="D278" t="str">
-        <v>9.470870</v>
-      </c>
-      <c r="E278" t="str">
-        <v>55.287671</v>
+        <v>11</v>
+      </c>
+      <c r="E278" t="b">
+        <v>1</v>
       </c>
       <c r="F278" t="str">
         <v>init16ur29kh5exjcz8k923ejhtv5t5vwegcqtr3thv</v>
@@ -6636,10 +6636,10 @@
         <v>init10hksqap8ch8fvg92wmd0kw49wdu2m60gcpvq8a</v>
       </c>
       <c r="D279" t="str">
-        <v>9.711947</v>
-      </c>
-      <c r="E279" t="str">
-        <v>68.650771</v>
+        <v>9</v>
+      </c>
+      <c r="E279" t="b">
+        <v>1</v>
       </c>
       <c r="F279" t="str">
         <v>init10hksqap8ch8fvg92wmd0kw49wdu2m60gcpvq8a</v>
@@ -6659,10 +6659,10 @@
         <v>init1jeny9uktm3wys8wjhs8mkef3w66ag2mkh50la5</v>
       </c>
       <c r="D280" t="str">
-        <v>9.604458</v>
-      </c>
-      <c r="E280" t="str">
-        <v>68.144400</v>
+        <v>9</v>
+      </c>
+      <c r="E280" t="b">
+        <v>1</v>
       </c>
       <c r="F280" t="str">
         <v>init1jeny9uktm3wys8wjhs8mkef3w66ag2mkh50la5</v>
@@ -6682,10 +6682,10 @@
         <v>init1d69rg2vk5l2n4hf9mnt9eyva6trg650qsurge6</v>
       </c>
       <c r="D281" t="str">
-        <v>9.555793</v>
-      </c>
-      <c r="E281" t="str">
-        <v>68.286036</v>
+        <v>13</v>
+      </c>
+      <c r="E281" t="b">
+        <v>1</v>
       </c>
       <c r="F281" t="str">
         <v>init1d69rg2vk5l2n4hf9mnt9eyva6trg650qsurge6</v>
@@ -6705,10 +6705,10 @@
         <v>init1h5nmju5s5n8ds7mja5qur27hmz3k0yd3kyphyn</v>
       </c>
       <c r="D282" t="str">
-        <v>9.475468</v>
-      </c>
-      <c r="E282" t="str">
-        <v>60.224086</v>
+        <v>11</v>
+      </c>
+      <c r="E282" t="b">
+        <v>1</v>
       </c>
       <c r="F282" t="str">
         <v>init1h5nmju5s5n8ds7mja5qur27hmz3k0yd3kyphyn</v>
@@ -6728,10 +6728,10 @@
         <v>init129675ffmvnx8qg7hddqxjyxcdfczap3hae8xu4</v>
       </c>
       <c r="D283" t="str">
-        <v>9.693586</v>
-      </c>
-      <c r="E283" t="str">
-        <v>66.198791</v>
+        <v>7</v>
+      </c>
+      <c r="E283" t="b">
+        <v>1</v>
       </c>
       <c r="F283" t="str">
         <v>init129675ffmvnx8qg7hddqxjyxcdfczap3hae8xu4</v>
@@ -6751,10 +6751,10 @@
         <v>init1l5j92wwn8fzry54ehvghwj5ufdy73je7ts3v9t</v>
       </c>
       <c r="D284" t="str">
-        <v>9.698782</v>
-      </c>
-      <c r="E284" t="str">
-        <v>69.068855</v>
+        <v>9</v>
+      </c>
+      <c r="E284" t="b">
+        <v>1</v>
       </c>
       <c r="F284" t="str">
         <v>init1l5j92wwn8fzry54ehvghwj5ufdy73je7ts3v9t</v>
@@ -6774,10 +6774,10 @@
         <v>init1fq6gzzumqkfy0guypydsu235hpjt2wkqlmyqpf</v>
       </c>
       <c r="D285" t="str">
-        <v>9.649069</v>
-      </c>
-      <c r="E285" t="str">
-        <v>58.251307</v>
+        <v>9</v>
+      </c>
+      <c r="E285" t="b">
+        <v>1</v>
       </c>
       <c r="F285" t="str">
         <v>init1fq6gzzumqkfy0guypydsu235hpjt2wkqlmyqpf</v>
@@ -6797,10 +6797,10 @@
         <v>init1gth939ynns6qjvffejaae4um3vy36cum0rmmqa</v>
       </c>
       <c r="D286" t="str">
-        <v>9.794095</v>
-      </c>
-      <c r="E286" t="str">
-        <v>61.181756</v>
+        <v>5</v>
+      </c>
+      <c r="E286" t="b">
+        <v>1</v>
       </c>
       <c r="F286" t="str">
         <v>init1gth939ynns6qjvffejaae4um3vy36cum0rmmqa</v>
@@ -6820,10 +6820,10 @@
         <v>init1hp2tv06geg5qfhe7ungmjwe9d6e6796wrkg2us</v>
       </c>
       <c r="D287" t="str">
-        <v>9.694897</v>
-      </c>
-      <c r="E287" t="str">
-        <v>60.142848</v>
+        <v>9</v>
+      </c>
+      <c r="E287" t="b">
+        <v>1</v>
       </c>
       <c r="F287" t="str">
         <v>init1hp2tv06geg5qfhe7ungmjwe9d6e6796wrkg2us</v>
@@ -6843,10 +6843,10 @@
         <v>init1nhk2hldzevfq4t5xlhgm6x57827umym0a5jvcc</v>
       </c>
       <c r="D288" t="str">
-        <v>9.649402</v>
-      </c>
-      <c r="E288" t="str">
-        <v>56.665053</v>
+        <v>9</v>
+      </c>
+      <c r="E288" t="b">
+        <v>1</v>
       </c>
       <c r="F288" t="str">
         <v>init1nhk2hldzevfq4t5xlhgm6x57827umym0a5jvcc</v>
@@ -6866,10 +6866,10 @@
         <v>init1ruuufmfuwv2xscaflqtdyuerplhamrfwyh8gff</v>
       </c>
       <c r="D289" t="str">
-        <v>9.575878</v>
-      </c>
-      <c r="E289" t="str">
-        <v>37.210841</v>
+        <v>11</v>
+      </c>
+      <c r="E289" t="b">
+        <v>1</v>
       </c>
       <c r="F289" t="str">
         <v>init1ruuufmfuwv2xscaflqtdyuerplhamrfwyh8gff</v>
@@ -6889,10 +6889,10 @@
         <v>init17d575t29w972egghmzfa7g3c9zvuuv6f9gx32t</v>
       </c>
       <c r="D290" t="str">
-        <v>9.944290</v>
-      </c>
-      <c r="E290" t="str">
-        <v>67.283729</v>
+        <v>7</v>
+      </c>
+      <c r="E290" t="b">
+        <v>1</v>
       </c>
       <c r="F290" t="str">
         <v>init17d575t29w972egghmzfa7g3c9zvuuv6f9gx32t</v>
@@ -6912,10 +6912,10 @@
         <v>init1w96jwzl5zsylrjf4nkhpflds9cndftq2fvu8t5</v>
       </c>
       <c r="D291" t="str">
-        <v>9.753303</v>
-      </c>
-      <c r="E291" t="str">
-        <v>55.966714</v>
+        <v>5</v>
+      </c>
+      <c r="E291" t="b">
+        <v>1</v>
       </c>
       <c r="F291" t="str">
         <v>init1w96jwzl5zsylrjf4nkhpflds9cndftq2fvu8t5</v>
@@ -6935,10 +6935,10 @@
         <v>init1g2a6dr5ndj6tscw3zx94zr52krnlcz5rhf6skc</v>
       </c>
       <c r="D292" t="str">
-        <v>9.604696</v>
-      </c>
-      <c r="E292" t="str">
-        <v>68.248011</v>
+        <v>9</v>
+      </c>
+      <c r="E292" t="b">
+        <v>1</v>
       </c>
       <c r="F292" t="str">
         <v>init1g2a6dr5ndj6tscw3zx94zr52krnlcz5rhf6skc</v>
@@ -6958,10 +6958,10 @@
         <v>init1fs7h4rf3etw9nc56yana5xhjulchqfknaw5jkq</v>
       </c>
       <c r="D293" t="str">
-        <v>9.767023</v>
-      </c>
-      <c r="E293" t="str">
-        <v>60.204266</v>
+        <v>5</v>
+      </c>
+      <c r="E293" t="b">
+        <v>1</v>
       </c>
       <c r="F293" t="str">
         <v>init1fs7h4rf3etw9nc56yana5xhjulchqfknaw5jkq</v>
@@ -6981,10 +6981,10 @@
         <v>init1rfu6yktemhp6n4dwhr4rnkmp3q2fgmt7gpt3en</v>
       </c>
       <c r="D294" t="str">
-        <v>9.555562</v>
-      </c>
-      <c r="E294" t="str">
-        <v>59.044586</v>
+        <v>7</v>
+      </c>
+      <c r="E294" t="b">
+        <v>1</v>
       </c>
       <c r="F294" t="str">
         <v>init1rfu6yktemhp6n4dwhr4rnkmp3q2fgmt7gpt3en</v>
@@ -7004,10 +7004,10 @@
         <v>init1nze5909emfhzjej572rhx570s9var4u7n23qgr</v>
       </c>
       <c r="D295" t="str">
-        <v>9.671431</v>
-      </c>
-      <c r="E295" t="str">
-        <v>47.044357</v>
+        <v>9</v>
+      </c>
+      <c r="E295" t="b">
+        <v>1</v>
       </c>
       <c r="F295" t="str">
         <v>init1nze5909emfhzjej572rhx570s9var4u7n23qgr</v>
@@ -7027,10 +7027,10 @@
         <v>init1hx4cfzeqp32fa3ukjthkam26rey62tgvmgapj8</v>
       </c>
       <c r="D296" t="str">
-        <v>9.727821</v>
-      </c>
-      <c r="E296" t="str">
-        <v>56.965903</v>
+        <v>11</v>
+      </c>
+      <c r="E296" t="b">
+        <v>1</v>
       </c>
       <c r="F296" t="str">
         <v>init1hx4cfzeqp32fa3ukjthkam26rey62tgvmgapj8</v>
@@ -7050,10 +7050,10 @@
         <v>init1kkvkcwr8k64mcwynzu4ssdg9yyp98xzcud2k0s</v>
       </c>
       <c r="D297" t="str">
-        <v>9.579448</v>
-      </c>
-      <c r="E297" t="str">
-        <v>44.044067</v>
+        <v>5</v>
+      </c>
+      <c r="E297" t="b">
+        <v>1</v>
       </c>
       <c r="F297" t="str">
         <v>init1kkvkcwr8k64mcwynzu4ssdg9yyp98xzcud2k0s</v>
@@ -7073,10 +7073,10 @@
         <v>init1ksntslwtm0xp58lz48kpvjamkf7ts7c3l583ur</v>
       </c>
       <c r="D298" t="str">
-        <v>9.699504</v>
-      </c>
-      <c r="E298" t="str">
-        <v>53.149634</v>
+        <v>9</v>
+      </c>
+      <c r="E298" t="b">
+        <v>1</v>
       </c>
       <c r="F298" t="str">
         <v>init1ksntslwtm0xp58lz48kpvjamkf7ts7c3l583ur</v>
@@ -7096,7 +7096,7 @@
         <v>init1wup7du52jcazmypumzh25d4rn27pm9pk4ys5j4</v>
       </c>
       <c r="D299" t="str">
-        <v>9.957139</v>
+        <v>0</v>
       </c>
       <c r="E299" t="str">
         <v>45.758095</v>
@@ -7119,10 +7119,10 @@
         <v>init1hdk39uaapms4dm9ufmk8wder6h520ufl7s69cf</v>
       </c>
       <c r="D300" t="str">
-        <v>9.727454</v>
-      </c>
-      <c r="E300" t="str">
-        <v>55.044376</v>
+        <v>7</v>
+      </c>
+      <c r="E300" t="b">
+        <v>1</v>
       </c>
       <c r="F300" t="str">
         <v>init1hdk39uaapms4dm9ufmk8wder6h520ufl7s69cf</v>
@@ -7142,10 +7142,10 @@
         <v>init1rnhjsvm6ukqvy859ehwr9fq6jvp90upcf6tn0g</v>
       </c>
       <c r="D301" t="str">
-        <v>9.495868</v>
-      </c>
-      <c r="E301" t="str">
-        <v>48.044120</v>
+        <v>7</v>
+      </c>
+      <c r="E301" t="b">
+        <v>1</v>
       </c>
       <c r="F301" t="str">
         <v>init1rnhjsvm6ukqvy859ehwr9fq6jvp90upcf6tn0g</v>
@@ -7165,10 +7165,10 @@
         <v>init1safuel8y5z0qznx3ftx8pl5ky7rdl0cl8aurf0</v>
       </c>
       <c r="D302" t="str">
-        <v>9.612811</v>
-      </c>
-      <c r="E302" t="str">
-        <v>54.044057</v>
+        <v>9</v>
+      </c>
+      <c r="E302" t="b">
+        <v>1</v>
       </c>
       <c r="F302" t="str">
         <v>init1safuel8y5z0qznx3ftx8pl5ky7rdl0cl8aurf0</v>
@@ -7188,10 +7188,10 @@
         <v>init10v2kmrgdhav4ltxthgqryy7la0kvkxwz73xe7z</v>
       </c>
       <c r="D303" t="str">
-        <v>9.751644</v>
-      </c>
-      <c r="E303" t="str">
-        <v>55.087764</v>
+        <v>7</v>
+      </c>
+      <c r="E303" t="b">
+        <v>1</v>
       </c>
       <c r="F303" t="str">
         <v>init10v2kmrgdhav4ltxthgqryy7la0kvkxwz73xe7z</v>
@@ -7211,10 +7211,10 @@
         <v>init1undygnt7r09mnn2xemp9dhus2mdnetvhalyv5v</v>
       </c>
       <c r="D304" t="str">
-        <v>9.705571</v>
-      </c>
-      <c r="E304" t="str">
-        <v>55.049006</v>
+        <v>5</v>
+      </c>
+      <c r="E304" t="b">
+        <v>1</v>
       </c>
       <c r="F304" t="str">
         <v>init1undygnt7r09mnn2xemp9dhus2mdnetvhalyv5v</v>
@@ -7234,10 +7234,10 @@
         <v>init1cttez0cjvumn8xagttfcar3sm693upzmq9eq72</v>
       </c>
       <c r="D305" t="str">
-        <v>9.254549</v>
-      </c>
-      <c r="E305" t="str">
-        <v>50.044483</v>
+        <v>9</v>
+      </c>
+      <c r="E305" t="b">
+        <v>1</v>
       </c>
       <c r="F305" t="str">
         <v>init1cttez0cjvumn8xagttfcar3sm693upzmq9eq72</v>
@@ -7257,10 +7257,10 @@
         <v>init1hwrqn5uvd8y99w5m8v29u0kuvdm8uer32px9zq</v>
       </c>
       <c r="D306" t="str">
-        <v>29.506041</v>
-      </c>
-      <c r="E306" t="str">
-        <v>100.099822</v>
+        <v>9</v>
+      </c>
+      <c r="E306" t="b">
+        <v>1</v>
       </c>
       <c r="F306" t="str">
         <v>init1hwrqn5uvd8y99w5m8v29u0kuvdm8uer32px9zq</v>
@@ -7280,10 +7280,10 @@
         <v>init1s9ff3a6f9whs6uvupc7a7g35sg8nsk5798spva</v>
       </c>
       <c r="D307" t="str">
-        <v>19.600614</v>
-      </c>
-      <c r="E307" t="str">
-        <v>81.109889</v>
+        <v>7</v>
+      </c>
+      <c r="E307" t="b">
+        <v>1</v>
       </c>
       <c r="F307" t="str">
         <v>init1s9ff3a6f9whs6uvupc7a7g35sg8nsk5798spva</v>
@@ -7303,10 +7303,10 @@
         <v>init13dhtpuu9hqn9vva0rzgsmnk44jc0f9z6q4rfx7</v>
       </c>
       <c r="D308" t="str">
-        <v>19.721758</v>
-      </c>
-      <c r="E308" t="str">
-        <v>80.265686</v>
+        <v>7</v>
+      </c>
+      <c r="E308" t="b">
+        <v>1</v>
       </c>
       <c r="F308" t="str">
         <v>init13dhtpuu9hqn9vva0rzgsmnk44jc0f9z6q4rfx7</v>
@@ -7326,10 +7326,10 @@
         <v>init1629mzzdz9hxdgn59rhqnr8m2yvvusa2px5tyzz</v>
       </c>
       <c r="D309" t="str">
-        <v>9.614536</v>
-      </c>
-      <c r="E309" t="str">
-        <v>45.150344</v>
+        <v>9</v>
+      </c>
+      <c r="E309" t="b">
+        <v>1</v>
       </c>
       <c r="F309" t="str">
         <v>init1629mzzdz9hxdgn59rhqnr8m2yvvusa2px5tyzz</v>
@@ -7349,10 +7349,10 @@
         <v>init16fzre0kejjk70t8engucvyln3hyn6226rwm029</v>
       </c>
       <c r="D310" t="str">
-        <v>9.667837</v>
-      </c>
-      <c r="E310" t="str">
-        <v>57.087567</v>
+        <v>9</v>
+      </c>
+      <c r="E310" t="b">
+        <v>1</v>
       </c>
       <c r="F310" t="str">
         <v>init16fzre0kejjk70t8engucvyln3hyn6226rwm029</v>
@@ -7372,10 +7372,10 @@
         <v>init1u575k3h0w3e8ff2jtxj02p82xk85z0wnz70676</v>
       </c>
       <c r="D311" t="str">
-        <v>0.072834</v>
-      </c>
-      <c r="E311" t="str">
-        <v>26.159138</v>
+        <v>5</v>
+      </c>
+      <c r="E311" t="b">
+        <v>1</v>
       </c>
       <c r="F311" t="str">
         <v>init1u575k3h0w3e8ff2jtxj02p82xk85z0wnz70676</v>
@@ -7395,10 +7395,10 @@
         <v>init1k2cakkkr0tehhf3yzkdrgdu6q9n43pzgjg56gq</v>
       </c>
       <c r="D312" t="str">
-        <v>19.560782</v>
-      </c>
-      <c r="E312" t="str">
-        <v>71.307419</v>
+        <v>13</v>
+      </c>
+      <c r="E312" t="b">
+        <v>1</v>
       </c>
       <c r="F312" t="str">
         <v>init1k2cakkkr0tehhf3yzkdrgdu6q9n43pzgjg56gq</v>
@@ -7418,10 +7418,10 @@
         <v>init1ycd2lyny99uakgxv9kx53yk8dqr7hear7yhjz5</v>
       </c>
       <c r="D313" t="str">
-        <v>9.548669</v>
-      </c>
-      <c r="E313" t="str">
-        <v>51.109862</v>
+        <v>11</v>
+      </c>
+      <c r="E313" t="b">
+        <v>1</v>
       </c>
       <c r="F313" t="str">
         <v>init1ycd2lyny99uakgxv9kx53yk8dqr7hear7yhjz5</v>
@@ -7441,7 +7441,7 @@
         <v>init1nul8qw5zd4ssfgf0l6x84f0j5vvpkl27s5wgsq</v>
       </c>
       <c r="D314" t="str">
-        <v>9.606776</v>
+        <v>10</v>
       </c>
       <c r="E314" t="str">
         <v>46.017102</v>
@@ -7464,10 +7464,10 @@
         <v>init1e9vtj0sskh54dqc3hjpp2jylytwvftlt3a6t76</v>
       </c>
       <c r="D315" t="str">
-        <v>9.372914</v>
-      </c>
-      <c r="E315" t="str">
-        <v>57.107180</v>
+        <v>9</v>
+      </c>
+      <c r="E315" t="b">
+        <v>1</v>
       </c>
       <c r="F315" t="str">
         <v>init1e9vtj0sskh54dqc3hjpp2jylytwvftlt3a6t76</v>
@@ -7487,10 +7487,10 @@
         <v>init1h0d9n0rxvkeggwfmdyuace253am44fce7fyan4</v>
       </c>
       <c r="D316" t="str">
-        <v>9.625326</v>
-      </c>
-      <c r="E316" t="str">
-        <v>50.109878</v>
+        <v>4</v>
+      </c>
+      <c r="E316" t="b">
+        <v>1</v>
       </c>
       <c r="F316" t="str">
         <v>init1h0d9n0rxvkeggwfmdyuace253am44fce7fyan4</v>
@@ -7510,10 +7510,10 @@
         <v>init1zajdmwjnj3u5ptm5g7un365r6e887w5et0zrca</v>
       </c>
       <c r="D317" t="str">
-        <v>9.615472</v>
-      </c>
-      <c r="E317" t="str">
-        <v>50.183132</v>
+        <v>5</v>
+      </c>
+      <c r="E317" t="b">
+        <v>1</v>
       </c>
       <c r="F317" t="str">
         <v>init1zajdmwjnj3u5ptm5g7un365r6e887w5et0zrca</v>
@@ -7533,10 +7533,10 @@
         <v>init1q37lv69qkm0vnef2tfsnd4s9zl6rgc0kmygw83</v>
       </c>
       <c r="D318" t="str">
-        <v>9.467184</v>
-      </c>
-      <c r="E318" t="str">
-        <v>54.200031</v>
+        <v>7</v>
+      </c>
+      <c r="E318" t="b">
+        <v>1</v>
       </c>
       <c r="F318" t="str">
         <v>init1q37lv69qkm0vnef2tfsnd4s9zl6rgc0kmygw83</v>
@@ -7556,10 +7556,10 @@
         <v>init1xmq3nvxdrmyalphv0a8kp4cpzgafnjm2m55ax2</v>
       </c>
       <c r="D319" t="str">
-        <v>9.616015</v>
-      </c>
-      <c r="E319" t="str">
-        <v>50.051726</v>
+        <v>7</v>
+      </c>
+      <c r="E319" t="b">
+        <v>1</v>
       </c>
       <c r="F319" t="str">
         <v>init1xmq3nvxdrmyalphv0a8kp4cpzgafnjm2m55ax2</v>
@@ -7579,10 +7579,10 @@
         <v>init1n5538dq8yr963sp76u8lg5p5zaqv6yqfsm3gr3</v>
       </c>
       <c r="D320" t="str">
-        <v>19.662246</v>
-      </c>
-      <c r="E320" t="str">
-        <v>82.982116</v>
+        <v>5</v>
+      </c>
+      <c r="E320" t="b">
+        <v>1</v>
       </c>
       <c r="F320" t="str">
         <v>init1n5538dq8yr963sp76u8lg5p5zaqv6yqfsm3gr3</v>
@@ -7602,10 +7602,10 @@
         <v>init1nddcm6zua7r84cqhl09w6u3vwp37ffz43vypcp</v>
       </c>
       <c r="D321" t="str">
-        <v>19.770415</v>
-      </c>
-      <c r="E321" t="str">
-        <v>74.109886</v>
+        <v>11</v>
+      </c>
+      <c r="E321" t="b">
+        <v>1</v>
       </c>
       <c r="F321" t="str">
         <v>init1nddcm6zua7r84cqhl09w6u3vwp37ffz43vypcp</v>
@@ -7625,10 +7625,10 @@
         <v>init1sxz4txaj6xgsds63eyhmch5grf8rrlv2vxs3j5</v>
       </c>
       <c r="D322" t="str">
-        <v>19.623885</v>
-      </c>
-      <c r="E322" t="str">
-        <v>72.109853</v>
+        <v>5</v>
+      </c>
+      <c r="E322" t="b">
+        <v>1</v>
       </c>
       <c r="F322" t="str">
         <v>init1sxz4txaj6xgsds63eyhmch5grf8rrlv2vxs3j5</v>
@@ -7648,10 +7648,10 @@
         <v>init13vef5x95esxd5p8gwknp2yh8a7rdxp74ax29u6</v>
       </c>
       <c r="D323" t="str">
-        <v>19.658353</v>
-      </c>
-      <c r="E323" t="str">
-        <v>93.358895</v>
+        <v>7</v>
+      </c>
+      <c r="E323" t="b">
+        <v>1</v>
       </c>
       <c r="F323" t="str">
         <v>init13vef5x95esxd5p8gwknp2yh8a7rdxp74ax29u6</v>
@@ -7671,10 +7671,10 @@
         <v>init1wm4vwmc88f6pgez683yl72anytgunh7w62hfqh</v>
       </c>
       <c r="D324" t="str">
-        <v>29.717269</v>
-      </c>
-      <c r="E324" t="str">
-        <v>104.632237</v>
+        <v>7</v>
+      </c>
+      <c r="E324" t="b">
+        <v>1</v>
       </c>
       <c r="F324" t="str">
         <v>init1wm4vwmc88f6pgez683yl72anytgunh7w62hfqh</v>
@@ -7694,10 +7694,10 @@
         <v>init1eqee3ksvtrslr5cvy48w4eht8mfrkfyquqjrgv</v>
       </c>
       <c r="D325" t="str">
-        <v>9.721576</v>
-      </c>
-      <c r="E325" t="str">
-        <v>76.196975</v>
+        <v>11</v>
+      </c>
+      <c r="E325" t="b">
+        <v>1</v>
       </c>
       <c r="F325" t="str">
         <v>init1eqee3ksvtrslr5cvy48w4eht8mfrkfyquqjrgv</v>
@@ -7717,7 +7717,7 @@
         <v>init1f7yrgs9klz4kwwnyuhdrr85zzdk34maq4s83mt</v>
       </c>
       <c r="D326" t="str">
-        <v>0.570059</v>
+        <v>0</v>
       </c>
       <c r="E326" t="str">
         <v>46.311104</v>
@@ -7740,10 +7740,10 @@
         <v>init1a8qya4cqk5uu5unrzjvh6x3na9jye06gwen9jq</v>
       </c>
       <c r="D327" t="str">
-        <v>19.506827</v>
-      </c>
-      <c r="E327" t="str">
-        <v>97.459854</v>
+        <v>7</v>
+      </c>
+      <c r="E327" t="b">
+        <v>1</v>
       </c>
       <c r="F327" t="str">
         <v>init1a8qya4cqk5uu5unrzjvh6x3na9jye06gwen9jq</v>
@@ -7763,10 +7763,10 @@
         <v>init1d7mhrc5gzg82sc4sw50rp9mcsu9gm30naepa2s</v>
       </c>
       <c r="D328" t="str">
-        <v>9.514769</v>
-      </c>
-      <c r="E328" t="str">
-        <v>63.809824</v>
+        <v>11</v>
+      </c>
+      <c r="E328" t="b">
+        <v>1</v>
       </c>
       <c r="F328" t="str">
         <v>init1d7mhrc5gzg82sc4sw50rp9mcsu9gm30naepa2s</v>
@@ -7786,10 +7786,10 @@
         <v>init1aqe67d32hzm79m66qpfpazxagstptkphq0hk2t</v>
       </c>
       <c r="D329" t="str">
-        <v>19.272808</v>
-      </c>
-      <c r="E329" t="str">
-        <v>96.769877</v>
+        <v>9</v>
+      </c>
+      <c r="E329" t="b">
+        <v>1</v>
       </c>
       <c r="F329" t="str">
         <v>init1aqe67d32hzm79m66qpfpazxagstptkphq0hk2t</v>
@@ -7809,10 +7809,10 @@
         <v>init1ld820p2xzd4x7ctfmpam6xau90g4a0xpwv5hz0</v>
       </c>
       <c r="D330" t="str">
-        <v>19.573834</v>
-      </c>
-      <c r="E330" t="str">
-        <v>97.009830</v>
+        <v>11</v>
+      </c>
+      <c r="E330" t="b">
+        <v>1</v>
       </c>
       <c r="F330" t="str">
         <v>init1ld820p2xzd4x7ctfmpam6xau90g4a0xpwv5hz0</v>
@@ -7832,10 +7832,10 @@
         <v>init1w7m84gn48qztw5ahyrkrd0pmkk6y6fnmmvzgr3</v>
       </c>
       <c r="D331" t="str">
-        <v>9.698843</v>
-      </c>
-      <c r="E331" t="str">
-        <v>64.270920</v>
+        <v>9</v>
+      </c>
+      <c r="E331" t="b">
+        <v>1</v>
       </c>
       <c r="F331" t="str">
         <v>init1w7m84gn48qztw5ahyrkrd0pmkk6y6fnmmvzgr3</v>
@@ -7855,10 +7855,10 @@
         <v>init1c2hgksmx2vsj7t9aacr9pes0cxp7zyvqgsmprt</v>
       </c>
       <c r="D332" t="str">
-        <v>9.707981</v>
-      </c>
-      <c r="E332" t="str">
-        <v>61.273631</v>
+        <v>9</v>
+      </c>
+      <c r="E332" t="b">
+        <v>1</v>
       </c>
       <c r="F332" t="str">
         <v>init1c2hgksmx2vsj7t9aacr9pes0cxp7zyvqgsmprt</v>
@@ -7878,10 +7878,10 @@
         <v>init10y9l99vyn8587x0hd09twhjmd0jpjnpvwkquvr</v>
       </c>
       <c r="D333" t="str">
-        <v>9.769988</v>
-      </c>
-      <c r="E333" t="str">
-        <v>63.213265</v>
+        <v>7</v>
+      </c>
+      <c r="E333" t="b">
+        <v>1</v>
       </c>
       <c r="F333" t="str">
         <v>init10y9l99vyn8587x0hd09twhjmd0jpjnpvwkquvr</v>
@@ -7901,10 +7901,10 @@
         <v>init1thkz2fp4y59crpd42u3elzvdpk3fzv5dwmynyg</v>
       </c>
       <c r="D334" t="str">
-        <v>9.878458</v>
-      </c>
-      <c r="E334" t="str">
-        <v>66.589330</v>
+        <v>11</v>
+      </c>
+      <c r="E334" t="b">
+        <v>1</v>
       </c>
       <c r="F334" t="str">
         <v>init1thkz2fp4y59crpd42u3elzvdpk3fzv5dwmynyg</v>
@@ -7924,10 +7924,10 @@
         <v>init1uv0ywvr7guef8wgr88wngx2drp374wgnesj0c5</v>
       </c>
       <c r="D335" t="str">
-        <v>9.929354</v>
-      </c>
-      <c r="E335" t="str">
-        <v>65.663949</v>
+        <v>7</v>
+      </c>
+      <c r="E335" t="b">
+        <v>1</v>
       </c>
       <c r="F335" t="str">
         <v>init1uv0ywvr7guef8wgr88wngx2drp374wgnesj0c5</v>
@@ -7947,10 +7947,10 @@
         <v>init1pruv77umaeh95qhd58tyvunklv004pwuz5e5nh</v>
       </c>
       <c r="D336" t="str">
-        <v>9.757749</v>
-      </c>
-      <c r="E336" t="str">
-        <v>62.770975</v>
+        <v>7</v>
+      </c>
+      <c r="E336" t="b">
+        <v>1</v>
       </c>
       <c r="F336" t="str">
         <v>init1pruv77umaeh95qhd58tyvunklv004pwuz5e5nh</v>
@@ -7970,10 +7970,10 @@
         <v>init175ykta5mptemfky9jvuj58s457ywds254sn597</v>
       </c>
       <c r="D337" t="str">
-        <v>9.753255</v>
-      </c>
-      <c r="E337" t="str">
-        <v>61.816558</v>
+        <v>13</v>
+      </c>
+      <c r="E337" t="b">
+        <v>1</v>
       </c>
       <c r="F337" t="str">
         <v>init175ykta5mptemfky9jvuj58s457ywds254sn597</v>
@@ -7993,10 +7993,10 @@
         <v>init1rmamhpn8yxzr46s3avph7pg5xye5hga8hvywez</v>
       </c>
       <c r="D338" t="str">
-        <v>19.619999</v>
-      </c>
-      <c r="E338" t="str">
-        <v>94.509922</v>
+        <v>5</v>
+      </c>
+      <c r="E338" t="b">
+        <v>1</v>
       </c>
       <c r="F338" t="str">
         <v>init1rmamhpn8yxzr46s3avph7pg5xye5hga8hvywez</v>
@@ -8016,10 +8016,10 @@
         <v>init1fm605pmrsw5k3thyvshux6pnlrndhk7uc734t6</v>
       </c>
       <c r="D339" t="str">
-        <v>9.718708</v>
-      </c>
-      <c r="E339" t="str">
-        <v>61.409857</v>
+        <v>7</v>
+      </c>
+      <c r="E339" t="b">
+        <v>1</v>
       </c>
       <c r="F339" t="str">
         <v>init1fm605pmrsw5k3thyvshux6pnlrndhk7uc734t6</v>
@@ -8039,10 +8039,10 @@
         <v>init1627cacatxlq3j6zflnvc4xv5ucnxk7ksnqy7q8</v>
       </c>
       <c r="D340" t="str">
-        <v>9.826441</v>
-      </c>
-      <c r="E340" t="str">
-        <v>60.609845</v>
+        <v>11</v>
+      </c>
+      <c r="E340" t="b">
+        <v>1</v>
       </c>
       <c r="F340" t="str">
         <v>init1627cacatxlq3j6zflnvc4xv5ucnxk7ksnqy7q8</v>
@@ -8062,10 +8062,10 @@
         <v>init1e2qsk4uqtsfrazsc44usmdznp8ctnd4glt73ts</v>
       </c>
       <c r="D341" t="str">
-        <v>9.770644</v>
-      </c>
-      <c r="E341" t="str">
-        <v>62.064544</v>
+        <v>11</v>
+      </c>
+      <c r="E341" t="b">
+        <v>1</v>
       </c>
       <c r="F341" t="str">
         <v>init1e2qsk4uqtsfrazsc44usmdznp8ctnd4glt73ts</v>
@@ -8085,10 +8085,10 @@
         <v>init1kd2mh00p4c22p8en5502rrmefruffajt6n42w3</v>
       </c>
       <c r="D342" t="str">
-        <v>9.767809</v>
-      </c>
-      <c r="E342" t="str">
-        <v>62.076774</v>
+        <v>9</v>
+      </c>
+      <c r="E342" t="b">
+        <v>1</v>
       </c>
       <c r="F342" t="str">
         <v>init1kd2mh00p4c22p8en5502rrmefruffajt6n42w3</v>
@@ -8108,10 +8108,10 @@
         <v>init1nn7p55j926dysm4lghrq7muwygvcrluaaxyn8l</v>
       </c>
       <c r="D343" t="str">
-        <v>9.700511</v>
-      </c>
-      <c r="E343" t="str">
-        <v>65.451954</v>
+        <v>5</v>
+      </c>
+      <c r="E343" t="b">
+        <v>1</v>
       </c>
       <c r="F343" t="str">
         <v>init1nn7p55j926dysm4lghrq7muwygvcrluaaxyn8l</v>
@@ -8131,10 +8131,10 @@
         <v>init16kh7h805su2zflskhq2sh22c0vh9x0u49qsvt7</v>
       </c>
       <c r="D344" t="str">
-        <v>9.607157</v>
-      </c>
-      <c r="E344" t="str">
-        <v>61.672446</v>
+        <v>6</v>
+      </c>
+      <c r="E344" t="b">
+        <v>1</v>
       </c>
       <c r="F344" t="str">
         <v>init16kh7h805su2zflskhq2sh22c0vh9x0u49qsvt7</v>
@@ -8154,10 +8154,10 @@
         <v>init1culw5nvuhvkcgcns4258ehu8q27savcrdzrca0</v>
       </c>
       <c r="D345" t="str">
-        <v>9.794141</v>
-      </c>
-      <c r="E345" t="str">
-        <v>65.933106</v>
+        <v>7</v>
+      </c>
+      <c r="E345" t="b">
+        <v>1</v>
       </c>
       <c r="F345" t="str">
         <v>init1culw5nvuhvkcgcns4258ehu8q27savcrdzrca0</v>
@@ -8177,10 +8177,10 @@
         <v>init1ay75g5ul8c2fscpvnwzqxk4z0utx90ecdq69am</v>
       </c>
       <c r="D346" t="str">
-        <v>9.609620</v>
-      </c>
-      <c r="E346" t="str">
-        <v>62.871984</v>
+        <v>11</v>
+      </c>
+      <c r="E346" t="b">
+        <v>1</v>
       </c>
       <c r="F346" t="str">
         <v>init1ay75g5ul8c2fscpvnwzqxk4z0utx90ecdq69am</v>
@@ -8200,10 +8200,10 @@
         <v>init1fs8xegj9gj9ajlp630c5sms86hsxg9xy35c7al</v>
       </c>
       <c r="D347" t="str">
-        <v>9.908976</v>
-      </c>
-      <c r="E347" t="str">
-        <v>65.809844</v>
+        <v>9</v>
+      </c>
+      <c r="E347" t="b">
+        <v>1</v>
       </c>
       <c r="F347" t="str">
         <v>init1fs8xegj9gj9ajlp630c5sms86hsxg9xy35c7al</v>
@@ -8223,10 +8223,10 @@
         <v>init1kawwpgqc9pfhqga4d9j3cmlk388fd5w38lw06y</v>
       </c>
       <c r="D348" t="str">
-        <v>9.627088</v>
-      </c>
-      <c r="E348" t="str">
-        <v>63.600056</v>
+        <v>7</v>
+      </c>
+      <c r="E348" t="b">
+        <v>1</v>
       </c>
       <c r="F348" t="str">
         <v>init1kawwpgqc9pfhqga4d9j3cmlk388fd5w38lw06y</v>
@@ -8246,10 +8246,10 @@
         <v>init1nlt9mraffv6hgclaff7ypvua73q4s6nkacw6jt</v>
       </c>
       <c r="D349" t="str">
-        <v>9.630629</v>
-      </c>
-      <c r="E349" t="str">
-        <v>65.548003</v>
+        <v>7</v>
+      </c>
+      <c r="E349" t="b">
+        <v>1</v>
       </c>
       <c r="F349" t="str">
         <v>init1nlt9mraffv6hgclaff7ypvua73q4s6nkacw6jt</v>
@@ -8269,10 +8269,10 @@
         <v>init1n9mcae8mlghat6r3edh28ayt0kn7mpldg0xc2l</v>
       </c>
       <c r="D350" t="str">
-        <v>9.747953</v>
-      </c>
-      <c r="E350" t="str">
-        <v>67.409880</v>
+        <v>7</v>
+      </c>
+      <c r="E350" t="b">
+        <v>1</v>
       </c>
       <c r="F350" t="str">
         <v>init1n9mcae8mlghat6r3edh28ayt0kn7mpldg0xc2l</v>
@@ -8292,10 +8292,10 @@
         <v>init1s6hyesdezrsvhjnygrmt60ty4ske93x8ctuy0g</v>
       </c>
       <c r="D351" t="str">
-        <v>9.516214</v>
-      </c>
-      <c r="E351" t="str">
-        <v>62.070259</v>
+        <v>11</v>
+      </c>
+      <c r="E351" t="b">
+        <v>1</v>
       </c>
       <c r="F351" t="str">
         <v>init1s6hyesdezrsvhjnygrmt60ty4ske93x8ctuy0g</v>
@@ -8315,10 +8315,10 @@
         <v>init1zjrvh6m0n5xf5ec6ft6vuc6fjt2wtzczhdr4jq</v>
       </c>
       <c r="D352" t="str">
-        <v>9.599076</v>
-      </c>
-      <c r="E352" t="str">
-        <v>66.409914</v>
+        <v>9</v>
+      </c>
+      <c r="E352" t="b">
+        <v>1</v>
       </c>
       <c r="F352" t="str">
         <v>init1zjrvh6m0n5xf5ec6ft6vuc6fjt2wtzczhdr4jq</v>
@@ -8338,10 +8338,10 @@
         <v>init1lfppvgqtcea66rd3u9a2xp9ucryau4yus9nvex</v>
       </c>
       <c r="D353" t="str">
-        <v>9.759811</v>
-      </c>
-      <c r="E353" t="str">
-        <v>65.603286</v>
+        <v>7</v>
+      </c>
+      <c r="E353" t="b">
+        <v>1</v>
       </c>
       <c r="F353" t="str">
         <v>init1lfppvgqtcea66rd3u9a2xp9ucryau4yus9nvex</v>
@@ -8361,10 +8361,10 @@
         <v>init1rexsxwcun4nl8fpls8yk7ncmmfrl5davne73ty</v>
       </c>
       <c r="D354" t="str">
-        <v>9.668189</v>
-      </c>
-      <c r="E354" t="str">
-        <v>64.209879</v>
+        <v>11</v>
+      </c>
+      <c r="E354" t="b">
+        <v>1</v>
       </c>
       <c r="F354" t="str">
         <v>init1rexsxwcun4nl8fpls8yk7ncmmfrl5davne73ty</v>
@@ -8384,10 +8384,10 @@
         <v>init15kkza4jqwvqgwxtfg5zndjxz3rhj40xsmfdxdp</v>
       </c>
       <c r="D355" t="str">
-        <v>9.744386</v>
-      </c>
-      <c r="E355" t="str">
-        <v>65.209846</v>
+        <v>11</v>
+      </c>
+      <c r="E355" t="b">
+        <v>1</v>
       </c>
       <c r="F355" t="str">
         <v>init15kkza4jqwvqgwxtfg5zndjxz3rhj40xsmfdxdp</v>
@@ -8407,10 +8407,10 @@
         <v>init1cj5qmq8fcqgmnkkwn3ck4t8zwp2eedlp2klrx8</v>
       </c>
       <c r="D356" t="str">
-        <v>9.639587</v>
-      </c>
-      <c r="E356" t="str">
-        <v>66.630418</v>
+        <v>9</v>
+      </c>
+      <c r="E356" t="b">
+        <v>1</v>
       </c>
       <c r="F356" t="str">
         <v>init1cj5qmq8fcqgmnkkwn3ck4t8zwp2eedlp2klrx8</v>
@@ -8430,10 +8430,10 @@
         <v>init1w4pxg6d4ahkhw394z3yyvud0nws3f4xgvtupf4</v>
       </c>
       <c r="D357" t="str">
-        <v>9.660507</v>
-      </c>
-      <c r="E357" t="str">
-        <v>63.709876</v>
+        <v>8</v>
+      </c>
+      <c r="E357" t="b">
+        <v>1</v>
       </c>
       <c r="F357" t="str">
         <v>init1w4pxg6d4ahkhw394z3yyvud0nws3f4xgvtupf4</v>
@@ -8453,10 +8453,10 @@
         <v>init1lvc20sk3ranlszmk6c4e8kskxgjtger4xzx38j</v>
       </c>
       <c r="D358" t="str">
-        <v>9.791634</v>
-      </c>
-      <c r="E358" t="str">
-        <v>68.572365</v>
+        <v>11</v>
+      </c>
+      <c r="E358" t="b">
+        <v>1</v>
       </c>
       <c r="F358" t="str">
         <v>init1lvc20sk3ranlszmk6c4e8kskxgjtger4xzx38j</v>
@@ -8476,10 +8476,10 @@
         <v>init1vvphc783n604qzlgesuk8h3v6pndwmhqzkdtmr</v>
       </c>
       <c r="D359" t="str">
-        <v>9.585650</v>
-      </c>
-      <c r="E359" t="str">
-        <v>66.509846</v>
+        <v>7</v>
+      </c>
+      <c r="E359" t="b">
+        <v>1</v>
       </c>
       <c r="F359" t="str">
         <v>init1vvphc783n604qzlgesuk8h3v6pndwmhqzkdtmr</v>
@@ -8499,10 +8499,10 @@
         <v>init1l3xnx9ctt5ng6dz76s3dwp93uvwclwykp767qd</v>
       </c>
       <c r="D360" t="str">
-        <v>0.002608</v>
-      </c>
-      <c r="E360" t="str">
-        <v>36.244101</v>
+        <v>5</v>
+      </c>
+      <c r="E360" t="b">
+        <v>1</v>
       </c>
       <c r="F360" t="str">
         <v>init1l3xnx9ctt5ng6dz76s3dwp93uvwclwykp767qd</v>
@@ -8522,10 +8522,10 @@
         <v>init1nfpjyxzjkzt5hyd6quct0nvshfghq4dca2d32s</v>
       </c>
       <c r="D361" t="str">
-        <v>9.601373</v>
-      </c>
-      <c r="E361" t="str">
-        <v>64.159884</v>
+        <v>4</v>
+      </c>
+      <c r="E361" t="b">
+        <v>1</v>
       </c>
       <c r="F361" t="str">
         <v>init1nfpjyxzjkzt5hyd6quct0nvshfghq4dca2d32s</v>
@@ -8545,10 +8545,10 @@
         <v>init17k5u7cag48xfzhlqmhmwz2nxgxemda7pp0ydc7</v>
       </c>
       <c r="D362" t="str">
-        <v>9.616547</v>
-      </c>
-      <c r="E362" t="str">
-        <v>64.622715</v>
+        <v>9</v>
+      </c>
+      <c r="E362" t="b">
+        <v>1</v>
       </c>
       <c r="F362" t="str">
         <v>init17k5u7cag48xfzhlqmhmwz2nxgxemda7pp0ydc7</v>
@@ -8568,10 +8568,10 @@
         <v>init193f65u7mc3nrzcu4wqg5zkgw29kqea6c3tchzm</v>
       </c>
       <c r="D363" t="str">
-        <v>9.558345</v>
-      </c>
-      <c r="E363" t="str">
-        <v>63.009816</v>
+        <v>5</v>
+      </c>
+      <c r="E363" t="b">
+        <v>1</v>
       </c>
       <c r="F363" t="str">
         <v>init193f65u7mc3nrzcu4wqg5zkgw29kqea6c3tchzm</v>
@@ -8591,10 +8591,10 @@
         <v>init1sn4qqf2kysusppjg5tgwfg56w2atey9k0kydtw</v>
       </c>
       <c r="D364" t="str">
-        <v>9.453460</v>
-      </c>
-      <c r="E364" t="str">
-        <v>55.647704</v>
+        <v>7</v>
+      </c>
+      <c r="E364" t="b">
+        <v>1</v>
       </c>
       <c r="F364" t="str">
         <v>init1sn4qqf2kysusppjg5tgwfg56w2atey9k0kydtw</v>
@@ -8614,10 +8614,10 @@
         <v>init1xdwzwcxalszk2ajgc8puuat90gyy9zhswwazmc</v>
       </c>
       <c r="D365" t="str">
-        <v>9.766955</v>
-      </c>
-      <c r="E365" t="str">
-        <v>66.449816</v>
+        <v>9</v>
+      </c>
+      <c r="E365" t="b">
+        <v>1</v>
       </c>
       <c r="F365" t="str">
         <v>init1xdwzwcxalszk2ajgc8puuat90gyy9zhswwazmc</v>
@@ -8637,10 +8637,10 @@
         <v>init14ep09ffsuzctukp9gt7qh4kwpahthpt6je8dgu</v>
       </c>
       <c r="D366" t="str">
-        <v>9.743833</v>
-      </c>
-      <c r="E366" t="str">
-        <v>66.344789</v>
+        <v>7</v>
+      </c>
+      <c r="E366" t="b">
+        <v>1</v>
       </c>
       <c r="F366" t="str">
         <v>init14ep09ffsuzctukp9gt7qh4kwpahthpt6je8dgu</v>
@@ -8660,10 +8660,10 @@
         <v>init129hlmmq43nau4ct3v7ud0dg7utqwz6pqgdkc84</v>
       </c>
       <c r="D367" t="str">
-        <v>0.840185</v>
-      </c>
-      <c r="E367" t="str">
-        <v>10.632667</v>
+        <v>7</v>
+      </c>
+      <c r="E367" t="b">
+        <v>1</v>
       </c>
       <c r="F367" t="str">
         <v>init129hlmmq43nau4ct3v7ud0dg7utqwz6pqgdkc84</v>
@@ -8683,10 +8683,10 @@
         <v>init18v4h4dndm224d2j2jsnmkccwlfs6plsw6emryn</v>
       </c>
       <c r="D368" t="str">
-        <v>19.696436</v>
-      </c>
-      <c r="E368" t="str">
-        <v>92.585731</v>
+        <v>13</v>
+      </c>
+      <c r="E368" t="b">
+        <v>1</v>
       </c>
       <c r="F368" t="str">
         <v>init18v4h4dndm224d2j2jsnmkccwlfs6plsw6emryn</v>
@@ -8706,10 +8706,10 @@
         <v>init1zslaa9rwzdwykwlrrg3fk7gc6jpdygzftzyhc4</v>
       </c>
       <c r="D369" t="str">
-        <v>9.530289</v>
-      </c>
-      <c r="E369" t="str">
-        <v>63.946079</v>
+        <v>6</v>
+      </c>
+      <c r="E369" t="b">
+        <v>1</v>
       </c>
       <c r="F369" t="str">
         <v>init1zslaa9rwzdwykwlrrg3fk7gc6jpdygzftzyhc4</v>
@@ -8729,10 +8729,10 @@
         <v>init1ysrluhdyus5gnfkm2d6836vdup2r89emnd2e76</v>
       </c>
       <c r="D370" t="str">
-        <v>9.797373</v>
-      </c>
-      <c r="E370" t="str">
-        <v>68.709877</v>
+        <v>9</v>
+      </c>
+      <c r="E370" t="b">
+        <v>1</v>
       </c>
       <c r="F370" t="str">
         <v>init1ysrluhdyus5gnfkm2d6836vdup2r89emnd2e76</v>
@@ -8752,10 +8752,10 @@
         <v>init1kqftdmepexrenejrjcxvrcx49vgws8qz22e4l0</v>
       </c>
       <c r="D371" t="str">
-        <v>9.695931</v>
-      </c>
-      <c r="E371" t="str">
-        <v>61.709877</v>
+        <v>13</v>
+      </c>
+      <c r="E371" t="b">
+        <v>1</v>
       </c>
       <c r="F371" t="str">
         <v>init1kqftdmepexrenejrjcxvrcx49vgws8qz22e4l0</v>
@@ -8775,10 +8775,10 @@
         <v>init1339245y9x3h6lw74wmhlyhfdz4kcuaj9ld2leu</v>
       </c>
       <c r="D372" t="str">
-        <v>9.805356</v>
-      </c>
-      <c r="E372" t="str">
-        <v>65.216516</v>
+        <v>7</v>
+      </c>
+      <c r="E372" t="b">
+        <v>1</v>
       </c>
       <c r="F372" t="str">
         <v>init1339245y9x3h6lw74wmhlyhfdz4kcuaj9ld2leu</v>
@@ -8798,10 +8798,10 @@
         <v>init1rdh8kac7rp42tcz7nvmdvdg0mukuqkqh23nnnd</v>
       </c>
       <c r="D373" t="str">
-        <v>9.895175</v>
-      </c>
-      <c r="E373" t="str">
-        <v>64.846454</v>
+        <v>7</v>
+      </c>
+      <c r="E373" t="b">
+        <v>1</v>
       </c>
       <c r="F373" t="str">
         <v>init1rdh8kac7rp42tcz7nvmdvdg0mukuqkqh23nnnd</v>
@@ -8821,10 +8821,10 @@
         <v>init1xcz7v95c7g4hl5mzw7rpd9adnkekc2jxc5k6l3</v>
       </c>
       <c r="D374" t="str">
-        <v>9.903699</v>
-      </c>
-      <c r="E374" t="str">
-        <v>64.144013</v>
+        <v>5</v>
+      </c>
+      <c r="E374" t="b">
+        <v>1</v>
       </c>
       <c r="F374" t="str">
         <v>init1xcz7v95c7g4hl5mzw7rpd9adnkekc2jxc5k6l3</v>
@@ -8844,10 +8844,10 @@
         <v>init1duu4slamqldnynqxkux02wfdw8ud3hesp27dl6</v>
       </c>
       <c r="D375" t="str">
-        <v>9.765203</v>
-      </c>
-      <c r="E375" t="str">
-        <v>62.759857</v>
+        <v>9</v>
+      </c>
+      <c r="E375" t="b">
+        <v>1</v>
       </c>
       <c r="F375" t="str">
         <v>init1duu4slamqldnynqxkux02wfdw8ud3hesp27dl6</v>
@@ -8867,10 +8867,10 @@
         <v>init1x2yuy283wmghc3cuz0c0hmgmwehae2n7cqsx9z</v>
       </c>
       <c r="D376" t="str">
-        <v>9.829916</v>
-      </c>
-      <c r="E376" t="str">
-        <v>69.409867</v>
+        <v>7</v>
+      </c>
+      <c r="E376" t="b">
+        <v>1</v>
       </c>
       <c r="F376" t="str">
         <v>init1x2yuy283wmghc3cuz0c0hmgmwehae2n7cqsx9z</v>
@@ -8890,10 +8890,10 @@
         <v>init18r9nxj5f8sa8pe9nzhpmzl9uzkvcafg626vx4t</v>
       </c>
       <c r="D377" t="str">
-        <v>9.417220</v>
-      </c>
-      <c r="E377" t="str">
-        <v>63.800112</v>
+        <v>9</v>
+      </c>
+      <c r="E377" t="b">
+        <v>1</v>
       </c>
       <c r="F377" t="str">
         <v>init18r9nxj5f8sa8pe9nzhpmzl9uzkvcafg626vx4t</v>
@@ -8913,10 +8913,10 @@
         <v>init1skfr4w3dskkpt43lg8g3ams0s6cr4lqg4dht94</v>
       </c>
       <c r="D378" t="str">
-        <v>9.639285</v>
-      </c>
-      <c r="E378" t="str">
-        <v>65.500009</v>
+        <v>6</v>
+      </c>
+      <c r="E378" t="b">
+        <v>1</v>
       </c>
       <c r="F378" t="str">
         <v>init1skfr4w3dskkpt43lg8g3ams0s6cr4lqg4dht94</v>
@@ -8936,10 +8936,10 @@
         <v>init1qf8e0rds8ust46cmwszdp6tp80wsu0cy45cgaw</v>
       </c>
       <c r="D379" t="str">
-        <v>9.617543</v>
-      </c>
-      <c r="E379" t="str">
-        <v>62.500044</v>
+        <v>4</v>
+      </c>
+      <c r="E379" t="b">
+        <v>1</v>
       </c>
       <c r="F379" t="str">
         <v>init1qf8e0rds8ust46cmwszdp6tp80wsu0cy45cgaw</v>
@@ -8959,10 +8959,10 @@
         <v>init1t0dh2vdf6cfe82wlegtw25sscmyt0cfkhyeus7</v>
       </c>
       <c r="D380" t="str">
-        <v>9.784719</v>
-      </c>
-      <c r="E380" t="str">
-        <v>61.494369</v>
+        <v>7</v>
+      </c>
+      <c r="E380" t="b">
+        <v>1</v>
       </c>
       <c r="F380" t="str">
         <v>init1t0dh2vdf6cfe82wlegtw25sscmyt0cfkhyeus7</v>
@@ -8990,10 +8990,10 @@
         <v>init1848fahl80zjck03zc9z3vml4nxvknxnt0fpr37</v>
       </c>
       <c r="D382" t="str">
-        <v>9.369223</v>
-      </c>
-      <c r="E382" t="str">
-        <v>66.100031</v>
+        <v>5</v>
+      </c>
+      <c r="E382" t="b">
+        <v>1</v>
       </c>
       <c r="F382" t="str">
         <v>init1848fahl80zjck03zc9z3vml4nxvknxnt0fpr37</v>
@@ -9013,10 +9013,10 @@
         <v>init1rnm2na8a5zdtkym42g78lkev840e8jqqa4c52v</v>
       </c>
       <c r="D383" t="str">
-        <v>9.913805</v>
-      </c>
-      <c r="E383" t="str">
-        <v>66.300015</v>
+        <v>7</v>
+      </c>
+      <c r="E383" t="b">
+        <v>1</v>
       </c>
       <c r="F383" t="str">
         <v>init1rnm2na8a5zdtkym42g78lkev840e8jqqa4c52v</v>
@@ -9036,10 +9036,10 @@
         <v>init1ycrmmluu6pa5h3zf3fsx9u67834d3cltrhx67s</v>
       </c>
       <c r="D384" t="str">
-        <v>19.519878</v>
-      </c>
-      <c r="E384" t="str">
-        <v>95.723017</v>
+        <v>9</v>
+      </c>
+      <c r="E384" t="b">
+        <v>1</v>
       </c>
       <c r="F384" t="str">
         <v>init1ycrmmluu6pa5h3zf3fsx9u67834d3cltrhx67s</v>
@@ -9059,10 +9059,10 @@
         <v>init102xx4k56egdj390hhkn9rl4y0gr2exwhjnes8e</v>
       </c>
       <c r="D385" t="str">
-        <v>9.625667</v>
-      </c>
-      <c r="E385" t="str">
-        <v>62.500023</v>
+        <v>9</v>
+      </c>
+      <c r="E385" t="b">
+        <v>1</v>
       </c>
       <c r="F385" t="str">
         <v>init102xx4k56egdj390hhkn9rl4y0gr2exwhjnes8e</v>
@@ -9082,10 +9082,10 @@
         <v>init1tgtmk0elfk7u8frdq3x2gfxtmqwxtx7lgt7lxh</v>
       </c>
       <c r="D386" t="str">
-        <v>9.533144</v>
-      </c>
-      <c r="E386" t="str">
-        <v>18.200024</v>
+        <v>13</v>
+      </c>
+      <c r="E386" t="b">
+        <v>1</v>
       </c>
       <c r="F386" t="str">
         <v>init1tgtmk0elfk7u8frdq3x2gfxtmqwxtx7lgt7lxh</v>
@@ -9105,10 +9105,10 @@
         <v>init12wrrsrqthq98t0nq0jh94wl4gthrztqpvn7tf6</v>
       </c>
       <c r="D387" t="str">
-        <v>19.604620</v>
-      </c>
-      <c r="E387" t="str">
-        <v>57.079786</v>
+        <v>11</v>
+      </c>
+      <c r="E387" t="b">
+        <v>1</v>
       </c>
       <c r="F387" t="str">
         <v>init12wrrsrqthq98t0nq0jh94wl4gthrztqpvn7tf6</v>
@@ -9128,10 +9128,10 @@
         <v>init1jwlrgh8gfgzl3pyhlsfr8vka0jr4s72ysa8hqu</v>
       </c>
       <c r="D388" t="str">
-        <v>19.394140</v>
-      </c>
-      <c r="E388" t="str">
-        <v>52.200013</v>
+        <v>11</v>
+      </c>
+      <c r="E388" t="b">
+        <v>1</v>
       </c>
       <c r="F388" t="str">
         <v>init1jwlrgh8gfgzl3pyhlsfr8vka0jr4s72ysa8hqu</v>
@@ -9151,10 +9151,10 @@
         <v>init1a6q8xcs5fx5tjvjxf9vp4cdfs3g5y9jldgqk9s</v>
       </c>
       <c r="D389" t="str">
-        <v>9.441617</v>
-      </c>
-      <c r="E389" t="str">
-        <v>37.200013</v>
+        <v>9</v>
+      </c>
+      <c r="E389" t="b">
+        <v>1</v>
       </c>
       <c r="F389" t="str">
         <v>init1a6q8xcs5fx5tjvjxf9vp4cdfs3g5y9jldgqk9s</v>
@@ -9174,10 +9174,10 @@
         <v>init1ktyfyc92f4w5mr84nw4jvqhcf879e2lv0n7lgk</v>
       </c>
       <c r="D390" t="str">
-        <v>19.603362</v>
-      </c>
-      <c r="E390" t="str">
-        <v>92.271152</v>
+        <v>9</v>
+      </c>
+      <c r="E390" t="b">
+        <v>1</v>
       </c>
       <c r="F390" t="str">
         <v>init1ktyfyc92f4w5mr84nw4jvqhcf879e2lv0n7lgk</v>
@@ -9197,10 +9197,10 @@
         <v>init1p7gvygh4xv9h6v0ge66t0lr2uzdusuq2774cxw</v>
       </c>
       <c r="D391" t="str">
-        <v>19.743942</v>
-      </c>
-      <c r="E391" t="str">
-        <v>67.075307</v>
+        <v>11</v>
+      </c>
+      <c r="E391" t="b">
+        <v>1</v>
       </c>
       <c r="F391" t="str">
         <v>init1p7gvygh4xv9h6v0ge66t0lr2uzdusuq2774cxw</v>
@@ -9220,10 +9220,10 @@
         <v>init13jde3v4ayvmfd39lmr5rldtlcgrfhlk0dl52d4</v>
       </c>
       <c r="D392" t="str">
-        <v>19.420956</v>
-      </c>
-      <c r="E392" t="str">
-        <v>84.200060</v>
+        <v>9</v>
+      </c>
+      <c r="E392" t="b">
+        <v>1</v>
       </c>
       <c r="F392" t="str">
         <v>init13jde3v4ayvmfd39lmr5rldtlcgrfhlk0dl52d4</v>
@@ -9243,10 +9243,10 @@
         <v>init1e7vt9qm4ue8q3mm6t8mgx9y2xw80ps39atqw4e</v>
       </c>
       <c r="D393" t="str">
-        <v>19.721790</v>
-      </c>
-      <c r="E393" t="str">
-        <v>82.817444</v>
+        <v>7</v>
+      </c>
+      <c r="E393" t="b">
+        <v>1</v>
       </c>
       <c r="F393" t="str">
         <v>init1e7vt9qm4ue8q3mm6t8mgx9y2xw80ps39atqw4e</v>
@@ -9266,10 +9266,10 @@
         <v>init1fp4mv45mlmffnnupm2svhv2j99tv86ly37hs7c</v>
       </c>
       <c r="D394" t="str">
-        <v>19.407609</v>
-      </c>
-      <c r="E394" t="str">
-        <v>82.719013</v>
+        <v>15</v>
+      </c>
+      <c r="E394" t="b">
+        <v>1</v>
       </c>
       <c r="F394" t="str">
         <v>init1fp4mv45mlmffnnupm2svhv2j99tv86ly37hs7c</v>
@@ -9289,10 +9289,10 @@
         <v>init1e7ec3dj524qnsaauhqt3pfqefwkh78yse9ld6z</v>
       </c>
       <c r="D395" t="str">
-        <v>19.548570</v>
-      </c>
-      <c r="E395" t="str">
-        <v>82.700044</v>
+        <v>11</v>
+      </c>
+      <c r="E395" t="b">
+        <v>1</v>
       </c>
       <c r="F395" t="str">
         <v>init1e7ec3dj524qnsaauhqt3pfqefwkh78yse9ld6z</v>
@@ -9312,10 +9312,10 @@
         <v>init1ht64quakazkkjc7mfd3gkgjdwe37cv2x44k97j</v>
       </c>
       <c r="D396" t="str">
-        <v>19.415343</v>
-      </c>
-      <c r="E396" t="str">
-        <v>90.200022</v>
+        <v>13</v>
+      </c>
+      <c r="E396" t="b">
+        <v>1</v>
       </c>
       <c r="F396" t="str">
         <v>init1ht64quakazkkjc7mfd3gkgjdwe37cv2x44k97j</v>
@@ -9335,10 +9335,10 @@
         <v>init1s6036flrhhjlrz0agud03p98pye0ukgmtve250</v>
       </c>
       <c r="D397" t="str">
-        <v>19.592293</v>
-      </c>
-      <c r="E397" t="str">
-        <v>55.800130</v>
+        <v>5</v>
+      </c>
+      <c r="E397" t="b">
+        <v>1</v>
       </c>
       <c r="F397" t="str">
         <v>init1s6036flrhhjlrz0agud03p98pye0ukgmtve250</v>
@@ -9358,10 +9358,10 @@
         <v>init1ar5nfdxqpsgqqkgufn7pm7ppvesvx9pp4vxyht</v>
       </c>
       <c r="D398" t="str">
-        <v>10.641424</v>
-      </c>
-      <c r="E398" t="str">
-        <v>25.600270</v>
+        <v>7</v>
+      </c>
+      <c r="E398" t="b">
+        <v>1</v>
       </c>
       <c r="F398" t="str">
         <v>init1ar5nfdxqpsgqqkgufn7pm7ppvesvx9pp4vxyht</v>
@@ -9381,10 +9381,10 @@
         <v>init1h6cfxc796lqjfgpe0uf4wynf05aaaqah47y7w8</v>
       </c>
       <c r="D399" t="str">
-        <v>0.615975</v>
-      </c>
-      <c r="E399" t="str">
-        <v>34.143375</v>
+        <v>7</v>
+      </c>
+      <c r="E399" t="b">
+        <v>1</v>
       </c>
       <c r="F399" t="str">
         <v>init1h6cfxc796lqjfgpe0uf4wynf05aaaqah47y7w8</v>
@@ -9404,10 +9404,10 @@
         <v>init1nneqj64v8v2acvcjj2vlzvzq8chkkpr4auyrz7</v>
       </c>
       <c r="D400" t="str">
-        <v>0.517028</v>
-      </c>
-      <c r="E400" t="str">
-        <v>16.207188</v>
+        <v>9</v>
+      </c>
+      <c r="E400" t="b">
+        <v>1</v>
       </c>
       <c r="F400" t="str">
         <v>init1nneqj64v8v2acvcjj2vlzvzq8chkkpr4auyrz7</v>
@@ -9427,10 +9427,10 @@
         <v>init15k4ekv2xpj5lsxlsjzgdrgrf0s3v9s7ccxa6uy</v>
       </c>
       <c r="D401" t="str">
-        <v>0.656087</v>
-      </c>
-      <c r="E401" t="str">
-        <v>30.133152</v>
+        <v>4</v>
+      </c>
+      <c r="E401" t="b">
+        <v>1</v>
       </c>
       <c r="F401" t="str">
         <v>init15k4ekv2xpj5lsxlsjzgdrgrf0s3v9s7ccxa6uy</v>
@@ -9450,10 +9450,10 @@
         <v>init17szega29df2z5zp7sh599eca4dll48v0n6kn3u</v>
       </c>
       <c r="D402" t="str">
-        <v>0.560124</v>
-      </c>
-      <c r="E402" t="str">
-        <v>19.200029</v>
+        <v>9</v>
+      </c>
+      <c r="E402" t="b">
+        <v>1</v>
       </c>
       <c r="F402" t="str">
         <v>init17szega29df2z5zp7sh599eca4dll48v0n6kn3u</v>
@@ -9473,10 +9473,10 @@
         <v>init1a4djhaz4gjc6zqlnmetl2kmw230hrt4cff8emd</v>
       </c>
       <c r="D403" t="str">
-        <v>0.526443</v>
-      </c>
-      <c r="E403" t="str">
-        <v>27.200006</v>
+        <v>5</v>
+      </c>
+      <c r="E403" t="b">
+        <v>1</v>
       </c>
       <c r="F403" t="str">
         <v>init1a4djhaz4gjc6zqlnmetl2kmw230hrt4cff8emd</v>
@@ -9496,10 +9496,10 @@
         <v>init14k2934w3nk0vhfhv30mu2dznt2c93czr2ulx8n</v>
       </c>
       <c r="D404" t="str">
-        <v>10.373694</v>
-      </c>
-      <c r="E404" t="str">
-        <v>31.492823</v>
+        <v>13</v>
+      </c>
+      <c r="E404" t="b">
+        <v>1</v>
       </c>
       <c r="F404" t="str">
         <v>init14k2934w3nk0vhfhv30mu2dznt2c93czr2ulx8n</v>
@@ -9519,10 +9519,10 @@
         <v>init18vrflt7eudrqafjvssyrvhf8867xktp2sueva8</v>
       </c>
       <c r="D405" t="str">
-        <v>0.559849</v>
-      </c>
-      <c r="E405" t="str">
-        <v>12.200911</v>
+        <v>11</v>
+      </c>
+      <c r="E405" t="b">
+        <v>1</v>
       </c>
       <c r="F405" t="str">
         <v>init18vrflt7eudrqafjvssyrvhf8867xktp2sueva8</v>
@@ -9542,10 +9542,10 @@
         <v>init1ugf2kysvgwchntvada30qk9hguyy8esd9pa5pw</v>
       </c>
       <c r="D406" t="str">
-        <v>9.684150</v>
-      </c>
-      <c r="E406" t="str">
-        <v>42.000010</v>
+        <v>9</v>
+      </c>
+      <c r="E406" t="b">
+        <v>1</v>
       </c>
       <c r="F406" t="str">
         <v>init1ugf2kysvgwchntvada30qk9hguyy8esd9pa5pw</v>
@@ -9565,10 +9565,10 @@
         <v>init1lxs8y9ahwul5d4sw9uejsy5t5g28p7ay65fp6l</v>
       </c>
       <c r="D407" t="str">
-        <v>9.407467</v>
-      </c>
-      <c r="E407" t="str">
-        <v>49.754897</v>
+        <v>7</v>
+      </c>
+      <c r="E407" t="b">
+        <v>1</v>
       </c>
       <c r="F407" t="str">
         <v>init1lxs8y9ahwul5d4sw9uejsy5t5g28p7ay65fp6l</v>
@@ -9588,10 +9588,10 @@
         <v>init1lkj4xql5ajwa7yml56lj94qyv6ag5lmdw3mp3s</v>
       </c>
       <c r="D408" t="str">
-        <v>9.538798</v>
-      </c>
-      <c r="E408" t="str">
-        <v>48.796029</v>
+        <v>7</v>
+      </c>
+      <c r="E408" t="b">
+        <v>1</v>
       </c>
       <c r="F408" t="str">
         <v>init1lkj4xql5ajwa7yml56lj94qyv6ag5lmdw3mp3s</v>
@@ -9611,10 +9611,10 @@
         <v>init18v4txjzzqxg2dlpp42ymzjjx0puspg4w9fye2n</v>
       </c>
       <c r="D409" t="str">
-        <v>9.888632</v>
-      </c>
-      <c r="E409" t="str">
-        <v>68.800011</v>
+        <v>5</v>
+      </c>
+      <c r="E409" t="b">
+        <v>1</v>
       </c>
       <c r="F409" t="str">
         <v>init18v4txjzzqxg2dlpp42ymzjjx0puspg4w9fye2n</v>
@@ -9634,10 +9634,10 @@
         <v>init1d7hsvgpk90m0jvp02vyyr0tve7q8agm2rnkv7y</v>
       </c>
       <c r="D410" t="str">
-        <v>9.511528</v>
-      </c>
-      <c r="E410" t="str">
-        <v>64.900007</v>
+        <v>11</v>
+      </c>
+      <c r="E410" t="b">
+        <v>1</v>
       </c>
       <c r="F410" t="str">
         <v>init1d7hsvgpk90m0jvp02vyyr0tve7q8agm2rnkv7y</v>
@@ -9657,7 +9657,7 @@
         <v>init1uv8jg6alujpsgljv2hk23fht3ym6pmllgfsdnz</v>
       </c>
       <c r="D411" t="str">
-        <v>9.914873</v>
+        <v>6</v>
       </c>
       <c r="E411" t="str">
         <v>70.300003</v>
@@ -9680,10 +9680,10 @@
         <v>init10wy25unssa46d0fv2nz99z57uqdya637pnxzf6</v>
       </c>
       <c r="D412" t="str">
-        <v>9.623000</v>
-      </c>
-      <c r="E412" t="str">
-        <v>36.600001</v>
+        <v>7</v>
+      </c>
+      <c r="E412" t="b">
+        <v>1</v>
       </c>
       <c r="F412" t="str">
         <v>init10wy25unssa46d0fv2nz99z57uqdya637pnxzf6</v>
@@ -9703,10 +9703,10 @@
         <v>init1fw6ylqj7rqanmseujljmhsqcenwussaugxzu9h</v>
       </c>
       <c r="D413" t="str">
-        <v>9.603359</v>
-      </c>
-      <c r="E413" t="str">
-        <v>64.500002</v>
+        <v>9</v>
+      </c>
+      <c r="E413" t="b">
+        <v>1</v>
       </c>
       <c r="F413" t="str">
         <v>init1fw6ylqj7rqanmseujljmhsqcenwussaugxzu9h</v>
@@ -9726,10 +9726,10 @@
         <v>init1j3hj4cf99ur5npxas4h2lf2se0eeekmmwgmsnp</v>
       </c>
       <c r="D414" t="str">
-        <v>19.513292</v>
-      </c>
-      <c r="E414" t="str">
-        <v>93.972972</v>
+        <v>9</v>
+      </c>
+      <c r="E414" t="b">
+        <v>1</v>
       </c>
       <c r="F414" t="str">
         <v>init1j3hj4cf99ur5npxas4h2lf2se0eeekmmwgmsnp</v>
@@ -9749,10 +9749,10 @@
         <v>init14e23cykj9340a0zaqnkm7prjdvsfd587lv8p35</v>
       </c>
       <c r="D415" t="str">
-        <v>9.914956</v>
-      </c>
-      <c r="E415" t="str">
-        <v>40.600002</v>
+        <v>7</v>
+      </c>
+      <c r="E415" t="b">
+        <v>1</v>
       </c>
       <c r="F415" t="str">
         <v>init14e23cykj9340a0zaqnkm7prjdvsfd587lv8p35</v>
@@ -9772,10 +9772,10 @@
         <v>init1da7x8fkhtwjmdva0l9kzttqyz6swy5cvvl2fc5</v>
       </c>
       <c r="D416" t="str">
-        <v>9.616552</v>
-      </c>
-      <c r="E416" t="str">
-        <v>39.400024</v>
+        <v>5</v>
+      </c>
+      <c r="E416" t="b">
+        <v>1</v>
       </c>
       <c r="F416" t="str">
         <v>init1da7x8fkhtwjmdva0l9kzttqyz6swy5cvvl2fc5</v>
@@ -9795,10 +9795,10 @@
         <v>init157lu0uq3gwfqylmq4pwhum66lx7358haqr8kme</v>
       </c>
       <c r="D417" t="str">
-        <v>9.562295</v>
-      </c>
-      <c r="E417" t="str">
-        <v>38.500016</v>
+        <v>7</v>
+      </c>
+      <c r="E417" t="b">
+        <v>1</v>
       </c>
       <c r="F417" t="str">
         <v>init157lu0uq3gwfqylmq4pwhum66lx7358haqr8kme</v>
@@ -9818,10 +9818,10 @@
         <v>init1wjuw46xyy0dp08ycms6dnw68z8qhgwz7rv2rtv</v>
       </c>
       <c r="D418" t="str">
-        <v>9.676985</v>
-      </c>
-      <c r="E418" t="str">
-        <v>70.541828</v>
+        <v>9</v>
+      </c>
+      <c r="E418" t="b">
+        <v>1</v>
       </c>
       <c r="F418" t="str">
         <v>init1wjuw46xyy0dp08ycms6dnw68z8qhgwz7rv2rtv</v>
@@ -9841,10 +9841,10 @@
         <v>init1dstyh0kr4l6kxzmnlfrcrnqtpqr26gef50j3tq</v>
       </c>
       <c r="D419" t="str">
-        <v>9.552424</v>
-      </c>
-      <c r="E419" t="str">
-        <v>67.500015</v>
+        <v>13</v>
+      </c>
+      <c r="E419" t="b">
+        <v>1</v>
       </c>
       <c r="F419" t="str">
         <v>init1dstyh0kr4l6kxzmnlfrcrnqtpqr26gef50j3tq</v>
@@ -9864,10 +9864,10 @@
         <v>init1c05yul7pyke7kydujmxcy4309pu6kgvn6vax5y</v>
       </c>
       <c r="D420" t="str">
-        <v>19.575067</v>
-      </c>
-      <c r="E420" t="str">
-        <v>90.200002</v>
+        <v>13</v>
+      </c>
+      <c r="E420" t="b">
+        <v>1</v>
       </c>
       <c r="F420" t="str">
         <v>init1c05yul7pyke7kydujmxcy4309pu6kgvn6vax5y</v>
@@ -9887,10 +9887,10 @@
         <v>init14axgzq4ww80c0c9znvyeg525r6pg98xxwm9nzy</v>
       </c>
       <c r="D421" t="str">
-        <v>9.635986</v>
-      </c>
-      <c r="E421" t="str">
-        <v>36.731428</v>
+        <v>9</v>
+      </c>
+      <c r="E421" t="b">
+        <v>1</v>
       </c>
       <c r="F421" t="str">
         <v>init14axgzq4ww80c0c9znvyeg525r6pg98xxwm9nzy</v>
@@ -9910,10 +9910,10 @@
         <v>init1z0a277lf4g5m350zqhudteqnk24pffavm47hfw</v>
       </c>
       <c r="D422" t="str">
-        <v>9.664718</v>
-      </c>
-      <c r="E422" t="str">
-        <v>68.240010</v>
+        <v>7</v>
+      </c>
+      <c r="E422" t="b">
+        <v>1</v>
       </c>
       <c r="F422" t="str">
         <v>init1z0a277lf4g5m350zqhudteqnk24pffavm47hfw</v>
@@ -9933,10 +9933,10 @@
         <v>init1ky74ezer22ulhjz3gwa8z5w229s4ysnxkrngrj</v>
       </c>
       <c r="D423" t="str">
-        <v>19.560232</v>
-      </c>
-      <c r="E423" t="str">
-        <v>95.500057</v>
+        <v>9</v>
+      </c>
+      <c r="E423" t="b">
+        <v>1</v>
       </c>
       <c r="F423" t="str">
         <v>init1ky74ezer22ulhjz3gwa8z5w229s4ysnxkrngrj</v>
@@ -9956,10 +9956,10 @@
         <v>init15edlny4urtwc8mt3ayjlhc7f9c4vd8mlu2kepk</v>
       </c>
       <c r="D424" t="str">
-        <v>9.558561</v>
-      </c>
-      <c r="E424" t="str">
-        <v>38.300065</v>
+        <v>7</v>
+      </c>
+      <c r="E424" t="b">
+        <v>1</v>
       </c>
       <c r="F424" t="str">
         <v>init15edlny4urtwc8mt3ayjlhc7f9c4vd8mlu2kepk</v>
@@ -9979,10 +9979,10 @@
         <v>init1lkwd38fqrpxsy9ydny3mfzgarm97j8t88c2m7p</v>
       </c>
       <c r="D425" t="str">
-        <v>9.652355</v>
-      </c>
-      <c r="E425" t="str">
-        <v>38.500083</v>
+        <v>7</v>
+      </c>
+      <c r="E425" t="b">
+        <v>1</v>
       </c>
       <c r="F425" t="str">
         <v>init1lkwd38fqrpxsy9ydny3mfzgarm97j8t88c2m7p</v>
@@ -10002,10 +10002,10 @@
         <v>init1xxdggxk0uz40vhhqgjpqgxsmqrqflq9gsnu8xh</v>
       </c>
       <c r="D426" t="str">
-        <v>19.562736</v>
-      </c>
-      <c r="E426" t="str">
-        <v>97.700138</v>
+        <v>19</v>
+      </c>
+      <c r="E426" t="b">
+        <v>1</v>
       </c>
       <c r="F426" t="str">
         <v>init1xxdggxk0uz40vhhqgjpqgxsmqrqflq9gsnu8xh</v>
@@ -10025,10 +10025,10 @@
         <v>init1x9aqevd87hmfl4xf8warxc9fanmxfh706dpjh8</v>
       </c>
       <c r="D427" t="str">
-        <v>9.631886</v>
-      </c>
-      <c r="E427" t="str">
-        <v>66.900022</v>
+        <v>9</v>
+      </c>
+      <c r="E427" t="b">
+        <v>1</v>
       </c>
       <c r="F427" t="str">
         <v>init1x9aqevd87hmfl4xf8warxc9fanmxfh706dpjh8</v>
@@ -10048,10 +10048,10 @@
         <v>init12s2lk4jc3rnafv6lwwt90u430rhza3glx4x399</v>
       </c>
       <c r="D428" t="str">
-        <v>9.712149</v>
-      </c>
-      <c r="E428" t="str">
-        <v>38.300155</v>
+        <v>9</v>
+      </c>
+      <c r="E428" t="b">
+        <v>1</v>
       </c>
       <c r="F428" t="str">
         <v>init12s2lk4jc3rnafv6lwwt90u430rhza3glx4x399</v>
@@ -10071,10 +10071,10 @@
         <v>init1jswt53wpqvejsrxecqkctpdugh8us070qrk3l9</v>
       </c>
       <c r="D429" t="str">
-        <v>9.667792</v>
-      </c>
-      <c r="E429" t="str">
-        <v>69.700140</v>
+        <v>9</v>
+      </c>
+      <c r="E429" t="b">
+        <v>1</v>
       </c>
       <c r="F429" t="str">
         <v>init1jswt53wpqvejsrxecqkctpdugh8us070qrk3l9</v>
@@ -10094,10 +10094,10 @@
         <v>init1p60t3wstq4cu5y7hynggs3sh96uen23rsjls5w</v>
       </c>
       <c r="D430" t="str">
-        <v>9.555135</v>
-      </c>
-      <c r="E430" t="str">
-        <v>67.300045</v>
+        <v>7</v>
+      </c>
+      <c r="E430" t="b">
+        <v>1</v>
       </c>
       <c r="F430" t="str">
         <v>init1p60t3wstq4cu5y7hynggs3sh96uen23rsjls5w</v>
@@ -10117,10 +10117,10 @@
         <v>init195dmhdkugug6tvhlygmhgrwvmspk0x2wkgd09c</v>
       </c>
       <c r="D431" t="str">
-        <v>9.616938</v>
-      </c>
-      <c r="E431" t="str">
-        <v>66.948085</v>
+        <v>5</v>
+      </c>
+      <c r="E431" t="b">
+        <v>1</v>
       </c>
       <c r="F431" t="str">
         <v>init195dmhdkugug6tvhlygmhgrwvmspk0x2wkgd09c</v>
@@ -10140,10 +10140,10 @@
         <v>init1xh3srt39nhuqnvxpkrmuyc9775hvcm6jqrmt2n</v>
       </c>
       <c r="D432" t="str">
-        <v>9.578711</v>
-      </c>
-      <c r="E432" t="str">
-        <v>65.400003</v>
+        <v>9</v>
+      </c>
+      <c r="E432" t="b">
+        <v>1</v>
       </c>
       <c r="F432" t="str">
         <v>init1xh3srt39nhuqnvxpkrmuyc9775hvcm6jqrmt2n</v>
@@ -10163,10 +10163,10 @@
         <v>init1h44j2au9vq76p3zm3g64y0zrr4xfqy9tjwhj32</v>
       </c>
       <c r="D433" t="str">
-        <v>19.632094</v>
-      </c>
-      <c r="E433" t="str">
-        <v>94.800013</v>
+        <v>11</v>
+      </c>
+      <c r="E433" t="b">
+        <v>1</v>
       </c>
       <c r="F433" t="str">
         <v>init1h44j2au9vq76p3zm3g64y0zrr4xfqy9tjwhj32</v>
@@ -10186,10 +10186,10 @@
         <v>init1amxal2xllapq26xetm3pl4tk40hfrf4p4ke4wj</v>
       </c>
       <c r="D434" t="str">
-        <v>9.560894</v>
-      </c>
-      <c r="E434" t="str">
-        <v>66.700021</v>
+        <v>9</v>
+      </c>
+      <c r="E434" t="b">
+        <v>1</v>
       </c>
       <c r="F434" t="str">
         <v>init1amxal2xllapq26xetm3pl4tk40hfrf4p4ke4wj</v>
@@ -10209,10 +10209,10 @@
         <v>init1a89ksuuq59z2zvts9huc6ny3kgtgehmrmtuep6</v>
       </c>
       <c r="D435" t="str">
-        <v>9.765827</v>
-      </c>
-      <c r="E435" t="str">
-        <v>38.200010</v>
+        <v>9</v>
+      </c>
+      <c r="E435" t="b">
+        <v>1</v>
       </c>
       <c r="F435" t="str">
         <v>init1a89ksuuq59z2zvts9huc6ny3kgtgehmrmtuep6</v>
@@ -10232,10 +10232,10 @@
         <v>init1m0xk292mg07a2m5hk7ukamy50mnqsu574lwrsx</v>
       </c>
       <c r="D436" t="str">
-        <v>10.162714</v>
-      </c>
-      <c r="E436" t="str">
-        <v>22.822864</v>
+        <v>7</v>
+      </c>
+      <c r="E436" t="b">
+        <v>1</v>
       </c>
       <c r="F436" t="str">
         <v>init1m0xk292mg07a2m5hk7ukamy50mnqsu574lwrsx</v>
@@ -10255,10 +10255,10 @@
         <v>init1ds3zr0s0qux2a5gtr8t9w2qv8vrr5tj4vgy6at</v>
       </c>
       <c r="D437" t="str">
-        <v>10.653906</v>
-      </c>
-      <c r="E437" t="str">
-        <v>20.436628</v>
+        <v>9</v>
+      </c>
+      <c r="E437" t="b">
+        <v>1</v>
       </c>
       <c r="F437" t="str">
         <v>init1ds3zr0s0qux2a5gtr8t9w2qv8vrr5tj4vgy6at</v>
@@ -10278,10 +10278,10 @@
         <v>init1mulu4lk63s8r8zvtf4qulnhmxn77hwhx6vn3h7</v>
       </c>
       <c r="D438" t="str">
-        <v>10.456664</v>
-      </c>
-      <c r="E438" t="str">
-        <v>24.214543</v>
+        <v>5</v>
+      </c>
+      <c r="E438" t="b">
+        <v>1</v>
       </c>
       <c r="F438" t="str">
         <v>init1mulu4lk63s8r8zvtf4qulnhmxn77hwhx6vn3h7</v>
@@ -10301,10 +10301,10 @@
         <v>init1w096tl29y44retdxlg8j93us330fgyl8j0vupp</v>
       </c>
       <c r="D439" t="str">
-        <v>10.836671</v>
-      </c>
-      <c r="E439" t="str">
-        <v>22.049962</v>
+        <v>5</v>
+      </c>
+      <c r="E439" t="b">
+        <v>1</v>
       </c>
       <c r="F439" t="str">
         <v>init1w096tl29y44retdxlg8j93us330fgyl8j0vupp</v>
@@ -10324,10 +10324,10 @@
         <v>init175f6q0vxucvym0czxscrxewsrde5w0pccdrndf</v>
       </c>
       <c r="D440" t="str">
-        <v>10.478971</v>
-      </c>
-      <c r="E440" t="str">
-        <v>20.202131</v>
+        <v>7</v>
+      </c>
+      <c r="E440" t="b">
+        <v>1</v>
       </c>
       <c r="F440" t="str">
         <v>init175f6q0vxucvym0czxscrxewsrde5w0pccdrndf</v>
@@ -10347,10 +10347,10 @@
         <v>init135tmlalvzepcg5z9nf24vgdky8wtxrwcqt2nkr</v>
       </c>
       <c r="D441" t="str">
-        <v>10.442654</v>
-      </c>
-      <c r="E441" t="str">
-        <v>19.420399</v>
+        <v>13</v>
+      </c>
+      <c r="E441" t="b">
+        <v>1</v>
       </c>
       <c r="F441" t="str">
         <v>init135tmlalvzepcg5z9nf24vgdky8wtxrwcqt2nkr</v>
@@ -10370,10 +10370,10 @@
         <v>init1ze958mp7vvh8e8spsy8r534tug9x9d35spc0md</v>
       </c>
       <c r="D442" t="str">
-        <v>10.587207</v>
-      </c>
-      <c r="E442" t="str">
-        <v>22.747367</v>
+        <v>7</v>
+      </c>
+      <c r="E442" t="b">
+        <v>1</v>
       </c>
       <c r="F442" t="str">
         <v>init1ze958mp7vvh8e8spsy8r534tug9x9d35spc0md</v>
@@ -10393,10 +10393,10 @@
         <v>init1qguvmglau6tcdex98sm93cy8hx09kfv6epk9z3</v>
       </c>
       <c r="D443" t="str">
-        <v>10.465641</v>
-      </c>
-      <c r="E443" t="str">
-        <v>17.448697</v>
+        <v>9</v>
+      </c>
+      <c r="E443" t="b">
+        <v>1</v>
       </c>
       <c r="F443" t="str">
         <v>init1qguvmglau6tcdex98sm93cy8hx09kfv6epk9z3</v>
@@ -10416,10 +10416,10 @@
         <v>init147wwcsn8etusssse063uv8g5kqp435ehm67kmw</v>
       </c>
       <c r="D444" t="str">
-        <v>10.332368</v>
-      </c>
-      <c r="E444" t="str">
-        <v>28.262668</v>
+        <v>7</v>
+      </c>
+      <c r="E444" t="b">
+        <v>1</v>
       </c>
       <c r="F444" t="str">
         <v>init147wwcsn8etusssse063uv8g5kqp435ehm67kmw</v>
@@ -10439,10 +10439,10 @@
         <v>init1jerlpq0gpgzmyjk6uqrx8vtmqt0r7gnwxn82q3</v>
       </c>
       <c r="D445" t="str">
-        <v>0.709662</v>
-      </c>
-      <c r="E445" t="str">
-        <v>4.200684</v>
+        <v>5</v>
+      </c>
+      <c r="E445" t="b">
+        <v>1</v>
       </c>
       <c r="F445" t="str">
         <v>init1jerlpq0gpgzmyjk6uqrx8vtmqt0r7gnwxn82q3</v>
@@ -10462,10 +10462,10 @@
         <v>init1cj3wnq6h2un8fta5j6nkncyw4a69lx2uehsfvn</v>
       </c>
       <c r="D446" t="str">
-        <v>0.593308</v>
-      </c>
-      <c r="E446" t="str">
-        <v>1.582032</v>
+        <v>11</v>
+      </c>
+      <c r="E446" t="b">
+        <v>1</v>
       </c>
       <c r="F446" t="str">
         <v>init1cj3wnq6h2un8fta5j6nkncyw4a69lx2uehsfvn</v>
@@ -10485,10 +10485,10 @@
         <v>init1v506l2uut6ymg8akxhqakfzfjn4234tfyqutf7</v>
       </c>
       <c r="D447" t="str">
-        <v>10.506729</v>
-      </c>
-      <c r="E447" t="str">
-        <v>29.261089</v>
+        <v>9</v>
+      </c>
+      <c r="E447" t="b">
+        <v>1</v>
       </c>
       <c r="F447" t="str">
         <v>init1v506l2uut6ymg8akxhqakfzfjn4234tfyqutf7</v>
@@ -10508,10 +10508,10 @@
         <v>init1x2sm932294sk5zyl6n5p4mx5cw76wtdejdnuye</v>
       </c>
       <c r="D448" t="str">
-        <v>0.637755</v>
-      </c>
-      <c r="E448" t="str">
-        <v>3.226532</v>
+        <v>9</v>
+      </c>
+      <c r="E448" t="b">
+        <v>1</v>
       </c>
       <c r="F448" t="str">
         <v>init1x2sm932294sk5zyl6n5p4mx5cw76wtdejdnuye</v>
@@ -10531,10 +10531,10 @@
         <v>init1m2nswudwkds770ywk68rqjcavjupjejjcs66tr</v>
       </c>
       <c r="D449" t="str">
-        <v>0.546288</v>
-      </c>
-      <c r="E449" t="str">
-        <v>1.229552</v>
+        <v>7</v>
+      </c>
+      <c r="E449" t="b">
+        <v>1</v>
       </c>
       <c r="F449" t="str">
         <v>init1m2nswudwkds770ywk68rqjcavjupjejjcs66tr</v>
@@ -10554,10 +10554,10 @@
         <v>init17n6w8vzwfnqmj4wd7uwgnhcwglk8v6kz36ygcj</v>
       </c>
       <c r="D450" t="str">
-        <v>0.557759</v>
-      </c>
-      <c r="E450" t="str">
-        <v>1.292826</v>
+        <v>7</v>
+      </c>
+      <c r="E450" t="b">
+        <v>1</v>
       </c>
       <c r="F450" t="str">
         <v>init17n6w8vzwfnqmj4wd7uwgnhcwglk8v6kz36ygcj</v>
@@ -10577,10 +10577,10 @@
         <v>init1jv990n06zwl7x4wexnu2t07ppz8q62frvevl9u</v>
       </c>
       <c r="D451" t="str">
-        <v>0.383067</v>
-      </c>
-      <c r="E451" t="str">
-        <v>4.806169</v>
+        <v>9</v>
+      </c>
+      <c r="E451" t="b">
+        <v>1</v>
       </c>
       <c r="F451" t="str">
         <v>init1jv990n06zwl7x4wexnu2t07ppz8q62frvevl9u</v>
@@ -10600,10 +10600,10 @@
         <v>init1w5agg0p3uhgam9994f49kccdfk623s9u5u6wf8</v>
       </c>
       <c r="D452" t="str">
-        <v>10.384237</v>
-      </c>
-      <c r="E452" t="str">
-        <v>29.241385</v>
+        <v>9</v>
+      </c>
+      <c r="E452" t="b">
+        <v>1</v>
       </c>
       <c r="F452" t="str">
         <v>init1w5agg0p3uhgam9994f49kccdfk623s9u5u6wf8</v>
@@ -10623,10 +10623,10 @@
         <v>init1qzv9etqc6wy2mxc6e0v0j4nxyyzdhx6xw5u788</v>
       </c>
       <c r="D453" t="str">
-        <v>10.324602</v>
-      </c>
-      <c r="E453" t="str">
-        <v>27.296391</v>
+        <v>11</v>
+      </c>
+      <c r="E453" t="b">
+        <v>1</v>
       </c>
       <c r="F453" t="str">
         <v>init1qzv9etqc6wy2mxc6e0v0j4nxyyzdhx6xw5u788</v>
@@ -10646,10 +10646,10 @@
         <v>init18udjyf72uhgrcxfxk57xufs2lr5u7jlw25tcp2</v>
       </c>
       <c r="D454" t="str">
-        <v>0.647578</v>
-      </c>
-      <c r="E454" t="str">
-        <v>1.571437</v>
+        <v>7</v>
+      </c>
+      <c r="E454" t="b">
+        <v>1</v>
       </c>
       <c r="F454" t="str">
         <v>init18udjyf72uhgrcxfxk57xufs2lr5u7jlw25tcp2</v>
@@ -10669,10 +10669,10 @@
         <v>init1k54djj3yr3eh0d892pfptf7tturarale29qrp9</v>
       </c>
       <c r="D455" t="str">
-        <v>0.121464</v>
-      </c>
-      <c r="E455" t="str">
-        <v>7.844683</v>
+        <v>7</v>
+      </c>
+      <c r="E455" t="b">
+        <v>1</v>
       </c>
       <c r="F455" t="str">
         <v>init1k54djj3yr3eh0d892pfptf7tturarale29qrp9</v>
@@ -10692,10 +10692,10 @@
         <v>init1n8vcex0czz6n8c9dczm5dtjaajh927cfr7tu7y</v>
       </c>
       <c r="D456" t="str">
-        <v>10.395862</v>
-      </c>
-      <c r="E456" t="str">
-        <v>27.472739</v>
+        <v>9</v>
+      </c>
+      <c r="E456" t="b">
+        <v>1</v>
       </c>
       <c r="F456" t="str">
         <v>init1n8vcex0czz6n8c9dczm5dtjaajh927cfr7tu7y</v>
@@ -10715,10 +10715,10 @@
         <v>init1nf04tvnqj3e6q9aune5ek6wwqn0lxyllye3qy7</v>
       </c>
       <c r="D457" t="str">
-        <v>0.555044</v>
-      </c>
-      <c r="E457" t="str">
-        <v>1.191718</v>
+        <v>9</v>
+      </c>
+      <c r="E457" t="b">
+        <v>1</v>
       </c>
       <c r="F457" t="str">
         <v>init1nf04tvnqj3e6q9aune5ek6wwqn0lxyllye3qy7</v>
@@ -10738,10 +10738,10 @@
         <v>init1ggmpfkhqhacntr9uz75e9ctrn7zes8s8ps97yh</v>
       </c>
       <c r="D458" t="str">
-        <v>10.380561</v>
-      </c>
-      <c r="E458" t="str">
-        <v>28.926750</v>
+        <v>5</v>
+      </c>
+      <c r="E458" t="b">
+        <v>1</v>
       </c>
       <c r="F458" t="str">
         <v>init1ggmpfkhqhacntr9uz75e9ctrn7zes8s8ps97yh</v>
@@ -10761,10 +10761,10 @@
         <v>init1u63pffk8cnn7jx0yhkpxzrm7akjyycswkxpee6</v>
       </c>
       <c r="D459" t="str">
-        <v>0.650054</v>
-      </c>
-      <c r="E459" t="str">
-        <v>0.462135</v>
+        <v>7</v>
+      </c>
+      <c r="E459" t="b">
+        <v>1</v>
       </c>
       <c r="F459" t="str">
         <v>init1u63pffk8cnn7jx0yhkpxzrm7akjyycswkxpee6</v>
@@ -10784,10 +10784,10 @@
         <v>init182x3w2atq57rfw2accs78quhlx0y3sdl23nczy</v>
       </c>
       <c r="D460" t="str">
-        <v>0.689621</v>
-      </c>
-      <c r="E460" t="str">
-        <v>0.481817</v>
+        <v>13</v>
+      </c>
+      <c r="E460" t="b">
+        <v>1</v>
       </c>
       <c r="F460" t="str">
         <v>init182x3w2atq57rfw2accs78quhlx0y3sdl23nczy</v>
@@ -10807,10 +10807,10 @@
         <v>init16phzmrkzuszej4wanmgkhqz7em4pzeya73lwm6</v>
       </c>
       <c r="D461" t="str">
-        <v>0.516879</v>
-      </c>
-      <c r="E461" t="str">
-        <v>0.616960</v>
+        <v>7</v>
+      </c>
+      <c r="E461" t="b">
+        <v>1</v>
       </c>
       <c r="F461" t="str">
         <v>init16phzmrkzuszej4wanmgkhqz7em4pzeya73lwm6</v>
@@ -10830,10 +10830,10 @@
         <v>init1z8ywdtfqv2df63q9ekrey5rjdaulpmzn5u0s6g</v>
       </c>
       <c r="D462" t="str">
-        <v>0.586587</v>
-      </c>
-      <c r="E462" t="str">
-        <v>0.300744</v>
+        <v>9</v>
+      </c>
+      <c r="E462" t="b">
+        <v>1</v>
       </c>
       <c r="F462" t="str">
         <v>init1z8ywdtfqv2df63q9ekrey5rjdaulpmzn5u0s6g</v>
@@ -10853,10 +10853,10 @@
         <v>init1c2w9qcca9lc5vxesl8pzzllhfqy4dc5ulh0uwd</v>
       </c>
       <c r="D463" t="str">
-        <v>0.724537</v>
-      </c>
-      <c r="E463" t="str">
-        <v>0.040009</v>
+        <v>7</v>
+      </c>
+      <c r="E463" t="b">
+        <v>1</v>
       </c>
       <c r="F463" t="str">
         <v>init1c2w9qcca9lc5vxesl8pzzllhfqy4dc5ulh0uwd</v>
@@ -10876,10 +10876,10 @@
         <v>init1nkw86ag2ghfyvdnvafn4ggsdr7cwae7w96xav2</v>
       </c>
       <c r="D464" t="str">
-        <v>10.659508</v>
-      </c>
-      <c r="E464" t="str">
-        <v>22.878377</v>
+        <v>7</v>
+      </c>
+      <c r="E464" t="b">
+        <v>1</v>
       </c>
       <c r="F464" t="str">
         <v>init1nkw86ag2ghfyvdnvafn4ggsdr7cwae7w96xav2</v>
@@ -10899,10 +10899,10 @@
         <v>init12ckly0ugywt2g3lwnk3crmdwgd4arywr6vyfzw</v>
       </c>
       <c r="D465" t="str">
-        <v>0.541498</v>
-      </c>
-      <c r="E465" t="str">
-        <v>6.100001</v>
+        <v>11</v>
+      </c>
+      <c r="E465" t="b">
+        <v>1</v>
       </c>
       <c r="F465" t="str">
         <v>init12ckly0ugywt2g3lwnk3crmdwgd4arywr6vyfzw</v>
@@ -10922,10 +10922,10 @@
         <v>init1886welfhfwyvx8hq2xls3gssnlxj0xntmrq9ta</v>
       </c>
       <c r="D466" t="str">
-        <v>1.131107</v>
-      </c>
-      <c r="E466" t="str">
-        <v>6.212958</v>
+        <v>9</v>
+      </c>
+      <c r="E466" t="b">
+        <v>1</v>
       </c>
       <c r="F466" t="str">
         <v>init1886welfhfwyvx8hq2xls3gssnlxj0xntmrq9ta</v>
@@ -10945,10 +10945,10 @@
         <v>init1ufw6xnxf5wn6fj4tt4pnhgte4qqvgfh303rl30</v>
       </c>
       <c r="D467" t="str">
-        <v>0.636888</v>
-      </c>
-      <c r="E467" t="str">
-        <v>1.741693</v>
+        <v>7</v>
+      </c>
+      <c r="E467" t="b">
+        <v>1</v>
       </c>
       <c r="F467" t="str">
         <v>init1ufw6xnxf5wn6fj4tt4pnhgte4qqvgfh303rl30</v>
@@ -10968,10 +10968,10 @@
         <v>init1grlzswkltp3n0zcpsauk8uhucu38y5tfx0p0dy</v>
       </c>
       <c r="D468" t="str">
-        <v>1.454875</v>
-      </c>
-      <c r="E468" t="str">
-        <v>1.305650</v>
+        <v>9</v>
+      </c>
+      <c r="E468" t="b">
+        <v>1</v>
       </c>
       <c r="F468" t="str">
         <v>init1grlzswkltp3n0zcpsauk8uhucu38y5tfx0p0dy</v>
@@ -10991,10 +10991,10 @@
         <v>init1c4jjamuxxp3l2k4vjlyqgsdraxeh9jylpucxxc</v>
       </c>
       <c r="D469" t="str">
-        <v>1.634492</v>
-      </c>
-      <c r="E469" t="str">
-        <v>4.242456</v>
+        <v>7</v>
+      </c>
+      <c r="E469" t="b">
+        <v>1</v>
       </c>
       <c r="F469" t="str">
         <v>init1c4jjamuxxp3l2k4vjlyqgsdraxeh9jylpucxxc</v>
@@ -11014,10 +11014,10 @@
         <v>init1nlvxwz0w0r6jeqxnvkxr8kevy4y2c9f6pf70ek</v>
       </c>
       <c r="D470" t="str">
-        <v>1.634965</v>
-      </c>
-      <c r="E470" t="str">
-        <v>6.534180</v>
+        <v>7</v>
+      </c>
+      <c r="E470" t="b">
+        <v>1</v>
       </c>
       <c r="F470" t="str">
         <v>init1nlvxwz0w0r6jeqxnvkxr8kevy4y2c9f6pf70ek</v>
@@ -11037,10 +11037,10 @@
         <v>init1x2y4jdqalajzc6ddqmvh72mnt484ca7dq0rx0k</v>
       </c>
       <c r="D471" t="str">
-        <v>0.716249</v>
-      </c>
-      <c r="E471" t="str">
-        <v>0.920146</v>
+        <v>5</v>
+      </c>
+      <c r="E471" t="b">
+        <v>1</v>
       </c>
       <c r="F471" t="str">
         <v>init1x2y4jdqalajzc6ddqmvh72mnt484ca7dq0rx0k</v>
@@ -11060,10 +11060,10 @@
         <v>init1l0fkwcld3d495k5fetl0kpdap5sckda450nd7f</v>
       </c>
       <c r="D472" t="str">
-        <v>0.704447</v>
-      </c>
-      <c r="E472" t="str">
-        <v>0.201123</v>
+        <v>9</v>
+      </c>
+      <c r="E472" t="b">
+        <v>1</v>
       </c>
       <c r="F472" t="str">
         <v>init1l0fkwcld3d495k5fetl0kpdap5sckda450nd7f</v>
@@ -11083,10 +11083,10 @@
         <v>init1mn7cvzhn0sh9a843864plz2dl7j6zxk77yqkl0</v>
       </c>
       <c r="D473" t="str">
-        <v>10.463652</v>
-      </c>
-      <c r="E473" t="str">
-        <v>31.600946</v>
+        <v>13</v>
+      </c>
+      <c r="E473" t="b">
+        <v>1</v>
       </c>
       <c r="F473" t="str">
         <v>init1mn7cvzhn0sh9a843864plz2dl7j6zxk77yqkl0</v>
@@ -11106,10 +11106,10 @@
         <v>init1m48rk6drk4ulgy8hrr70t3nad7ud2e4y23c8eh</v>
       </c>
       <c r="D474" t="str">
-        <v>10.545110</v>
-      </c>
-      <c r="E474" t="str">
-        <v>30.517544</v>
+        <v>13</v>
+      </c>
+      <c r="E474" t="b">
+        <v>1</v>
       </c>
       <c r="F474" t="str">
         <v>init1m48rk6drk4ulgy8hrr70t3nad7ud2e4y23c8eh</v>
@@ -11129,10 +11129,10 @@
         <v>init17a3jm6hex3wy6ffdsxsunjj0cw7tdtpzd6kdsf</v>
       </c>
       <c r="D475" t="str">
-        <v>0.506562</v>
-      </c>
-      <c r="E475" t="str">
-        <v>1.243540</v>
+        <v>7</v>
+      </c>
+      <c r="E475" t="b">
+        <v>1</v>
       </c>
       <c r="F475" t="str">
         <v>init17a3jm6hex3wy6ffdsxsunjj0cw7tdtpzd6kdsf</v>
@@ -11152,10 +11152,10 @@
         <v>init1z4g8tfgsxn4tflfh77mqp9rk662jaukt7jj3nr</v>
       </c>
       <c r="D476" t="str">
-        <v>0.544221</v>
-      </c>
-      <c r="E476" t="str">
-        <v>0.315089</v>
+        <v>7</v>
+      </c>
+      <c r="E476" t="b">
+        <v>1</v>
       </c>
       <c r="F476" t="str">
         <v>init1z4g8tfgsxn4tflfh77mqp9rk662jaukt7jj3nr</v>
@@ -11175,10 +11175,10 @@
         <v>init12cq4zppu7zn23kym9u32u8qwgkxhrk9v8nkwjg</v>
       </c>
       <c r="D477" t="str">
-        <v>0.686776</v>
-      </c>
-      <c r="E477" t="str">
-        <v>7.212458</v>
+        <v>9</v>
+      </c>
+      <c r="E477" t="b">
+        <v>1</v>
       </c>
       <c r="F477" t="str">
         <v>init12cq4zppu7zn23kym9u32u8qwgkxhrk9v8nkwjg</v>
@@ -11198,10 +11198,10 @@
         <v>init14ax2sdn8pzh6gmwqhv0s63q9ptmt4hpyp094cz</v>
       </c>
       <c r="D478" t="str">
-        <v>0.435484</v>
-      </c>
-      <c r="E478" t="str">
-        <v>0.406970</v>
+        <v>7</v>
+      </c>
+      <c r="E478" t="b">
+        <v>1</v>
       </c>
       <c r="F478" t="str">
         <v>init14ax2sdn8pzh6gmwqhv0s63q9ptmt4hpyp094cz</v>
@@ -11221,10 +11221,10 @@
         <v>init1n782xara57vgzrrjr7awuex5yhx3ma0a7y0l9e</v>
       </c>
       <c r="D479" t="str">
-        <v>0.608734</v>
-      </c>
-      <c r="E479" t="str">
-        <v>3.200683</v>
+        <v>5</v>
+      </c>
+      <c r="E479" t="b">
+        <v>1</v>
       </c>
       <c r="F479" t="str">
         <v>init1n782xara57vgzrrjr7awuex5yhx3ma0a7y0l9e</v>
@@ -11244,10 +11244,10 @@
         <v>init18ez3s0kdm4pqk9kuhj2qlkdfsvy9e7l0zjgp8u</v>
       </c>
       <c r="D480" t="str">
-        <v>0.509547</v>
-      </c>
-      <c r="E480" t="str">
-        <v>1.242608</v>
+        <v>9</v>
+      </c>
+      <c r="E480" t="b">
+        <v>1</v>
       </c>
       <c r="F480" t="str">
         <v>init18ez3s0kdm4pqk9kuhj2qlkdfsvy9e7l0zjgp8u</v>
@@ -11267,10 +11267,10 @@
         <v>init1gkutxemhd2vtz33vtt8t8e5zv46f9qmdxr28ze</v>
       </c>
       <c r="D481" t="str">
-        <v>0.642242</v>
-      </c>
-      <c r="E481" t="str">
-        <v>2.233428</v>
+        <v>9</v>
+      </c>
+      <c r="E481" t="b">
+        <v>1</v>
       </c>
       <c r="F481" t="str">
         <v>init1gkutxemhd2vtz33vtt8t8e5zv46f9qmdxr28ze</v>
@@ -11290,10 +11290,10 @@
         <v>init1996ttm847vpjk6mxljhd60ljvyc9rs3k0x73cm</v>
       </c>
       <c r="D482" t="str">
-        <v>0.711942</v>
-      </c>
-      <c r="E482" t="str">
-        <v>0.319281</v>
+        <v>5</v>
+      </c>
+      <c r="E482" t="b">
+        <v>1</v>
       </c>
       <c r="F482" t="str">
         <v>init1996ttm847vpjk6mxljhd60ljvyc9rs3k0x73cm</v>
@@ -11313,10 +11313,10 @@
         <v>init1j9ch3cckpj9mr8jfnel5g47le4uqewdgfc8ex8</v>
       </c>
       <c r="D483" t="str">
-        <v>0.711199</v>
-      </c>
-      <c r="E483" t="str">
-        <v>0.314702</v>
+        <v>7</v>
+      </c>
+      <c r="E483" t="b">
+        <v>1</v>
       </c>
       <c r="F483" t="str">
         <v>init1j9ch3cckpj9mr8jfnel5g47le4uqewdgfc8ex8</v>
@@ -11336,10 +11336,10 @@
         <v>init1tl6w6thq5kxpg7tl854tm97kyeln6xrvyuqvvd</v>
       </c>
       <c r="D484" t="str">
-        <v>10.461085</v>
-      </c>
-      <c r="E484" t="str">
-        <v>21.462224</v>
+        <v>9</v>
+      </c>
+      <c r="E484" t="b">
+        <v>1</v>
       </c>
       <c r="F484" t="str">
         <v>init1tl6w6thq5kxpg7tl854tm97kyeln6xrvyuqvvd</v>
@@ -11359,10 +11359,10 @@
         <v>init1lgkjrh8r8llnjcgzsjphjzq487q9zq0sunrlez</v>
       </c>
       <c r="D485" t="str">
-        <v>0.570697</v>
-      </c>
-      <c r="E485" t="str">
-        <v>0.754766</v>
+        <v>7</v>
+      </c>
+      <c r="E485" t="b">
+        <v>1</v>
       </c>
       <c r="F485" t="str">
         <v>init1lgkjrh8r8llnjcgzsjphjzq487q9zq0sunrlez</v>
@@ -11382,10 +11382,10 @@
         <v>init1cg5p2g9h6png9tcwsd9rprxajyw3ua2zlqhk7c</v>
       </c>
       <c r="D486" t="str">
-        <v>0.654522</v>
-      </c>
-      <c r="E486" t="str">
-        <v>0.266206</v>
+        <v>11</v>
+      </c>
+      <c r="E486" t="b">
+        <v>1</v>
       </c>
       <c r="F486" t="str">
         <v>init1cg5p2g9h6png9tcwsd9rprxajyw3ua2zlqhk7c</v>
@@ -11405,10 +11405,10 @@
         <v>init1flc633wxkyjrgkgk3wgesusu0dnhjclr3h5gn3</v>
       </c>
       <c r="D487" t="str">
-        <v>0.574293</v>
-      </c>
-      <c r="E487" t="str">
-        <v>0.225277</v>
+        <v>7</v>
+      </c>
+      <c r="E487" t="b">
+        <v>1</v>
       </c>
       <c r="F487" t="str">
         <v>init1flc633wxkyjrgkgk3wgesusu0dnhjclr3h5gn3</v>
@@ -11428,10 +11428,10 @@
         <v>init1fetjshvahtst957dlzafyxhnvquu202sxan2g3</v>
       </c>
       <c r="D488" t="str">
-        <v>0.592898</v>
-      </c>
-      <c r="E488" t="str">
-        <v>0.136300</v>
+        <v>5</v>
+      </c>
+      <c r="E488" t="b">
+        <v>1</v>
       </c>
       <c r="F488" t="str">
         <v>init1fetjshvahtst957dlzafyxhnvquu202sxan2g3</v>
@@ -11451,10 +11451,10 @@
         <v>init1xk70ruzr608rzauu7vrhugd0nzcd8vqnckdsr0</v>
       </c>
       <c r="D489" t="str">
-        <v>0.523686</v>
-      </c>
-      <c r="E489" t="str">
-        <v>2.482086</v>
+        <v>7</v>
+      </c>
+      <c r="E489" t="b">
+        <v>1</v>
       </c>
       <c r="F489" t="str">
         <v>init1xk70ruzr608rzauu7vrhugd0nzcd8vqnckdsr0</v>
@@ -11474,10 +11474,10 @@
         <v>init1t4fltjqeefr6ny3q7y4yn7h6sd7qd2ee2hl6e9</v>
       </c>
       <c r="D490" t="str">
-        <v>10.610487</v>
-      </c>
-      <c r="E490" t="str">
-        <v>22.942346</v>
+        <v>9</v>
+      </c>
+      <c r="E490" t="b">
+        <v>1</v>
       </c>
       <c r="F490" t="str">
         <v>init1t4fltjqeefr6ny3q7y4yn7h6sd7qd2ee2hl6e9</v>
@@ -11497,10 +11497,10 @@
         <v>init1mswnvwa5ye82q935a2fvlrczn6n57axheu9j8h</v>
       </c>
       <c r="D491" t="str">
-        <v>10.763001</v>
-      </c>
-      <c r="E491" t="str">
-        <v>21.235389</v>
+        <v>9</v>
+      </c>
+      <c r="E491" t="b">
+        <v>1</v>
       </c>
       <c r="F491" t="str">
         <v>init1mswnvwa5ye82q935a2fvlrczn6n57axheu9j8h</v>
@@ -11520,10 +11520,10 @@
         <v>init17gjxnxeu07nwrguqyzdl8egrjanfjsens9d9yw</v>
       </c>
       <c r="D492" t="str">
-        <v>0.467382</v>
-      </c>
-      <c r="E492" t="str">
-        <v>0.761528</v>
+        <v>9</v>
+      </c>
+      <c r="E492" t="b">
+        <v>1</v>
       </c>
       <c r="F492" t="str">
         <v>init17gjxnxeu07nwrguqyzdl8egrjanfjsens9d9yw</v>
@@ -11543,10 +11543,10 @@
         <v>init15munqdzlsfsu0egzyygsntrcxrh30akj6sq7sl</v>
       </c>
       <c r="D493" t="str">
-        <v>10.720638</v>
-      </c>
-      <c r="E493" t="str">
-        <v>22.252291</v>
+        <v>7</v>
+      </c>
+      <c r="E493" t="b">
+        <v>1</v>
       </c>
       <c r="F493" t="str">
         <v>init15munqdzlsfsu0egzyygsntrcxrh30akj6sq7sl</v>
@@ -11566,10 +11566,10 @@
         <v>init1jn3e8zjjf8y9y58awyur2ymwn2zl8yue222zxx</v>
       </c>
       <c r="D494" t="str">
-        <v>0.532954</v>
-      </c>
-      <c r="E494" t="str">
-        <v>1.664203</v>
+        <v>7</v>
+      </c>
+      <c r="E494" t="b">
+        <v>1</v>
       </c>
       <c r="F494" t="str">
         <v>init1jn3e8zjjf8y9y58awyur2ymwn2zl8yue222zxx</v>
@@ -11589,10 +11589,10 @@
         <v>init1fy0g47cv2t943fadw6plltfr7jnjjz0zmhya8k</v>
       </c>
       <c r="D495" t="str">
-        <v>0.681192</v>
-      </c>
-      <c r="E495" t="str">
-        <v>0.399041</v>
+        <v>9</v>
+      </c>
+      <c r="E495" t="b">
+        <v>1</v>
       </c>
       <c r="F495" t="str">
         <v>init1fy0g47cv2t943fadw6plltfr7jnjjz0zmhya8k</v>
@@ -11612,10 +11612,10 @@
         <v>init1mnhx9suqm9v8scv80mja989h6zspezwxd4yz4p</v>
       </c>
       <c r="D496" t="str">
-        <v>10.450870</v>
-      </c>
-      <c r="E496" t="str">
-        <v>20.278882</v>
+        <v>11</v>
+      </c>
+      <c r="E496" t="b">
+        <v>1</v>
       </c>
       <c r="F496" t="str">
         <v>init1mnhx9suqm9v8scv80mja989h6zspezwxd4yz4p</v>
@@ -11635,10 +11635,10 @@
         <v>init17l88a2p04d2dwka5vg4uunxwrngu3sh35qcdpz</v>
       </c>
       <c r="D497" t="str">
-        <v>10.737663</v>
-      </c>
-      <c r="E497" t="str">
-        <v>27.223034</v>
+        <v>7</v>
+      </c>
+      <c r="E497" t="b">
+        <v>1</v>
       </c>
       <c r="F497" t="str">
         <v>init17l88a2p04d2dwka5vg4uunxwrngu3sh35qcdpz</v>
@@ -11658,10 +11658,10 @@
         <v>init146gm64wsardlft5xy2hcc7yytjcgyp4pj3x7p9</v>
       </c>
       <c r="D498" t="str">
-        <v>0.633475</v>
-      </c>
-      <c r="E498" t="str">
-        <v>1.816870</v>
+        <v>7</v>
+      </c>
+      <c r="E498" t="b">
+        <v>1</v>
       </c>
       <c r="F498" t="str">
         <v>init146gm64wsardlft5xy2hcc7yytjcgyp4pj3x7p9</v>
@@ -11681,10 +11681,10 @@
         <v>init1qmqmtc6tn8h2h7qquvmdlcdhpuv02w0xmav36c</v>
       </c>
       <c r="D499" t="str">
-        <v>0.776568</v>
-      </c>
-      <c r="E499" t="str">
-        <v>0.107043</v>
+        <v>7</v>
+      </c>
+      <c r="E499" t="b">
+        <v>1</v>
       </c>
       <c r="F499" t="str">
         <v>init1qmqmtc6tn8h2h7qquvmdlcdhpuv02w0xmav36c</v>
@@ -11704,10 +11704,10 @@
         <v>init1pw9asgxkmmf6792dce4c3c07nyjuxrycsckdjd</v>
       </c>
       <c r="D500" t="str">
-        <v>0.584291</v>
-      </c>
-      <c r="E500" t="str">
-        <v>0.129644</v>
+        <v>9</v>
+      </c>
+      <c r="E500" t="b">
+        <v>1</v>
       </c>
       <c r="F500" t="str">
         <v>init1pw9asgxkmmf6792dce4c3c07nyjuxrycsckdjd</v>
@@ -11727,10 +11727,10 @@
         <v>init13hs2dwhxzm7228j4uhlrh8nvz7000wykztnldq</v>
       </c>
       <c r="D501" t="str">
-        <v>0.576526</v>
-      </c>
-      <c r="E501" t="str">
-        <v>0.857543</v>
+        <v>9</v>
+      </c>
+      <c r="E501" t="b">
+        <v>1</v>
       </c>
       <c r="F501" t="str">
         <v>init13hs2dwhxzm7228j4uhlrh8nvz7000wykztnldq</v>
@@ -11750,10 +11750,10 @@
         <v>init1wq2t6u5gffscxczw6x2yq97jzzc5sxrmm9nqxe</v>
       </c>
       <c r="D502" t="str">
-        <v>10.251789</v>
-      </c>
-      <c r="E502" t="str">
-        <v>21.345427</v>
+        <v>9</v>
+      </c>
+      <c r="E502" t="b">
+        <v>1</v>
       </c>
       <c r="F502" t="str">
         <v>init1wq2t6u5gffscxczw6x2yq97jzzc5sxrmm9nqxe</v>
@@ -11773,10 +11773,10 @@
         <v>init1mclds2rt74nt5qyzk4rwfyufaw99td5v3dhdax</v>
       </c>
       <c r="D503" t="str">
-        <v>0.429000</v>
-      </c>
-      <c r="E503" t="str">
-        <v>1.349602</v>
+        <v>11</v>
+      </c>
+      <c r="E503" t="b">
+        <v>1</v>
       </c>
       <c r="F503" t="str">
         <v>init1mclds2rt74nt5qyzk4rwfyufaw99td5v3dhdax</v>
@@ -11796,10 +11796,10 @@
         <v>init1efael8v7v0wpk9yed20quaj5f939fknw98yxaj</v>
       </c>
       <c r="D504" t="str">
-        <v>0.711205</v>
-      </c>
-      <c r="E504" t="str">
-        <v>3.249289</v>
+        <v>5</v>
+      </c>
+      <c r="E504" t="b">
+        <v>1</v>
       </c>
       <c r="F504" t="str">
         <v>init1efael8v7v0wpk9yed20quaj5f939fknw98yxaj</v>
@@ -11819,10 +11819,10 @@
         <v>init1g3ut9f27wzpwvh9vggqgqjvg50xu5kn4n6l08z</v>
       </c>
       <c r="D505" t="str">
-        <v>0.686614</v>
-      </c>
-      <c r="E505" t="str">
-        <v>1.216099</v>
+        <v>9</v>
+      </c>
+      <c r="E505" t="b">
+        <v>1</v>
       </c>
       <c r="F505" t="str">
         <v>init1g3ut9f27wzpwvh9vggqgqjvg50xu5kn4n6l08z</v>
@@ -11842,10 +11842,10 @@
         <v>init1zhpyp465np3smn3rmlj9dshnawfe9ftuex239u</v>
       </c>
       <c r="D506" t="str">
-        <v>10.489424</v>
-      </c>
-      <c r="E506" t="str">
-        <v>32.227534</v>
+        <v>15</v>
+      </c>
+      <c r="E506" t="b">
+        <v>1</v>
       </c>
       <c r="F506" t="str">
         <v>init1zhpyp465np3smn3rmlj9dshnawfe9ftuex239u</v>
@@ -11865,10 +11865,10 @@
         <v>init1yazjv0s2ghc227ju4k97k4jhfk099hq5kc0ajd</v>
       </c>
       <c r="D507" t="str">
-        <v>0.754800</v>
-      </c>
-      <c r="E507" t="str">
-        <v>0.002074</v>
+        <v>11</v>
+      </c>
+      <c r="E507" t="b">
+        <v>1</v>
       </c>
       <c r="F507" t="str">
         <v>init1yazjv0s2ghc227ju4k97k4jhfk099hq5kc0ajd</v>
@@ -11888,10 +11888,10 @@
         <v>init1rngaj8tuzzclzm23ngtt8sq2yru3qe8p3hqy07</v>
       </c>
       <c r="D508" t="str">
-        <v>0.765352</v>
-      </c>
-      <c r="E508" t="str">
-        <v>1.903001</v>
+        <v>7</v>
+      </c>
+      <c r="E508" t="b">
+        <v>1</v>
       </c>
       <c r="F508" t="str">
         <v>init1rngaj8tuzzclzm23ngtt8sq2yru3qe8p3hqy07</v>
@@ -11911,10 +11911,10 @@
         <v>init1zw4ahgypa6skt9vh9u4u8j7gdfmppfe09axaht</v>
       </c>
       <c r="D509" t="str">
-        <v>0.859645</v>
-      </c>
-      <c r="E509" t="str">
-        <v>3.739408</v>
+        <v>9</v>
+      </c>
+      <c r="E509" t="b">
+        <v>1</v>
       </c>
       <c r="F509" t="str">
         <v>init1zw4ahgypa6skt9vh9u4u8j7gdfmppfe09axaht</v>
@@ -11934,10 +11934,10 @@
         <v>init1vk7w2ppat9tgkyfccpjk40k0sa7ejer6mh57uz</v>
       </c>
       <c r="D510" t="str">
-        <v>0.798318</v>
-      </c>
-      <c r="E510" t="str">
-        <v>9.600001</v>
+        <v>9</v>
+      </c>
+      <c r="E510" t="b">
+        <v>1</v>
       </c>
       <c r="F510" t="str">
         <v>init1vk7w2ppat9tgkyfccpjk40k0sa7ejer6mh57uz</v>
@@ -11957,10 +11957,10 @@
         <v>init10kw6d09uwxl959k2mlz75qadpnftgrl6lyca9x</v>
       </c>
       <c r="D511" t="str">
-        <v>0.491807</v>
-      </c>
-      <c r="E511" t="str">
-        <v>0.825507</v>
+        <v>11</v>
+      </c>
+      <c r="E511" t="b">
+        <v>1</v>
       </c>
       <c r="F511" t="str">
         <v>init10kw6d09uwxl959k2mlz75qadpnftgrl6lyca9x</v>
@@ -11980,10 +11980,10 @@
         <v>init1e36drqhgpl00nlvlr09spludxwpfluqk048sru</v>
       </c>
       <c r="D512" t="str">
-        <v>10.538973</v>
-      </c>
-      <c r="E512" t="str">
-        <v>32.211689</v>
+        <v>11</v>
+      </c>
+      <c r="E512" t="b">
+        <v>1</v>
       </c>
       <c r="F512" t="str">
         <v>init1e36drqhgpl00nlvlr09spludxwpfluqk048sru</v>
@@ -12003,10 +12003,10 @@
         <v>init1l4qd9qrgf36f5y72h9klac8q2hu076hr0k5nxu</v>
       </c>
       <c r="D513" t="str">
-        <v>0.554395</v>
-      </c>
-      <c r="E513" t="str">
-        <v>0.335908</v>
+        <v>9</v>
+      </c>
+      <c r="E513" t="b">
+        <v>1</v>
       </c>
       <c r="F513" t="str">
         <v>init1l4qd9qrgf36f5y72h9klac8q2hu076hr0k5nxu</v>
@@ -12026,10 +12026,10 @@
         <v>init1al8jfv0ff6d89mrchz07xrexg5r3z0udg93y66</v>
       </c>
       <c r="D514" t="str">
-        <v>10.546996</v>
-      </c>
-      <c r="E514" t="str">
-        <v>23.747443</v>
+        <v>9</v>
+      </c>
+      <c r="E514" t="b">
+        <v>1</v>
       </c>
       <c r="F514" t="str">
         <v>init1al8jfv0ff6d89mrchz07xrexg5r3z0udg93y66</v>
@@ -12049,10 +12049,10 @@
         <v>init159akxw3snsyja9j9rrv279c66hnm9v7mpay69d</v>
       </c>
       <c r="D515" t="str">
-        <v>0.727071</v>
-      </c>
-      <c r="E515" t="str">
-        <v>0.335879</v>
+        <v>5</v>
+      </c>
+      <c r="E515" t="b">
+        <v>1</v>
       </c>
       <c r="F515" t="str">
         <v>init159akxw3snsyja9j9rrv279c66hnm9v7mpay69d</v>
@@ -12072,10 +12072,10 @@
         <v>init13zcggenn5nshvul45nx98vych93ladt98wk7md</v>
       </c>
       <c r="D516" t="str">
-        <v>0.343233</v>
-      </c>
-      <c r="E516" t="str">
-        <v>0.845716</v>
+        <v>9</v>
+      </c>
+      <c r="E516" t="b">
+        <v>1</v>
       </c>
       <c r="F516" t="str">
         <v>init13zcggenn5nshvul45nx98vych93ladt98wk7md</v>
@@ -12095,10 +12095,10 @@
         <v>init1wymndv52a57v28t04chcyt52zn8w67jnlyek96</v>
       </c>
       <c r="D517" t="str">
-        <v>0.699223</v>
-      </c>
-      <c r="E517" t="str">
-        <v>4.110458</v>
+        <v>5</v>
+      </c>
+      <c r="E517" t="b">
+        <v>1</v>
       </c>
       <c r="F517" t="str">
         <v>init1wymndv52a57v28t04chcyt52zn8w67jnlyek96</v>
@@ -12118,10 +12118,10 @@
         <v>init1stjnf780yney0lxput923prntnsuglwy8rm3da</v>
       </c>
       <c r="D518" t="str">
-        <v>0.643504</v>
-      </c>
-      <c r="E518" t="str">
-        <v>0.223883</v>
+        <v>9</v>
+      </c>
+      <c r="E518" t="b">
+        <v>1</v>
       </c>
       <c r="F518" t="str">
         <v>init1stjnf780yney0lxput923prntnsuglwy8rm3da</v>
@@ -12141,10 +12141,10 @@
         <v>init1hdgd2clnut4f8vu4td4e2apnw06hug8hf2425f</v>
       </c>
       <c r="D519" t="str">
-        <v>0.749493</v>
-      </c>
-      <c r="E519" t="str">
-        <v>0.920591</v>
+        <v>11</v>
+      </c>
+      <c r="E519" t="b">
+        <v>1</v>
       </c>
       <c r="F519" t="str">
         <v>init1hdgd2clnut4f8vu4td4e2apnw06hug8hf2425f</v>
@@ -12164,10 +12164,10 @@
         <v>init1sxdlvpg5pxze64u76pu82p4vmm89uwhfnfyudn</v>
       </c>
       <c r="D520" t="str">
-        <v>0.682032</v>
-      </c>
-      <c r="E520" t="str">
-        <v>1.322903</v>
+        <v>9</v>
+      </c>
+      <c r="E520" t="b">
+        <v>1</v>
       </c>
       <c r="F520" t="str">
         <v>init1sxdlvpg5pxze64u76pu82p4vmm89uwhfnfyudn</v>
@@ -12187,10 +12187,10 @@
         <v>init1jedl8993ptcay49w9dulcj4exxh0que5qhuz8h</v>
       </c>
       <c r="D521" t="str">
-        <v>0.352711</v>
-      </c>
-      <c r="E521" t="str">
-        <v>1.049487</v>
+        <v>5</v>
+      </c>
+      <c r="E521" t="b">
+        <v>1</v>
       </c>
       <c r="F521" t="str">
         <v>init1jedl8993ptcay49w9dulcj4exxh0que5qhuz8h</v>
@@ -12210,10 +12210,10 @@
         <v>init1pk9l2hk4zglgtfawgse47fx2kx8wfk7u2kgsk4</v>
       </c>
       <c r="D522" t="str">
-        <v>0.455103</v>
-      </c>
-      <c r="E522" t="str">
-        <v>0.150613</v>
+        <v>9</v>
+      </c>
+      <c r="E522" t="b">
+        <v>1</v>
       </c>
       <c r="F522" t="str">
         <v>init1pk9l2hk4zglgtfawgse47fx2kx8wfk7u2kgsk4</v>
@@ -12233,10 +12233,10 @@
         <v>init1uqhdgq2unthzxfmz6thrj547zcjd2jk7zz6atc</v>
       </c>
       <c r="D523" t="str">
-        <v>0.720106</v>
-      </c>
-      <c r="E523" t="str">
-        <v>0.230750</v>
+        <v>5</v>
+      </c>
+      <c r="E523" t="b">
+        <v>1</v>
       </c>
       <c r="F523" t="str">
         <v>init1uqhdgq2unthzxfmz6thrj547zcjd2jk7zz6atc</v>
@@ -12256,10 +12256,10 @@
         <v>init150wua2drrh604ee79mtxpyuvvhyrlyn53n4te6</v>
       </c>
       <c r="D524" t="str">
-        <v>10.495436</v>
-      </c>
-      <c r="E524" t="str">
-        <v>19.440269</v>
+        <v>7</v>
+      </c>
+      <c r="E524" t="b">
+        <v>1</v>
       </c>
       <c r="F524" t="str">
         <v>init150wua2drrh604ee79mtxpyuvvhyrlyn53n4te6</v>
@@ -12279,10 +12279,10 @@
         <v>init1633dxt6gadlvdk7k33h8urr430enjc4nnnus82</v>
       </c>
       <c r="D525" t="str">
-        <v>0.617230</v>
-      </c>
-      <c r="E525" t="str">
-        <v>0.873537</v>
+        <v>9</v>
+      </c>
+      <c r="E525" t="b">
+        <v>1</v>
       </c>
       <c r="F525" t="str">
         <v>init1633dxt6gadlvdk7k33h8urr430enjc4nnnus82</v>
@@ -12302,10 +12302,10 @@
         <v>init1rj5g7hq2vavq8xrxw4ye68f79pu4d0zxtvykel</v>
       </c>
       <c r="D526" t="str">
-        <v>0.642855</v>
-      </c>
-      <c r="E526" t="str">
-        <v>1.217620</v>
+        <v>7</v>
+      </c>
+      <c r="E526" t="b">
+        <v>1</v>
       </c>
       <c r="F526" t="str">
         <v>init1rj5g7hq2vavq8xrxw4ye68f79pu4d0zxtvykel</v>
@@ -12325,10 +12325,10 @@
         <v>init1kd36qj8vp3cdn4924483gg4s0g2knq3agu76x6</v>
       </c>
       <c r="D527" t="str">
-        <v>0.669098</v>
-      </c>
-      <c r="E527" t="str">
-        <v>0.200005</v>
+        <v>9</v>
+      </c>
+      <c r="E527" t="b">
+        <v>1</v>
       </c>
       <c r="F527" t="str">
         <v>init1kd36qj8vp3cdn4924483gg4s0g2knq3agu76x6</v>
@@ -12348,10 +12348,10 @@
         <v>init1hv4702lv5yumelmalsrlzyv88gvwm39dkgtwne</v>
       </c>
       <c r="D528" t="str">
-        <v>0.582751</v>
-      </c>
-      <c r="E528" t="str">
-        <v>2.057652</v>
+        <v>9</v>
+      </c>
+      <c r="E528" t="b">
+        <v>1</v>
       </c>
       <c r="F528" t="str">
         <v>init1hv4702lv5yumelmalsrlzyv88gvwm39dkgtwne</v>
@@ -12371,10 +12371,10 @@
         <v>init1w5tght4s09chxhvfecc9jtj5zyljlaqarapswh</v>
       </c>
       <c r="D529" t="str">
-        <v>0.634431</v>
-      </c>
-      <c r="E529" t="str">
-        <v>0.710881</v>
+        <v>7</v>
+      </c>
+      <c r="E529" t="b">
+        <v>1</v>
       </c>
       <c r="F529" t="str">
         <v>init1w5tght4s09chxhvfecc9jtj5zyljlaqarapswh</v>
@@ -12394,10 +12394,10 @@
         <v>init1qypvcc2e4d2w26kvxutej7x8yt8l2s9ryaj3kt</v>
       </c>
       <c r="D530" t="str">
-        <v>0.721952</v>
-      </c>
-      <c r="E530" t="str">
-        <v>0.919296</v>
+        <v>9</v>
+      </c>
+      <c r="E530" t="b">
+        <v>1</v>
       </c>
       <c r="F530" t="str">
         <v>init1qypvcc2e4d2w26kvxutej7x8yt8l2s9ryaj3kt</v>
@@ -12417,10 +12417,10 @@
         <v>init100v64lfkw2k0p2cm2agpr4zdavqzm0hqm5zx4m</v>
       </c>
       <c r="D531" t="str">
-        <v>0.641378</v>
-      </c>
-      <c r="E531" t="str">
-        <v>1.249463</v>
+        <v>7</v>
+      </c>
+      <c r="E531" t="b">
+        <v>1</v>
       </c>
       <c r="F531" t="str">
         <v>init100v64lfkw2k0p2cm2agpr4zdavqzm0hqm5zx4m</v>
@@ -12440,10 +12440,10 @@
         <v>init19dz2vghw3r0gjedchrsc2zu2yxpz3uv5ckzu8x</v>
       </c>
       <c r="D532" t="str">
-        <v>10.396653</v>
-      </c>
-      <c r="E532" t="str">
-        <v>20.756149</v>
+        <v>7</v>
+      </c>
+      <c r="E532" t="b">
+        <v>1</v>
       </c>
       <c r="F532" t="str">
         <v>init19dz2vghw3r0gjedchrsc2zu2yxpz3uv5ckzu8x</v>
@@ -12463,10 +12463,10 @@
         <v>init1vy6nmr9hf4pjdz9dl6m947ygfmm24nkslp2vrg</v>
       </c>
       <c r="D533" t="str">
-        <v>0.568222</v>
-      </c>
-      <c r="E533" t="str">
-        <v>9.213756</v>
+        <v>9</v>
+      </c>
+      <c r="E533" t="b">
+        <v>1</v>
       </c>
       <c r="F533" t="str">
         <v>init1vy6nmr9hf4pjdz9dl6m947ygfmm24nkslp2vrg</v>
@@ -12486,10 +12486,10 @@
         <v>init1glkr7kretlfw7shef3aetp5ex4wldcf2n07s2a</v>
       </c>
       <c r="D534" t="str">
-        <v>0.528087</v>
-      </c>
-      <c r="E534" t="str">
-        <v>29.140804</v>
+        <v>11</v>
+      </c>
+      <c r="E534" t="b">
+        <v>1</v>
       </c>
       <c r="F534" t="str">
         <v>init1glkr7kretlfw7shef3aetp5ex4wldcf2n07s2a</v>
@@ -12509,10 +12509,10 @@
         <v>init1l2w72rvsp96phpk54qft9mezrlktjwlqs8a7hm</v>
       </c>
       <c r="D535" t="str">
-        <v>0.693610</v>
-      </c>
-      <c r="E535" t="str">
-        <v>26.129163</v>
+        <v>7</v>
+      </c>
+      <c r="E535" t="b">
+        <v>1</v>
       </c>
       <c r="F535" t="str">
         <v>init1l2w72rvsp96phpk54qft9mezrlktjwlqs8a7hm</v>
@@ -12532,10 +12532,10 @@
         <v>init15l6xw9f5r9wtkra5ty5gvzze6vrdvm3a465ajf</v>
       </c>
       <c r="D536" t="str">
-        <v>0.809559</v>
-      </c>
-      <c r="E536" t="str">
-        <v>17.044818</v>
+        <v>9</v>
+      </c>
+      <c r="E536" t="b">
+        <v>1</v>
       </c>
       <c r="F536" t="str">
         <v>init15l6xw9f5r9wtkra5ty5gvzze6vrdvm3a465ajf</v>
@@ -12555,10 +12555,10 @@
         <v>init1xnqmev9p3nlclpxdfhpc48783pxdmfs3pzxtah</v>
       </c>
       <c r="D537" t="str">
-        <v>0.810135</v>
-      </c>
-      <c r="E537" t="str">
-        <v>38.044782</v>
+        <v>7</v>
+      </c>
+      <c r="E537" t="b">
+        <v>1</v>
       </c>
       <c r="F537" t="str">
         <v>init1xnqmev9p3nlclpxdfhpc48783pxdmfs3pzxtah</v>
@@ -12578,10 +12578,10 @@
         <v>init1cv3gfnfhxr5v7p8pc96qy9clrefel3qnaj9cjh</v>
       </c>
       <c r="D538" t="str">
-        <v>0.469296</v>
-      </c>
-      <c r="E538" t="str">
-        <v>10.054261</v>
+        <v>11</v>
+      </c>
+      <c r="E538" t="b">
+        <v>1</v>
       </c>
       <c r="F538" t="str">
         <v>init1cv3gfnfhxr5v7p8pc96qy9clrefel3qnaj9cjh</v>
@@ -12601,10 +12601,10 @@
         <v>init1377avu9p2fuxtgva7qexsam0mwksnvsn4pltw6</v>
       </c>
       <c r="D539" t="str">
-        <v>0.916024</v>
-      </c>
-      <c r="E539" t="str">
-        <v>34.987502</v>
+        <v>11</v>
+      </c>
+      <c r="E539" t="b">
+        <v>1</v>
       </c>
       <c r="F539" t="str">
         <v>init1377avu9p2fuxtgva7qexsam0mwksnvsn4pltw6</v>
@@ -12624,10 +12624,10 @@
         <v>init1wxuy8hqca2lkf2u0xztldsu6ezks6gdrdxrsy3</v>
       </c>
       <c r="D540" t="str">
-        <v>0.652301</v>
-      </c>
-      <c r="E540" t="str">
-        <v>20.200549</v>
+        <v>9</v>
+      </c>
+      <c r="E540" t="b">
+        <v>1</v>
       </c>
       <c r="F540" t="str">
         <v>init1wxuy8hqca2lkf2u0xztldsu6ezks6gdrdxrsy3</v>
@@ -12647,10 +12647,10 @@
         <v>init1vmz4qxmhzuk8zr32dgjh4nwysgvphjtfqtqjvc</v>
       </c>
       <c r="D541" t="str">
-        <v>0.604220</v>
-      </c>
-      <c r="E541" t="str">
-        <v>28.207771</v>
+        <v>5</v>
+      </c>
+      <c r="E541" t="b">
+        <v>1</v>
       </c>
       <c r="F541" t="str">
         <v>init1vmz4qxmhzuk8zr32dgjh4nwysgvphjtfqtqjvc</v>
@@ -12670,10 +12670,10 @@
         <v>init12l4498n9dtjj8kyt4uydnnyjttr2hxxkr2jfe3</v>
       </c>
       <c r="D542" t="str">
-        <v>0.675007</v>
-      </c>
-      <c r="E542" t="str">
-        <v>29.059724</v>
+        <v>7</v>
+      </c>
+      <c r="E542" t="b">
+        <v>1</v>
       </c>
       <c r="F542" t="str">
         <v>init12l4498n9dtjj8kyt4uydnnyjttr2hxxkr2jfe3</v>
@@ -12693,10 +12693,10 @@
         <v>init1nf0x2qykevhzyy6wws8fpa8jw6z3v6egjeqysx</v>
       </c>
       <c r="D543" t="str">
-        <v>0.933878</v>
-      </c>
-      <c r="E543" t="str">
-        <v>30.079729</v>
+        <v>7</v>
+      </c>
+      <c r="E543" t="b">
+        <v>1</v>
       </c>
       <c r="F543" t="str">
         <v>init1nf0x2qykevhzyy6wws8fpa8jw6z3v6egjeqysx</v>
@@ -12716,10 +12716,10 @@
         <v>init1673ez5lwkelfzdvfgt20q2fc5typkplq6nh4ml</v>
       </c>
       <c r="D544" t="str">
-        <v>0.980202</v>
-      </c>
-      <c r="E544" t="str">
-        <v>23.048664</v>
+        <v>9</v>
+      </c>
+      <c r="E544" t="b">
+        <v>1</v>
       </c>
       <c r="F544" t="str">
         <v>init1673ez5lwkelfzdvfgt20q2fc5typkplq6nh4ml</v>
@@ -12739,10 +12739,10 @@
         <v>init1lq2apa692eqa283hmuffe4zjee3nwsaqxcuyhg</v>
       </c>
       <c r="D545" t="str">
-        <v>10.615652</v>
-      </c>
-      <c r="E545" t="str">
-        <v>56.100038</v>
+        <v>6</v>
+      </c>
+      <c r="E545" t="b">
+        <v>1</v>
       </c>
       <c r="F545" t="str">
         <v>init1lq2apa692eqa283hmuffe4zjee3nwsaqxcuyhg</v>
@@ -12762,10 +12762,10 @@
         <v>init1z8r2d8tda3l7kgdsv0p46weaxhhugux8vn2vle</v>
       </c>
       <c r="D546" t="str">
-        <v>0.729581</v>
-      </c>
-      <c r="E546" t="str">
-        <v>25.145909</v>
+        <v>9</v>
+      </c>
+      <c r="E546" t="b">
+        <v>1</v>
       </c>
       <c r="F546" t="str">
         <v>init1z8r2d8tda3l7kgdsv0p46weaxhhugux8vn2vle</v>
@@ -12785,10 +12785,10 @@
         <v>init19t76mav723hxhqyg9s8v3r75cp9xtdyhfgcdzc</v>
       </c>
       <c r="D547" t="str">
-        <v>0.944185</v>
-      </c>
-      <c r="E547" t="str">
-        <v>22.112097</v>
+        <v>11</v>
+      </c>
+      <c r="E547" t="b">
+        <v>1</v>
       </c>
       <c r="F547" t="str">
         <v>init19t76mav723hxhqyg9s8v3r75cp9xtdyhfgcdzc</v>
@@ -12808,10 +12808,10 @@
         <v>init1mva5jd7tg598nluvzece5xu5hkdswyfuex79yj</v>
       </c>
       <c r="D548" t="str">
-        <v>0.276211</v>
-      </c>
-      <c r="E548" t="str">
-        <v>16.206191</v>
+        <v>7</v>
+      </c>
+      <c r="E548" t="b">
+        <v>1</v>
       </c>
       <c r="F548" t="str">
         <v>init1mva5jd7tg598nluvzece5xu5hkdswyfuex79yj</v>
@@ -12831,10 +12831,10 @@
         <v>init144fhznjsrmach7fkwrzq9re77v098atggcjw38</v>
       </c>
       <c r="D549" t="str">
-        <v>0.703944</v>
-      </c>
-      <c r="E549" t="str">
-        <v>16.994332</v>
+        <v>11</v>
+      </c>
+      <c r="E549" t="b">
+        <v>1</v>
       </c>
       <c r="F549" t="str">
         <v>init144fhznjsrmach7fkwrzq9re77v098atggcjw38</v>
@@ -12854,10 +12854,10 @@
         <v>init17ueu4z5rllhhwtuxytgx5vnka8m6uwsg7dqp8v</v>
       </c>
       <c r="D550" t="str">
-        <v>0.575634</v>
-      </c>
-      <c r="E550" t="str">
-        <v>9.200026</v>
+        <v>7</v>
+      </c>
+      <c r="E550" t="b">
+        <v>1</v>
       </c>
       <c r="F550" t="str">
         <v>init17ueu4z5rllhhwtuxytgx5vnka8m6uwsg7dqp8v</v>
@@ -12877,10 +12877,10 @@
         <v>init1cu8j5tq2h2pzumy303cwepcvwlqvzy8wtmc4tg</v>
       </c>
       <c r="D551" t="str">
-        <v>0.713256</v>
-      </c>
-      <c r="E551" t="str">
-        <v>15.205966</v>
+        <v>9</v>
+      </c>
+      <c r="E551" t="b">
+        <v>1</v>
       </c>
       <c r="F551" t="str">
         <v>init1cu8j5tq2h2pzumy303cwepcvwlqvzy8wtmc4tg</v>
@@ -12900,10 +12900,10 @@
         <v>init1tf9u6p8mx5ccraae2ksd5w40mu86ugaha927ay</v>
       </c>
       <c r="D552" t="str">
-        <v>10.226399</v>
-      </c>
-      <c r="E552" t="str">
-        <v>34.235812</v>
+        <v>11</v>
+      </c>
+      <c r="E552" t="b">
+        <v>1</v>
       </c>
       <c r="F552" t="str">
         <v>init1tf9u6p8mx5ccraae2ksd5w40mu86ugaha927ay</v>
@@ -12923,10 +12923,10 @@
         <v>init1m23ltlqn47rpyzk4ja87lehyp8rxapcm3zl283</v>
       </c>
       <c r="D553" t="str">
-        <v>0.651853</v>
-      </c>
-      <c r="E553" t="str">
-        <v>4.201123</v>
+        <v>11</v>
+      </c>
+      <c r="E553" t="b">
+        <v>1</v>
       </c>
       <c r="F553" t="str">
         <v>init1m23ltlqn47rpyzk4ja87lehyp8rxapcm3zl283</v>
@@ -12946,10 +12946,10 @@
         <v>init1jzyutj3rsfdu0whpyh83dwx8n9j2qkmey4kwvv</v>
       </c>
       <c r="D554" t="str">
-        <v>0.363774</v>
-      </c>
-      <c r="E554" t="str">
-        <v>6.197434</v>
+        <v>9</v>
+      </c>
+      <c r="E554" t="b">
+        <v>1</v>
       </c>
       <c r="F554" t="str">
         <v>init1jzyutj3rsfdu0whpyh83dwx8n9j2qkmey4kwvv</v>
@@ -12969,10 +12969,10 @@
         <v>init172kwgh9y5lkl9rj7h72w2ghj3l6l749r9ne7zx</v>
       </c>
       <c r="D555" t="str">
-        <v>0.711616</v>
-      </c>
-      <c r="E555" t="str">
-        <v>42.200015</v>
+        <v>7</v>
+      </c>
+      <c r="E555" t="b">
+        <v>1</v>
       </c>
       <c r="F555" t="str">
         <v>init172kwgh9y5lkl9rj7h72w2ghj3l6l749r9ne7zx</v>
@@ -12992,10 +12992,10 @@
         <v>init17wmu4jscwtjvpspw2zk098f2u6jgetpu32nxn5</v>
       </c>
       <c r="D556" t="str">
-        <v>0.565376</v>
-      </c>
-      <c r="E556" t="str">
-        <v>41.200006</v>
+        <v>7</v>
+      </c>
+      <c r="E556" t="b">
+        <v>1</v>
       </c>
       <c r="F556" t="str">
         <v>init17wmu4jscwtjvpspw2zk098f2u6jgetpu32nxn5</v>
@@ -13015,10 +13015,10 @@
         <v>init1aqws2qr70x2cg5t4ucg8qfqtf0pcjtqnkk2q8f</v>
       </c>
       <c r="D557" t="str">
-        <v>0.787112</v>
-      </c>
-      <c r="E557" t="str">
-        <v>35.111722</v>
+        <v>11</v>
+      </c>
+      <c r="E557" t="b">
+        <v>1</v>
       </c>
       <c r="F557" t="str">
         <v>init1aqws2qr70x2cg5t4ucg8qfqtf0pcjtqnkk2q8f</v>
@@ -13038,10 +13038,10 @@
         <v>init16srarrws7hr0fwjy4py3pffwryvd2jemdf0xtp</v>
       </c>
       <c r="D558" t="str">
-        <v>0.337235</v>
-      </c>
-      <c r="E558" t="str">
-        <v>36.200093</v>
+        <v>9</v>
+      </c>
+      <c r="E558" t="b">
+        <v>1</v>
       </c>
       <c r="F558" t="str">
         <v>init16srarrws7hr0fwjy4py3pffwryvd2jemdf0xtp</v>
@@ -13061,10 +13061,10 @@
         <v>init1xf0qtyyfg25rgesftxp4ad346j6wnhdd6ddcf5</v>
       </c>
       <c r="D559" t="str">
-        <v>0.708457</v>
-      </c>
-      <c r="E559" t="str">
-        <v>38.200017</v>
+        <v>9</v>
+      </c>
+      <c r="E559" t="b">
+        <v>1</v>
       </c>
       <c r="F559" t="str">
         <v>init1xf0qtyyfg25rgesftxp4ad346j6wnhdd6ddcf5</v>
@@ -13084,10 +13084,10 @@
         <v>init1r42c0v54jtzmw6kcdrxvke57s0dh2x7hvqylge</v>
       </c>
       <c r="D560" t="str">
-        <v>0.637964</v>
-      </c>
-      <c r="E560" t="str">
-        <v>2.304341</v>
+        <v>5</v>
+      </c>
+      <c r="E560" t="b">
+        <v>1</v>
       </c>
       <c r="F560" t="str">
         <v>init1r42c0v54jtzmw6kcdrxvke57s0dh2x7hvqylge</v>
@@ -13107,10 +13107,10 @@
         <v>init1ra75fdf6tqr88pa3f78jdx7s4j0g60dptdyycy</v>
       </c>
       <c r="D561" t="str">
-        <v>10.339649</v>
-      </c>
-      <c r="E561" t="str">
-        <v>41.210990</v>
+        <v>7</v>
+      </c>
+      <c r="E561" t="b">
+        <v>1</v>
       </c>
       <c r="F561" t="str">
         <v>init1ra75fdf6tqr88pa3f78jdx7s4j0g60dptdyycy</v>
@@ -13130,10 +13130,10 @@
         <v>init1at75quuvn8tjnnqqvgxnntxp9nmy6vd0vgg2n8</v>
       </c>
       <c r="D562" t="str">
-        <v>0.749746</v>
-      </c>
-      <c r="E562" t="str">
-        <v>30.995576</v>
+        <v>9</v>
+      </c>
+      <c r="E562" t="b">
+        <v>1</v>
       </c>
       <c r="F562" t="str">
         <v>init1at75quuvn8tjnnqqvgxnntxp9nmy6vd0vgg2n8</v>
@@ -13153,10 +13153,10 @@
         <v>init1cfujfstekt7dx8eqx04qcgakhs8zjsxr9nc2sk</v>
       </c>
       <c r="D563" t="str">
-        <v>0.666947</v>
-      </c>
-      <c r="E563" t="str">
-        <v>32.117723</v>
+        <v>11</v>
+      </c>
+      <c r="E563" t="b">
+        <v>1</v>
       </c>
       <c r="F563" t="str">
         <v>init1cfujfstekt7dx8eqx04qcgakhs8zjsxr9nc2sk</v>
@@ -13176,10 +13176,10 @@
         <v>init1y63s2f7vawnehh97xvyehelacjyk75zhvr9kfn</v>
       </c>
       <c r="D564" t="str">
-        <v>0.827594</v>
-      </c>
-      <c r="E564" t="str">
-        <v>34.109079</v>
+        <v>7</v>
+      </c>
+      <c r="E564" t="b">
+        <v>1</v>
       </c>
       <c r="F564" t="str">
         <v>init1y63s2f7vawnehh97xvyehelacjyk75zhvr9kfn</v>
@@ -13199,10 +13199,10 @@
         <v>init193pypfxxj3gtnj8xpekpqjws08z7rlr95m3eq2</v>
       </c>
       <c r="D565" t="str">
-        <v>0.785546</v>
-      </c>
-      <c r="E565" t="str">
-        <v>22.262078</v>
+        <v>9</v>
+      </c>
+      <c r="E565" t="b">
+        <v>1</v>
       </c>
       <c r="F565" t="str">
         <v>init193pypfxxj3gtnj8xpekpqjws08z7rlr95m3eq2</v>
@@ -13222,10 +13222,10 @@
         <v>init14gxh8tvfljfk09an77mrgayf8zcvnm57djx7v6</v>
       </c>
       <c r="D566" t="str">
-        <v>0.669328</v>
-      </c>
-      <c r="E566" t="str">
-        <v>29.845526</v>
+        <v>9</v>
+      </c>
+      <c r="E566" t="b">
+        <v>1</v>
       </c>
       <c r="F566" t="str">
         <v>init14gxh8tvfljfk09an77mrgayf8zcvnm57djx7v6</v>
@@ -13245,10 +13245,10 @@
         <v>init1w90eke674n4uk5ld3mrthcrya2qvdfjp99zgq6</v>
       </c>
       <c r="D567" t="str">
-        <v>0.615056</v>
-      </c>
-      <c r="E567" t="str">
-        <v>35.012853</v>
+        <v>9</v>
+      </c>
+      <c r="E567" t="b">
+        <v>1</v>
       </c>
       <c r="F567" t="str">
         <v>init1w90eke674n4uk5ld3mrthcrya2qvdfjp99zgq6</v>
@@ -13268,10 +13268,10 @@
         <v>init1gaehfa4vnkujnl2v47xeezazmvm29egrhjhmn4</v>
       </c>
       <c r="D568" t="str">
-        <v>0.759790</v>
-      </c>
-      <c r="E568" t="str">
-        <v>35.881923</v>
+        <v>9</v>
+      </c>
+      <c r="E568" t="b">
+        <v>1</v>
       </c>
       <c r="F568" t="str">
         <v>init1gaehfa4vnkujnl2v47xeezazmvm29egrhjhmn4</v>
@@ -13291,10 +13291,10 @@
         <v>init1xy6v9dtf8kq796aucmurxnl8dwzlteq2ynteq5</v>
       </c>
       <c r="D569" t="str">
-        <v>0.774896</v>
-      </c>
-      <c r="E569" t="str">
-        <v>17.044051</v>
+        <v>11</v>
+      </c>
+      <c r="E569" t="b">
+        <v>1</v>
       </c>
       <c r="F569" t="str">
         <v>init1xy6v9dtf8kq796aucmurxnl8dwzlteq2ynteq5</v>
@@ -13314,10 +13314,10 @@
         <v>init1efzpkwfnjn2fe9ujsh8v96wxfugpa6gupy5a5z</v>
       </c>
       <c r="D570" t="str">
-        <v>0.874641</v>
-      </c>
-      <c r="E570" t="str">
-        <v>31.917712</v>
+        <v>7</v>
+      </c>
+      <c r="E570" t="b">
+        <v>1</v>
       </c>
       <c r="F570" t="str">
         <v>init1efzpkwfnjn2fe9ujsh8v96wxfugpa6gupy5a5z</v>
@@ -13337,10 +13337,10 @@
         <v>init1aqr2g3dsnw9y4229wp00lnzlnx7j9myppk7x4r</v>
       </c>
       <c r="D571" t="str">
-        <v>0.710422</v>
-      </c>
-      <c r="E571" t="str">
-        <v>35.444048</v>
+        <v>11</v>
+      </c>
+      <c r="E571" t="b">
+        <v>1</v>
       </c>
       <c r="F571" t="str">
         <v>init1aqr2g3dsnw9y4229wp00lnzlnx7j9myppk7x4r</v>
@@ -13360,10 +13360,10 @@
         <v>init1sxghsscmhge3rxn7m07sk3f3vppu3y59mt7xyf</v>
       </c>
       <c r="D572" t="str">
-        <v>0.712717</v>
-      </c>
-      <c r="E572" t="str">
-        <v>37.600022</v>
+        <v>5</v>
+      </c>
+      <c r="E572" t="b">
+        <v>1</v>
       </c>
       <c r="F572" t="str">
         <v>init1sxghsscmhge3rxn7m07sk3f3vppu3y59mt7xyf</v>
@@ -13383,10 +13383,10 @@
         <v>init16z6nt4upd2hsrds5qd937cvwjh00qd35z753t3</v>
       </c>
       <c r="D573" t="str">
-        <v>0.607250</v>
-      </c>
-      <c r="E573" t="str">
-        <v>20.100011</v>
+        <v>11</v>
+      </c>
+      <c r="E573" t="b">
+        <v>1</v>
       </c>
       <c r="F573" t="str">
         <v>init16z6nt4upd2hsrds5qd937cvwjh00qd35z753t3</v>
@@ -13406,10 +13406,10 @@
         <v>init14x7t5x44m7h8d8kgdwx4t3lyg7vjj434jrmh4v</v>
       </c>
       <c r="D574" t="str">
-        <v>0.809454</v>
-      </c>
-      <c r="E574" t="str">
-        <v>31.017206</v>
+        <v>7</v>
+      </c>
+      <c r="E574" t="b">
+        <v>1</v>
       </c>
       <c r="F574" t="str">
         <v>init14x7t5x44m7h8d8kgdwx4t3lyg7vjj434jrmh4v</v>
@@ -13429,10 +13429,10 @@
         <v>init19sy07pcjd8vyl9kkg2wkf6murv2mv2256ua7dl</v>
       </c>
       <c r="D575" t="str">
-        <v>0.659081</v>
-      </c>
-      <c r="E575" t="str">
-        <v>27.044398</v>
+        <v>7</v>
+      </c>
+      <c r="E575" t="b">
+        <v>1</v>
       </c>
       <c r="F575" t="str">
         <v>init19sy07pcjd8vyl9kkg2wkf6murv2mv2256ua7dl</v>
@@ -13452,10 +13452,10 @@
         <v>init1ml5dgerk0e46jxs04wjde9gkplp9d2j99gsf6t</v>
       </c>
       <c r="D576" t="str">
-        <v>0.471970</v>
-      </c>
-      <c r="E576" t="str">
-        <v>22.200101</v>
+        <v>5</v>
+      </c>
+      <c r="E576" t="b">
+        <v>1</v>
       </c>
       <c r="F576" t="str">
         <v>init1ml5dgerk0e46jxs04wjde9gkplp9d2j99gsf6t</v>
@@ -13475,10 +13475,10 @@
         <v>init1k6pzz5pvwgm257y7v88zxv0rzadmxklhfe3etj</v>
       </c>
       <c r="D577" t="str">
-        <v>0.709562</v>
-      </c>
-      <c r="E577" t="str">
-        <v>32.200142</v>
+        <v>5</v>
+      </c>
+      <c r="E577" t="b">
+        <v>1</v>
       </c>
       <c r="F577" t="str">
         <v>init1k6pzz5pvwgm257y7v88zxv0rzadmxklhfe3etj</v>
@@ -13498,10 +13498,10 @@
         <v>init1ptd6v0ejnfn3xjq8ckcvfefaqzpu8gas4smu4s</v>
       </c>
       <c r="D578" t="str">
-        <v>0.790046</v>
-      </c>
-      <c r="E578" t="str">
-        <v>26.002483</v>
+        <v>9</v>
+      </c>
+      <c r="E578" t="b">
+        <v>1</v>
       </c>
       <c r="F578" t="str">
         <v>init1ptd6v0ejnfn3xjq8ckcvfefaqzpu8gas4smu4s</v>
@@ -13521,10 +13521,10 @@
         <v>init1ch9z3gk5am2ampc30mxgd9090q0n4gt9zctu9a</v>
       </c>
       <c r="D579" t="str">
-        <v>0.843592</v>
-      </c>
-      <c r="E579" t="str">
-        <v>20.037415</v>
+        <v>7</v>
+      </c>
+      <c r="E579" t="b">
+        <v>1</v>
       </c>
       <c r="F579" t="str">
         <v>init1ch9z3gk5am2ampc30mxgd9090q0n4gt9zctu9a</v>
@@ -13544,10 +13544,10 @@
         <v>init1cz8zzw7uxh0g38edefukel4v7q2tf4wkcq6ysw</v>
       </c>
       <c r="D580" t="str">
-        <v>0.855577</v>
-      </c>
-      <c r="E580" t="str">
-        <v>27.023960</v>
+        <v>9</v>
+      </c>
+      <c r="E580" t="b">
+        <v>1</v>
       </c>
       <c r="F580" t="str">
         <v>init1cz8zzw7uxh0g38edefukel4v7q2tf4wkcq6ysw</v>
@@ -13567,10 +13567,10 @@
         <v>init1n5xw4frghpvemdnmed02lchwrlylrd5v9vld76</v>
       </c>
       <c r="D581" t="str">
-        <v>0.770838</v>
-      </c>
-      <c r="E581" t="str">
-        <v>13.063029</v>
+        <v>7</v>
+      </c>
+      <c r="E581" t="b">
+        <v>1</v>
       </c>
       <c r="F581" t="str">
         <v>init1n5xw4frghpvemdnmed02lchwrlylrd5v9vld76</v>
@@ -13590,10 +13590,10 @@
         <v>init192qmpvq435l2037xra2zdnk27wmptaa9aqee7y</v>
       </c>
       <c r="D582" t="str">
-        <v>0.699071</v>
-      </c>
-      <c r="E582" t="str">
-        <v>27.200121</v>
+        <v>11</v>
+      </c>
+      <c r="E582" t="b">
+        <v>1</v>
       </c>
       <c r="F582" t="str">
         <v>init192qmpvq435l2037xra2zdnk27wmptaa9aqee7y</v>
@@ -13613,10 +13613,10 @@
         <v>init15cea85wwp6epxhmyem50mk5vk3szea7uxqluxw</v>
       </c>
       <c r="D583" t="str">
-        <v>4.900505</v>
-      </c>
-      <c r="E583" t="str">
-        <v>66.108502</v>
+        <v>7</v>
+      </c>
+      <c r="E583" t="b">
+        <v>1</v>
       </c>
       <c r="F583" t="str">
         <v>init15cea85wwp6epxhmyem50mk5vk3szea7uxqluxw</v>
@@ -13636,10 +13636,10 @@
         <v>init1nphgvjm4ggfhey088wwx24n7uu40ur6sa8fvm9</v>
       </c>
       <c r="D584" t="str">
-        <v>9.851227</v>
-      </c>
-      <c r="E584" t="str">
-        <v>29.035372</v>
+        <v>7</v>
+      </c>
+      <c r="E584" t="b">
+        <v>1</v>
       </c>
       <c r="F584" t="str">
         <v>init1nphgvjm4ggfhey088wwx24n7uu40ur6sa8fvm9</v>
@@ -13659,10 +13659,10 @@
         <v>init1mh6qaazxp96eegqejere6lhk48mcywlpx2umf0</v>
       </c>
       <c r="D585" t="str">
-        <v>0.846922</v>
-      </c>
-      <c r="E585" t="str">
-        <v>37.037109</v>
+        <v>7</v>
+      </c>
+      <c r="E585" t="b">
+        <v>1</v>
       </c>
       <c r="F585" t="str">
         <v>init1mh6qaazxp96eegqejere6lhk48mcywlpx2umf0</v>
@@ -13682,10 +13682,10 @@
         <v>init1jzha6d7mmj4svqt2x8qmw0udnr7rdeq4wea9ha</v>
       </c>
       <c r="D586" t="str">
-        <v>0.726926</v>
-      </c>
-      <c r="E586" t="str">
-        <v>33.185190</v>
+        <v>11</v>
+      </c>
+      <c r="E586" t="b">
+        <v>1</v>
       </c>
       <c r="F586" t="str">
         <v>init1jzha6d7mmj4svqt2x8qmw0udnr7rdeq4wea9ha</v>
@@ -13705,10 +13705,10 @@
         <v>init1j3zd52t3r3wqmfgqkrfm57kjr5f2h78t2t05an</v>
       </c>
       <c r="D587" t="str">
-        <v>0.861864</v>
-      </c>
-      <c r="E587" t="str">
-        <v>37.082909</v>
+        <v>7</v>
+      </c>
+      <c r="E587" t="b">
+        <v>1</v>
       </c>
       <c r="F587" t="str">
         <v>init1j3zd52t3r3wqmfgqkrfm57kjr5f2h78t2t05an</v>
@@ -13728,10 +13728,10 @@
         <v>init18e7rnxf0zyugttcfvy3ytll8qg2339ltwnk5q7</v>
       </c>
       <c r="D588" t="str">
-        <v>0.856133</v>
-      </c>
-      <c r="E588" t="str">
-        <v>38.052516</v>
+        <v>11</v>
+      </c>
+      <c r="E588" t="b">
+        <v>1</v>
       </c>
       <c r="F588" t="str">
         <v>init18e7rnxf0zyugttcfvy3ytll8qg2339ltwnk5q7</v>
@@ -13751,10 +13751,10 @@
         <v>init1c693kqvrquk63lf5nvq8zm94ypz08vgqzqc590</v>
       </c>
       <c r="D589" t="str">
-        <v>0.854421</v>
-      </c>
-      <c r="E589" t="str">
-        <v>33.051899</v>
+        <v>7</v>
+      </c>
+      <c r="E589" t="b">
+        <v>1</v>
       </c>
       <c r="F589" t="str">
         <v>init1c693kqvrquk63lf5nvq8zm94ypz08vgqzqc590</v>
@@ -13774,10 +13774,10 @@
         <v>init1vyt52j8f3x48tfm5qvd6xcf2sqm95nmlcdcuc6</v>
       </c>
       <c r="D590" t="str">
-        <v>0.706637</v>
-      </c>
-      <c r="E590" t="str">
-        <v>35.200021</v>
+        <v>9</v>
+      </c>
+      <c r="E590" t="b">
+        <v>1</v>
       </c>
       <c r="F590" t="str">
         <v>init1vyt52j8f3x48tfm5qvd6xcf2sqm95nmlcdcuc6</v>
@@ -13797,10 +13797,10 @@
         <v>init19ahyraepphc3dr0kjtyyrqzdnktu7sfmw2mthg</v>
       </c>
       <c r="D591" t="str">
-        <v>0.490257</v>
-      </c>
-      <c r="E591" t="str">
-        <v>4.200019</v>
+        <v>9</v>
+      </c>
+      <c r="E591" t="b">
+        <v>1</v>
       </c>
       <c r="F591" t="str">
         <v>init19ahyraepphc3dr0kjtyyrqzdnktu7sfmw2mthg</v>
@@ -13820,10 +13820,10 @@
         <v>init12qzv5d4c6ccusdxp0l25cnhnj7ytvjq5f09w8t</v>
       </c>
       <c r="D592" t="str">
-        <v>0.847894</v>
-      </c>
-      <c r="E592" t="str">
-        <v>36.056891</v>
+        <v>9</v>
+      </c>
+      <c r="E592" t="b">
+        <v>1</v>
       </c>
       <c r="F592" t="str">
         <v>init12qzv5d4c6ccusdxp0l25cnhnj7ytvjq5f09w8t</v>
@@ -13843,10 +13843,10 @@
         <v>init12knxnw07m2tpv0df8rdlqxxnqn6m8j5mn4zx75</v>
       </c>
       <c r="D593" t="str">
-        <v>0.746126</v>
-      </c>
-      <c r="E593" t="str">
-        <v>34.349534</v>
+        <v>9</v>
+      </c>
+      <c r="E593" t="b">
+        <v>1</v>
       </c>
       <c r="F593" t="str">
         <v>init12knxnw07m2tpv0df8rdlqxxnqn6m8j5mn4zx75</v>
@@ -13866,10 +13866,10 @@
         <v>init1ty56a625udgmn24qwsm8eksys3fz8lqglqqc3y</v>
       </c>
       <c r="D594" t="str">
-        <v>0.762171</v>
-      </c>
-      <c r="E594" t="str">
-        <v>36.920037</v>
+        <v>9</v>
+      </c>
+      <c r="E594" t="b">
+        <v>1</v>
       </c>
       <c r="F594" t="str">
         <v>init1ty56a625udgmn24qwsm8eksys3fz8lqglqqc3y</v>
@@ -13889,10 +13889,10 @@
         <v>init1eqgdc0m6n5jh0zp4zfp3j5mqlf5tan4njwwf7c</v>
       </c>
       <c r="D595" t="str">
-        <v>0.683344</v>
-      </c>
-      <c r="E595" t="str">
-        <v>32.076540</v>
+        <v>11</v>
+      </c>
+      <c r="E595" t="b">
+        <v>1</v>
       </c>
       <c r="F595" t="str">
         <v>init1eqgdc0m6n5jh0zp4zfp3j5mqlf5tan4njwwf7c</v>
@@ -13912,10 +13912,10 @@
         <v>init1dehdwm5vjzz92vma9r962l3hm2ah59pqylwxv8</v>
       </c>
       <c r="D596" t="str">
-        <v>0.869686</v>
-      </c>
-      <c r="E596" t="str">
-        <v>32.451830</v>
+        <v>7</v>
+      </c>
+      <c r="E596" t="b">
+        <v>1</v>
       </c>
       <c r="F596" t="str">
         <v>init1dehdwm5vjzz92vma9r962l3hm2ah59pqylwxv8</v>
@@ -13935,10 +13935,10 @@
         <v>init1uevn6a5qg6fw0n2vwg9esc6gjurtxrc72enz8r</v>
       </c>
       <c r="D597" t="str">
-        <v>0.908193</v>
-      </c>
-      <c r="E597" t="str">
-        <v>33.200335</v>
+        <v>5</v>
+      </c>
+      <c r="E597" t="b">
+        <v>1</v>
       </c>
       <c r="F597" t="str">
         <v>init1uevn6a5qg6fw0n2vwg9esc6gjurtxrc72enz8r</v>
@@ -13958,10 +13958,10 @@
         <v>init1ce5vxg88skf5suf4ud4jkpnff2nevk2hpjargd</v>
       </c>
       <c r="D598" t="str">
-        <v>0.751048</v>
-      </c>
-      <c r="E598" t="str">
-        <v>34.006099</v>
+        <v>5</v>
+      </c>
+      <c r="E598" t="b">
+        <v>1</v>
       </c>
       <c r="F598" t="str">
         <v>init1ce5vxg88skf5suf4ud4jkpnff2nevk2hpjargd</v>
@@ -13981,10 +13981,10 @@
         <v>init10vg4lkfz4d7q9ng9jq6ya6zp0p6etumudq9pwv</v>
       </c>
       <c r="D599" t="str">
-        <v>0.927320</v>
-      </c>
-      <c r="E599" t="str">
-        <v>30.559628</v>
+        <v>5</v>
+      </c>
+      <c r="E599" t="b">
+        <v>1</v>
       </c>
       <c r="F599" t="str">
         <v>init10vg4lkfz4d7q9ng9jq6ya6zp0p6etumudq9pwv</v>
@@ -14004,10 +14004,10 @@
         <v>init1perf67qakdlun80e7ch5ywanlwkr6ylk3wejte</v>
       </c>
       <c r="D600" t="str">
-        <v>0.789517</v>
-      </c>
-      <c r="E600" t="str">
-        <v>29.485662</v>
+        <v>7</v>
+      </c>
+      <c r="E600" t="b">
+        <v>1</v>
       </c>
       <c r="F600" t="str">
         <v>init1perf67qakdlun80e7ch5ywanlwkr6ylk3wejte</v>
@@ -14027,10 +14027,10 @@
         <v>init1gqwtlqduhr4pywknrktp92nv5gfq735q95ggt8</v>
       </c>
       <c r="D601" t="str">
-        <v>0.835043</v>
-      </c>
-      <c r="E601" t="str">
-        <v>33.705629</v>
+        <v>7</v>
+      </c>
+      <c r="E601" t="b">
+        <v>1</v>
       </c>
       <c r="F601" t="str">
         <v>init1gqwtlqduhr4pywknrktp92nv5gfq735q95ggt8</v>
@@ -14050,10 +14050,10 @@
         <v>init1sl84gjw7ahhc8lcl245qzcc3rmy25jhfjf26ry</v>
       </c>
       <c r="D602" t="str">
-        <v>0.935268</v>
-      </c>
-      <c r="E602" t="str">
-        <v>32.399809</v>
+        <v>9</v>
+      </c>
+      <c r="E602" t="b">
+        <v>1</v>
       </c>
       <c r="F602" t="str">
         <v>init1sl84gjw7ahhc8lcl245qzcc3rmy25jhfjf26ry</v>
@@ -14073,10 +14073,10 @@
         <v>init1tsxyea3m5pw5tk7ugpkqvejfwmfgk3qllxz5fu</v>
       </c>
       <c r="D603" t="str">
-        <v>0.731653</v>
-      </c>
-      <c r="E603" t="str">
-        <v>35.234142</v>
+        <v>5</v>
+      </c>
+      <c r="E603" t="b">
+        <v>1</v>
       </c>
       <c r="F603" t="str">
         <v>init1tsxyea3m5pw5tk7ugpkqvejfwmfgk3qllxz5fu</v>
@@ -14096,10 +14096,10 @@
         <v>init1zr66lg049ysx0tjd0gwns7utqrmf9mpx42ern3</v>
       </c>
       <c r="D604" t="str">
-        <v>0.651449</v>
-      </c>
-      <c r="E604" t="str">
-        <v>20.200373</v>
+        <v>7</v>
+      </c>
+      <c r="E604" t="b">
+        <v>1</v>
       </c>
       <c r="F604" t="str">
         <v>init1zr66lg049ysx0tjd0gwns7utqrmf9mpx42ern3</v>
@@ -14119,10 +14119,10 @@
         <v>init1wsg3ukuhr28xawwng9qmqhz6amza9sxxsp9nmx</v>
       </c>
       <c r="D605" t="str">
-        <v>0.659235</v>
-      </c>
-      <c r="E605" t="str">
-        <v>37.050038</v>
+        <v>9</v>
+      </c>
+      <c r="E605" t="b">
+        <v>1</v>
       </c>
       <c r="F605" t="str">
         <v>init1wsg3ukuhr28xawwng9qmqhz6amza9sxxsp9nmx</v>
@@ -14142,10 +14142,10 @@
         <v>init1crt7knh5vshztp2zqmg3v9e7dy32e22fjggmf5</v>
       </c>
       <c r="D606" t="str">
-        <v>0.825457</v>
-      </c>
-      <c r="E606" t="str">
-        <v>37.138128</v>
+        <v>7</v>
+      </c>
+      <c r="E606" t="b">
+        <v>1</v>
       </c>
       <c r="F606" t="str">
         <v>init1crt7knh5vshztp2zqmg3v9e7dy32e22fjggmf5</v>
@@ -14165,10 +14165,10 @@
         <v>init1rgup94lpttmar0pychyk4zskcc5kq5uptx0z4h</v>
       </c>
       <c r="D607" t="str">
-        <v>0.844305</v>
-      </c>
-      <c r="E607" t="str">
-        <v>24.183963</v>
+        <v>5</v>
+      </c>
+      <c r="E607" t="b">
+        <v>1</v>
       </c>
       <c r="F607" t="str">
         <v>init1rgup94lpttmar0pychyk4zskcc5kq5uptx0z4h</v>
@@ -14188,10 +14188,10 @@
         <v>init148xq78c8dlq9zde58euve38sst3558zu8x9mj9</v>
       </c>
       <c r="D608" t="str">
-        <v>0.766974</v>
-      </c>
-      <c r="E608" t="str">
-        <v>22.200015</v>
+        <v>5</v>
+      </c>
+      <c r="E608" t="b">
+        <v>1</v>
       </c>
       <c r="F608" t="str">
         <v>init148xq78c8dlq9zde58euve38sst3558zu8x9mj9</v>
@@ -14211,10 +14211,10 @@
         <v>init1acetuggyvlrl606vxhgdtgh0c6yn6kqvmznzwp</v>
       </c>
       <c r="D609" t="str">
-        <v>0.656981</v>
-      </c>
-      <c r="E609" t="str">
-        <v>24.068734</v>
+        <v>9</v>
+      </c>
+      <c r="E609" t="b">
+        <v>1</v>
       </c>
       <c r="F609" t="str">
         <v>init1acetuggyvlrl606vxhgdtgh0c6yn6kqvmznzwp</v>
@@ -14234,10 +14234,10 @@
         <v>init155zt8wmryv0mw99y9sa2ncd9xgxvz6tplljjce</v>
       </c>
       <c r="D610" t="str">
-        <v>0.750792</v>
-      </c>
-      <c r="E610" t="str">
-        <v>25.104763</v>
+        <v>7</v>
+      </c>
+      <c r="E610" t="b">
+        <v>1</v>
       </c>
       <c r="F610" t="str">
         <v>init155zt8wmryv0mw99y9sa2ncd9xgxvz6tplljjce</v>
@@ -14257,10 +14257,10 @@
         <v>init1df080620ps98hmfweaxw8z0a7tynsfgaws0g3x</v>
       </c>
       <c r="D611" t="str">
-        <v>0.908037</v>
-      </c>
-      <c r="E611" t="str">
-        <v>25.983431</v>
+        <v>5</v>
+      </c>
+      <c r="E611" t="b">
+        <v>1</v>
       </c>
       <c r="F611" t="str">
         <v>init1df080620ps98hmfweaxw8z0a7tynsfgaws0g3x</v>
@@ -14280,10 +14280,10 @@
         <v>init1pekukx6ulcgkwn9yrhde6aqaxcrrp2gj3lreay</v>
       </c>
       <c r="D612" t="str">
-        <v>0.619328</v>
-      </c>
-      <c r="E612" t="str">
-        <v>28.070162</v>
+        <v>9</v>
+      </c>
+      <c r="E612" t="b">
+        <v>1</v>
       </c>
       <c r="F612" t="str">
         <v>init1pekukx6ulcgkwn9yrhde6aqaxcrrp2gj3lreay</v>
@@ -14303,10 +14303,10 @@
         <v>init1f7nqvax3j9nsrdcrk2tw8rq032sgcpuat64f3p</v>
       </c>
       <c r="D613" t="str">
-        <v>0.823552</v>
-      </c>
-      <c r="E613" t="str">
-        <v>37.097460</v>
+        <v>7</v>
+      </c>
+      <c r="E613" t="b">
+        <v>1</v>
       </c>
       <c r="F613" t="str">
         <v>init1f7nqvax3j9nsrdcrk2tw8rq032sgcpuat64f3p</v>
@@ -14326,10 +14326,10 @@
         <v>init1ual53gg989jf65l9hr9acr7h8z9cfmmd349sjx</v>
       </c>
       <c r="D614" t="str">
-        <v>1.006420</v>
-      </c>
-      <c r="E614" t="str">
-        <v>35.368259</v>
+        <v>5</v>
+      </c>
+      <c r="E614" t="b">
+        <v>1</v>
       </c>
       <c r="F614" t="str">
         <v>init1ual53gg989jf65l9hr9acr7h8z9cfmmd349sjx</v>
@@ -14349,10 +14349,10 @@
         <v>init1k37xpe666jk0sdrjxeexgfvfyd6jurynjyxzgh</v>
       </c>
       <c r="D615" t="str">
-        <v>0.872416</v>
-      </c>
-      <c r="E615" t="str">
-        <v>32.167431</v>
+        <v>7</v>
+      </c>
+      <c r="E615" t="b">
+        <v>1</v>
       </c>
       <c r="F615" t="str">
         <v>init1k37xpe666jk0sdrjxeexgfvfyd6jurynjyxzgh</v>
@@ -14372,10 +14372,10 @@
         <v>init16zendlld7yw4fnj5srzfypu9qdk8vmjc40gvkp</v>
       </c>
       <c r="D616" t="str">
-        <v>0.766682</v>
-      </c>
-      <c r="E616" t="str">
-        <v>36.038905</v>
+        <v>7</v>
+      </c>
+      <c r="E616" t="b">
+        <v>1</v>
       </c>
       <c r="F616" t="str">
         <v>init16zendlld7yw4fnj5srzfypu9qdk8vmjc40gvkp</v>
@@ -14395,10 +14395,10 @@
         <v>init1vd83a00t7tyu2j42m7jl5asnzslgejdt57qdef</v>
       </c>
       <c r="D617" t="str">
-        <v>0.925890</v>
-      </c>
-      <c r="E617" t="str">
-        <v>29.081074</v>
+        <v>7</v>
+      </c>
+      <c r="E617" t="b">
+        <v>1</v>
       </c>
       <c r="F617" t="str">
         <v>init1vd83a00t7tyu2j42m7jl5asnzslgejdt57qdef</v>
@@ -14418,10 +14418,10 @@
         <v>init12dqxpt629ygkumquttrd0qxncyfhrlvss62hfy</v>
       </c>
       <c r="D618" t="str">
-        <v>0.783881</v>
-      </c>
-      <c r="E618" t="str">
-        <v>27.016176</v>
+        <v>5</v>
+      </c>
+      <c r="E618" t="b">
+        <v>1</v>
       </c>
       <c r="F618" t="str">
         <v>init12dqxpt629ygkumquttrd0qxncyfhrlvss62hfy</v>
@@ -14441,10 +14441,10 @@
         <v>init1nf9xhdhh7ey4sr2qn386hx059d7t26tljvedtf</v>
       </c>
       <c r="D619" t="str">
-        <v>10.582276</v>
-      </c>
-      <c r="E619" t="str">
-        <v>56.200007</v>
+        <v>5</v>
+      </c>
+      <c r="E619" t="b">
+        <v>1</v>
       </c>
       <c r="F619" t="str">
         <v>init1nf9xhdhh7ey4sr2qn386hx059d7t26tljvedtf</v>
@@ -14464,10 +14464,10 @@
         <v>init1l2w72rvsp96phpk54qft9mezrlktjwlqs8a7hm</v>
       </c>
       <c r="D620" t="str">
-        <v>0.693610</v>
-      </c>
-      <c r="E620" t="str">
-        <v>26.129163</v>
+        <v>7</v>
+      </c>
+      <c r="E620" t="b">
+        <v>1</v>
       </c>
       <c r="F620" t="str">
         <v>init1l2w72rvsp96phpk54qft9mezrlktjwlqs8a7hm</v>
@@ -14487,10 +14487,10 @@
         <v>init167wm9ksffn3gzp7mf2qfjk8hyqpx0w03cnq3vh</v>
       </c>
       <c r="D621" t="str">
-        <v>0.499726</v>
-      </c>
-      <c r="E621" t="str">
-        <v>16.190102</v>
+        <v>5</v>
+      </c>
+      <c r="E621" t="b">
+        <v>1</v>
       </c>
       <c r="F621" t="str">
         <v>init167wm9ksffn3gzp7mf2qfjk8hyqpx0w03cnq3vh</v>
